--- a/06_납품현황/2017/04_부산용홈만w몰/02_SerialNumber/CCM2_USM_LGM_SerialNumber.xlsx
+++ b/06_납품현황/2017/04_부산용홈만w몰/02_SerialNumber/CCM2_USM_LGM_SerialNumber.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GUI\02_PGS\06_납품현황\2017\04_부산용홈만w몰\02_SerialNumber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\02_PGS\06_납품현황\2017\04_부산용홈만w몰\02_SerialNumber\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -402,45 +403,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I765"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A375" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D384" sqref="D384:D388"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="1"/>
-    <col min="2" max="2" width="12.09765625" style="2" customWidth="1"/>
-    <col min="4" max="6" width="8.796875" style="1"/>
-    <col min="7" max="8" width="8.796875" style="3"/>
-    <col min="11" max="11" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.78515625" style="1"/>
+    <col min="2" max="2" width="12.0703125" style="2" customWidth="1"/>
+    <col min="4" max="6" width="8.78515625" style="1"/>
+    <col min="7" max="8" width="8.78515625" style="3"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -469,7 +470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -498,7 +499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -527,7 +528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -556,7 +557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -585,7 +586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -614,7 +615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -643,7 +644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -672,7 +673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -701,7 +702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -730,7 +731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -759,7 +760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -788,7 +789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -817,7 +818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -846,7 +847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -875,7 +876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -904,7 +905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -933,7 +934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -962,7 +963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -991,7 +992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1020,7 +1021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1049,7 +1050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1078,7 +1079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1107,7 +1108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1136,7 +1137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1165,7 +1166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1194,7 +1195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1223,7 +1224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1252,7 +1253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1281,7 +1282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -1310,7 +1311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -1339,7 +1340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -1368,7 +1369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -1397,7 +1398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -1426,7 +1427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -1455,7 +1456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -1484,7 +1485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -1513,7 +1514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -1542,7 +1543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -1571,7 +1572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -1600,7 +1601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -1629,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -1658,7 +1659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -1687,7 +1688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -1716,7 +1717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -1745,7 +1746,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -1774,12 +1775,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>129</v>
       </c>
@@ -1790,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>130</v>
       </c>
@@ -1801,7 +1802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>131</v>
       </c>
@@ -1812,7 +1813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>132</v>
       </c>
@@ -1823,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>133</v>
       </c>
@@ -1834,7 +1835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>134</v>
       </c>
@@ -1845,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>135</v>
       </c>
@@ -1856,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>136</v>
       </c>
@@ -1867,7 +1868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>137</v>
       </c>
@@ -1878,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>138</v>
       </c>
@@ -1889,7 +1890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>139</v>
       </c>
@@ -1900,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>140</v>
       </c>
@@ -1911,22 +1912,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1</v>
       </c>
@@ -1955,7 +1956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>2</v>
       </c>
@@ -1984,7 +1985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>3</v>
       </c>
@@ -2013,7 +2014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>4</v>
       </c>
@@ -2042,7 +2043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>5</v>
       </c>
@@ -2071,7 +2072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1">
         <v>6</v>
       </c>
@@ -2100,7 +2101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1">
         <v>7</v>
       </c>
@@ -2129,7 +2130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1">
         <v>8</v>
       </c>
@@ -2158,7 +2159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>9</v>
       </c>
@@ -2187,7 +2188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
         <v>10</v>
       </c>
@@ -2216,7 +2217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
         <v>11</v>
       </c>
@@ -2245,7 +2246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
         <v>12</v>
       </c>
@@ -2274,7 +2275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
         <v>13</v>
       </c>
@@ -2303,7 +2304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>14</v>
       </c>
@@ -2332,7 +2333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>15</v>
       </c>
@@ -2361,7 +2362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>16</v>
       </c>
@@ -2390,7 +2391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>17</v>
       </c>
@@ -2419,7 +2420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
         <v>18</v>
       </c>
@@ -2448,7 +2449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
         <v>19</v>
       </c>
@@ -2477,7 +2478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
         <v>20</v>
       </c>
@@ -2506,7 +2507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>21</v>
       </c>
@@ -2535,7 +2536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
         <v>22</v>
       </c>
@@ -2564,7 +2565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
         <v>23</v>
       </c>
@@ -2593,7 +2594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
         <v>24</v>
       </c>
@@ -2622,7 +2623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
         <v>25</v>
       </c>
@@ -2651,7 +2652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
         <v>26</v>
       </c>
@@ -2680,7 +2681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
         <v>27</v>
       </c>
@@ -2709,7 +2710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1">
         <v>28</v>
       </c>
@@ -2738,7 +2739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1">
         <v>29</v>
       </c>
@@ -2767,7 +2768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1">
         <v>30</v>
       </c>
@@ -2796,7 +2797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1">
         <v>31</v>
       </c>
@@ -2825,7 +2826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1">
         <v>32</v>
       </c>
@@ -2854,7 +2855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1">
         <v>33</v>
       </c>
@@ -2883,7 +2884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1">
         <v>34</v>
       </c>
@@ -2912,7 +2913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1">
         <v>35</v>
       </c>
@@ -2941,7 +2942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1">
         <v>36</v>
       </c>
@@ -2970,12 +2971,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1">
         <v>37</v>
       </c>
       <c r="B104" s="2">
-        <v>5988</v>
+        <v>7724</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2999,7 +3000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1">
         <v>38</v>
       </c>
@@ -3028,7 +3029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
         <v>39</v>
       </c>
@@ -3057,7 +3058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
         <v>40</v>
       </c>
@@ -3086,7 +3087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
         <v>41</v>
       </c>
@@ -3115,7 +3116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
         <v>42</v>
       </c>
@@ -3144,12 +3145,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
         <v>129</v>
       </c>
@@ -3160,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
         <v>130</v>
       </c>
@@ -3171,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1">
         <v>131</v>
       </c>
@@ -3182,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
         <v>132</v>
       </c>
@@ -3193,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
         <v>133</v>
       </c>
@@ -3204,7 +3205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1">
         <v>134</v>
       </c>
@@ -3215,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1">
         <v>135</v>
       </c>
@@ -3226,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1">
         <v>136</v>
       </c>
@@ -3237,7 +3238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1">
         <v>137</v>
       </c>
@@ -3248,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1">
         <v>138</v>
       </c>
@@ -3259,22 +3260,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1">
         <v>1</v>
       </c>
@@ -3303,7 +3304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1">
         <v>2</v>
       </c>
@@ -3332,7 +3333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1">
         <v>3</v>
       </c>
@@ -3361,7 +3362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1">
         <v>4</v>
       </c>
@@ -3390,7 +3391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1">
         <v>5</v>
       </c>
@@ -3419,7 +3420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1">
         <v>6</v>
       </c>
@@ -3448,7 +3449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1">
         <v>7</v>
       </c>
@@ -3477,7 +3478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1">
         <v>8</v>
       </c>
@@ -3506,7 +3507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1">
         <v>9</v>
       </c>
@@ -3535,7 +3536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
         <v>10</v>
       </c>
@@ -3564,7 +3565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1">
         <v>11</v>
       </c>
@@ -3593,7 +3594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1">
         <v>12</v>
       </c>
@@ -3622,7 +3623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1">
         <v>13</v>
       </c>
@@ -3651,7 +3652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1">
         <v>14</v>
       </c>
@@ -3680,7 +3681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1">
         <v>15</v>
       </c>
@@ -3709,7 +3710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1">
         <v>16</v>
       </c>
@@ -3738,7 +3739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1">
         <v>17</v>
       </c>
@@ -3767,7 +3768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1">
         <v>18</v>
       </c>
@@ -3796,7 +3797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1">
         <v>19</v>
       </c>
@@ -3825,7 +3826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1">
         <v>20</v>
       </c>
@@ -3854,7 +3855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1">
         <v>21</v>
       </c>
@@ -3883,7 +3884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1">
         <v>22</v>
       </c>
@@ -3912,7 +3913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1">
         <v>23</v>
       </c>
@@ -3941,7 +3942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1">
         <v>24</v>
       </c>
@@ -3970,7 +3971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1">
         <v>25</v>
       </c>
@@ -3999,7 +4000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1">
         <v>26</v>
       </c>
@@ -4028,7 +4029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1">
         <v>27</v>
       </c>
@@ -4057,7 +4058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1">
         <v>28</v>
       </c>
@@ -4086,7 +4087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1">
         <v>29</v>
       </c>
@@ -4115,7 +4116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1">
         <v>30</v>
       </c>
@@ -4144,7 +4145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1">
         <v>31</v>
       </c>
@@ -4173,7 +4174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1">
         <v>32</v>
       </c>
@@ -4202,7 +4203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1">
         <v>33</v>
       </c>
@@ -4231,7 +4232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1">
         <v>34</v>
       </c>
@@ -4260,7 +4261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1">
         <v>35</v>
       </c>
@@ -4289,7 +4290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1">
         <v>36</v>
       </c>
@@ -4318,7 +4319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1">
         <v>37</v>
       </c>
@@ -4347,7 +4348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1">
         <v>38</v>
       </c>
@@ -4376,7 +4377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1">
         <v>39</v>
       </c>
@@ -4405,7 +4406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1">
         <v>40</v>
       </c>
@@ -4434,7 +4435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1">
         <v>41</v>
       </c>
@@ -4463,7 +4464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1">
         <v>42</v>
       </c>
@@ -4492,7 +4493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1">
         <v>43</v>
       </c>
@@ -4521,7 +4522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1">
         <v>44</v>
       </c>
@@ -4550,7 +4551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1">
         <v>45</v>
       </c>
@@ -4579,7 +4580,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1">
         <v>46</v>
       </c>
@@ -4608,12 +4609,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1">
         <v>129</v>
       </c>
@@ -4624,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1">
         <v>130</v>
       </c>
@@ -4635,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1">
         <v>131</v>
       </c>
@@ -4646,7 +4647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1">
         <v>132</v>
       </c>
@@ -4657,7 +4658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1">
         <v>133</v>
       </c>
@@ -4668,7 +4669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1">
         <v>134</v>
       </c>
@@ -4679,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1">
         <v>135</v>
       </c>
@@ -4690,7 +4691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1">
         <v>136</v>
       </c>
@@ -4701,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1">
         <v>137</v>
       </c>
@@ -4712,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1">
         <v>138</v>
       </c>
@@ -4723,7 +4724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1">
         <v>139</v>
       </c>
@@ -4734,7 +4735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1">
         <v>140</v>
       </c>
@@ -4745,22 +4746,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1">
         <v>1</v>
       </c>
@@ -4789,7 +4790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1">
         <v>2</v>
       </c>
@@ -4818,7 +4819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1">
         <v>3</v>
       </c>
@@ -4847,7 +4848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1">
         <v>4</v>
       </c>
@@ -4876,7 +4877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1">
         <v>5</v>
       </c>
@@ -4905,7 +4906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1">
         <v>6</v>
       </c>
@@ -4934,7 +4935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1">
         <v>7</v>
       </c>
@@ -4963,7 +4964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1">
         <v>8</v>
       </c>
@@ -4992,7 +4993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1">
         <v>9</v>
       </c>
@@ -5021,7 +5022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1">
         <v>10</v>
       </c>
@@ -5050,7 +5051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1">
         <v>11</v>
       </c>
@@ -5079,7 +5080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="1">
         <v>12</v>
       </c>
@@ -5108,7 +5109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="1">
         <v>13</v>
       </c>
@@ -5137,7 +5138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="1">
         <v>14</v>
       </c>
@@ -5166,7 +5167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1">
         <v>15</v>
       </c>
@@ -5195,7 +5196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1">
         <v>16</v>
       </c>
@@ -5224,7 +5225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1">
         <v>17</v>
       </c>
@@ -5253,7 +5254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="1">
         <v>18</v>
       </c>
@@ -5282,7 +5283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="1">
         <v>19</v>
       </c>
@@ -5311,7 +5312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="1">
         <v>20</v>
       </c>
@@ -5340,7 +5341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="1">
         <v>21</v>
       </c>
@@ -5369,7 +5370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="1">
         <v>22</v>
       </c>
@@ -5398,7 +5399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="1">
         <v>23</v>
       </c>
@@ -5427,7 +5428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="1">
         <v>24</v>
       </c>
@@ -5456,7 +5457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="1">
         <v>25</v>
       </c>
@@ -5485,7 +5486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="1">
         <v>26</v>
       </c>
@@ -5514,7 +5515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="1">
         <v>27</v>
       </c>
@@ -5543,7 +5544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="1">
         <v>28</v>
       </c>
@@ -5572,7 +5573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="1">
         <v>29</v>
       </c>
@@ -5601,7 +5602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="1">
         <v>30</v>
       </c>
@@ -5630,7 +5631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="1">
         <v>31</v>
       </c>
@@ -5659,7 +5660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="1">
         <v>32</v>
       </c>
@@ -5688,7 +5689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="1">
         <v>33</v>
       </c>
@@ -5717,7 +5718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1">
         <v>34</v>
       </c>
@@ -5746,7 +5747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1">
         <v>35</v>
       </c>
@@ -5775,7 +5776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="1">
         <v>36</v>
       </c>
@@ -5804,7 +5805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="1">
         <v>37</v>
       </c>
@@ -5833,7 +5834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="1">
         <v>38</v>
       </c>
@@ -5862,7 +5863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="1">
         <v>39</v>
       </c>
@@ -5891,7 +5892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="1">
         <v>40</v>
       </c>
@@ -5920,7 +5921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="1">
         <v>41</v>
       </c>
@@ -5949,7 +5950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="1">
         <v>42</v>
       </c>
@@ -5978,7 +5979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="1">
         <v>43</v>
       </c>
@@ -6007,7 +6008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1">
         <v>44</v>
       </c>
@@ -6036,7 +6037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1">
         <v>45</v>
       </c>
@@ -6065,7 +6066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1">
         <v>46</v>
       </c>
@@ -6094,12 +6095,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="1">
         <v>129</v>
       </c>
@@ -6110,7 +6111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="1">
         <v>130</v>
       </c>
@@ -6121,7 +6122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="1">
         <v>131</v>
       </c>
@@ -6132,7 +6133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1">
         <v>132</v>
       </c>
@@ -6143,7 +6144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1">
         <v>133</v>
       </c>
@@ -6154,7 +6155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1">
         <v>134</v>
       </c>
@@ -6165,7 +6166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1">
         <v>135</v>
       </c>
@@ -6176,7 +6177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="1">
         <v>136</v>
       </c>
@@ -6187,7 +6188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="1">
         <v>137</v>
       </c>
@@ -6198,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="1">
         <v>138</v>
       </c>
@@ -6209,7 +6210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="1">
         <v>139</v>
       </c>
@@ -6220,7 +6221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="1">
         <v>140</v>
       </c>
@@ -6231,22 +6232,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="1">
         <v>1</v>
       </c>
@@ -6275,7 +6276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="1">
         <v>2</v>
       </c>
@@ -6304,7 +6305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="1">
         <v>3</v>
       </c>
@@ -6333,7 +6334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="1">
         <v>4</v>
       </c>
@@ -6362,7 +6363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="1">
         <v>5</v>
       </c>
@@ -6391,7 +6392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="1">
         <v>6</v>
       </c>
@@ -6420,7 +6421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="1">
         <v>7</v>
       </c>
@@ -6449,7 +6450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="1">
         <v>8</v>
       </c>
@@ -6478,7 +6479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="1">
         <v>9</v>
       </c>
@@ -6507,7 +6508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="1">
         <v>10</v>
       </c>
@@ -6536,7 +6537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="1">
         <v>11</v>
       </c>
@@ -6565,7 +6566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="1">
         <v>12</v>
       </c>
@@ -6594,7 +6595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="1">
         <v>13</v>
       </c>
@@ -6623,7 +6624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="1">
         <v>14</v>
       </c>
@@ -6652,7 +6653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="1">
         <v>15</v>
       </c>
@@ -6681,7 +6682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="1">
         <v>16</v>
       </c>
@@ -6710,7 +6711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="1">
         <v>17</v>
       </c>
@@ -6739,7 +6740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="1">
         <v>18</v>
       </c>
@@ -6768,7 +6769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="1">
         <v>19</v>
       </c>
@@ -6797,7 +6798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="1">
         <v>20</v>
       </c>
@@ -6826,7 +6827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="1">
         <v>21</v>
       </c>
@@ -6855,7 +6856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="1">
         <v>22</v>
       </c>
@@ -6884,7 +6885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="1">
         <v>23</v>
       </c>
@@ -6913,7 +6914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="1">
         <v>24</v>
       </c>
@@ -6942,7 +6943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="1">
         <v>25</v>
       </c>
@@ -6971,7 +6972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="1">
         <v>26</v>
       </c>
@@ -7000,7 +7001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="1">
         <v>27</v>
       </c>
@@ -7029,7 +7030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="1">
         <v>28</v>
       </c>
@@ -7058,7 +7059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="1">
         <v>29</v>
       </c>
@@ -7087,7 +7088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="1">
         <v>30</v>
       </c>
@@ -7116,7 +7117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="1">
         <v>31</v>
       </c>
@@ -7145,7 +7146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="1">
         <v>32</v>
       </c>
@@ -7174,7 +7175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="1">
         <v>33</v>
       </c>
@@ -7203,7 +7204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="1">
         <v>34</v>
       </c>
@@ -7232,7 +7233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="1">
         <v>35</v>
       </c>
@@ -7261,7 +7262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="1">
         <v>36</v>
       </c>
@@ -7290,7 +7291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="1">
         <v>37</v>
       </c>
@@ -7319,7 +7320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="1">
         <v>38</v>
       </c>
@@ -7348,7 +7349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="1">
         <v>39</v>
       </c>
@@ -7377,7 +7378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="1">
         <v>40</v>
       </c>
@@ -7406,7 +7407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="1">
         <v>41</v>
       </c>
@@ -7435,7 +7436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="1">
         <v>42</v>
       </c>
@@ -7464,7 +7465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="1">
         <v>43</v>
       </c>
@@ -7493,7 +7494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="1">
         <v>44</v>
       </c>
@@ -7522,7 +7523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="1">
         <v>45</v>
       </c>
@@ -7551,7 +7552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="1">
         <v>46</v>
       </c>
@@ -7580,7 +7581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="1">
         <v>47</v>
       </c>
@@ -7609,7 +7610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="1">
         <v>48</v>
       </c>
@@ -7638,7 +7639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="1">
         <v>49</v>
       </c>
@@ -7667,7 +7668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="1">
         <v>50</v>
       </c>
@@ -7696,7 +7697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="1">
         <v>51</v>
       </c>
@@ -7725,7 +7726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="1">
         <v>52</v>
       </c>
@@ -7754,7 +7755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="1">
         <v>53</v>
       </c>
@@ -7783,7 +7784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="1">
         <v>54</v>
       </c>
@@ -7812,7 +7813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="1">
         <v>55</v>
       </c>
@@ -7841,7 +7842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="1">
         <v>56</v>
       </c>
@@ -7870,7 +7871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="1">
         <v>57</v>
       </c>
@@ -7899,7 +7900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="1">
         <v>58</v>
       </c>
@@ -7928,7 +7929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="1">
         <v>59</v>
       </c>
@@ -7957,7 +7958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="1">
         <v>60</v>
       </c>
@@ -7986,7 +7987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="1">
         <v>61</v>
       </c>
@@ -8015,7 +8016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="1">
         <v>62</v>
       </c>
@@ -8044,7 +8045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="1">
         <v>63</v>
       </c>
@@ -8073,7 +8074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="1">
         <v>64</v>
       </c>
@@ -8102,7 +8103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="1">
         <v>65</v>
       </c>
@@ -8131,7 +8132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="1">
         <v>66</v>
       </c>
@@ -8160,7 +8161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="1">
         <v>67</v>
       </c>
@@ -8189,7 +8190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="1">
         <v>68</v>
       </c>
@@ -8218,7 +8219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="1">
         <v>69</v>
       </c>
@@ -8247,7 +8248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="1">
         <v>70</v>
       </c>
@@ -8276,7 +8277,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="326" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="1">
         <v>71</v>
       </c>
@@ -8305,7 +8306,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="1">
         <v>72</v>
       </c>
@@ -8334,12 +8335,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="1">
         <v>129</v>
       </c>
@@ -8350,7 +8351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="1">
         <v>130</v>
       </c>
@@ -8361,7 +8362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="1">
         <v>131</v>
       </c>
@@ -8372,7 +8373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="1">
         <v>132</v>
       </c>
@@ -8383,7 +8384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="1">
         <v>133</v>
       </c>
@@ -8394,7 +8395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="1">
         <v>134</v>
       </c>
@@ -8405,7 +8406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="1">
         <v>135</v>
       </c>
@@ -8416,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="1">
         <v>136</v>
       </c>
@@ -8427,7 +8428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="1">
         <v>137</v>
       </c>
@@ -8438,7 +8439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="1">
         <v>138</v>
       </c>
@@ -8449,7 +8450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="1">
         <v>139</v>
       </c>
@@ -8460,7 +8461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="1">
         <v>140</v>
       </c>
@@ -8471,7 +8472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="1">
         <v>141</v>
       </c>
@@ -8482,7 +8483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="1">
         <v>142</v>
       </c>
@@ -8493,7 +8494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="1">
         <v>143</v>
       </c>
@@ -8504,7 +8505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="1">
         <v>144</v>
       </c>
@@ -8515,7 +8516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="1">
         <v>145</v>
       </c>
@@ -8526,7 +8527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="1">
         <v>146</v>
       </c>
@@ -8537,7 +8538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="1">
         <v>147</v>
       </c>
@@ -8548,7 +8549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="1">
         <v>148</v>
       </c>
@@ -8559,7 +8560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="1">
         <v>149</v>
       </c>
@@ -8570,7 +8571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="1">
         <v>150</v>
       </c>
@@ -8581,22 +8582,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="1">
         <v>1</v>
       </c>
@@ -8625,7 +8626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="1">
         <v>2</v>
       </c>
@@ -8654,7 +8655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="1">
         <v>3</v>
       </c>
@@ -8683,7 +8684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="1">
         <v>4</v>
       </c>
@@ -8712,7 +8713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="1">
         <v>5</v>
       </c>
@@ -8741,7 +8742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="1">
         <v>6</v>
       </c>
@@ -8770,7 +8771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="1">
         <v>7</v>
       </c>
@@ -8799,7 +8800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="1">
         <v>8</v>
       </c>
@@ -8828,7 +8829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="1">
         <v>9</v>
       </c>
@@ -8857,7 +8858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="1">
         <v>10</v>
       </c>
@@ -8886,7 +8887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="1">
         <v>11</v>
       </c>
@@ -8915,7 +8916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="1">
         <v>12</v>
       </c>
@@ -8944,7 +8945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="1">
         <v>13</v>
       </c>
@@ -8973,7 +8974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="1">
         <v>14</v>
       </c>
@@ -9002,7 +9003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="1">
         <v>15</v>
       </c>
@@ -9031,7 +9032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" s="1">
         <v>16</v>
       </c>
@@ -9060,7 +9061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="1">
         <v>17</v>
       </c>
@@ -9089,7 +9090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="1">
         <v>18</v>
       </c>
@@ -9118,7 +9119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="1">
         <v>19</v>
       </c>
@@ -9147,7 +9148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="1">
         <v>20</v>
       </c>
@@ -9176,7 +9177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="1">
         <v>21</v>
       </c>
@@ -9205,7 +9206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="1">
         <v>22</v>
       </c>
@@ -9234,7 +9235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" s="1">
         <v>23</v>
       </c>
@@ -9263,7 +9264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="1">
         <v>24</v>
       </c>
@@ -9292,7 +9293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="1">
         <v>25</v>
       </c>
@@ -9321,7 +9322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="1">
         <v>26</v>
       </c>
@@ -9350,7 +9351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="1">
         <v>27</v>
       </c>
@@ -9379,7 +9380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="1">
         <v>28</v>
       </c>
@@ -9408,7 +9409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="1">
         <v>29</v>
       </c>
@@ -9437,7 +9438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="1">
         <v>30</v>
       </c>
@@ -9466,7 +9467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="1">
         <v>31</v>
       </c>
@@ -9495,7 +9496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="1">
         <v>32</v>
       </c>
@@ -9524,7 +9525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="1">
         <v>33</v>
       </c>
@@ -9553,7 +9554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="1">
         <v>34</v>
       </c>
@@ -9582,7 +9583,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="1">
         <v>35</v>
       </c>
@@ -9611,7 +9612,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="1">
         <v>36</v>
       </c>
@@ -9640,122 +9641,122 @@
         <v>99</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="1">
         <v>129</v>
       </c>
       <c r="B394" s="2">
-        <v>1978</v>
+        <v>2165</v>
       </c>
       <c r="C394">
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="1">
         <v>130</v>
       </c>
       <c r="B395" s="2">
-        <v>1979</v>
+        <v>2164</v>
       </c>
       <c r="C395">
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="1">
         <v>131</v>
       </c>
       <c r="B396" s="2">
-        <v>1980</v>
+        <v>2163</v>
       </c>
       <c r="C396">
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="1">
         <v>132</v>
       </c>
       <c r="B397" s="2">
-        <v>1981</v>
+        <v>2162</v>
       </c>
       <c r="C397">
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" s="1">
         <v>133</v>
       </c>
       <c r="B398" s="2">
-        <v>1982</v>
+        <v>2161</v>
       </c>
       <c r="C398">
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" s="1">
         <v>134</v>
       </c>
       <c r="B399" s="2">
-        <v>1983</v>
+        <v>2160</v>
       </c>
       <c r="C399">
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" s="1">
         <v>135</v>
       </c>
       <c r="B400" s="2">
-        <v>1984</v>
+        <v>2159</v>
       </c>
       <c r="C400">
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" s="1">
         <v>136</v>
       </c>
       <c r="B401" s="2">
-        <v>1985</v>
+        <v>2158</v>
       </c>
       <c r="C401">
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" s="1">
         <v>137</v>
       </c>
       <c r="B402" s="2">
-        <v>1986</v>
+        <v>2157</v>
       </c>
       <c r="C402">
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" s="1">
         <v>138</v>
       </c>
       <c r="B403" s="2">
-        <v>1987</v>
+        <v>2156</v>
       </c>
       <c r="C403">
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" s="1">
         <v>139</v>
       </c>
@@ -9766,7 +9767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" s="1">
         <v>140</v>
       </c>
@@ -9777,22 +9778,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" s="1">
         <v>1</v>
       </c>
@@ -9821,7 +9822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="1">
         <v>2</v>
       </c>
@@ -9850,7 +9851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" s="1">
         <v>3</v>
       </c>
@@ -9879,7 +9880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" s="1">
         <v>4</v>
       </c>
@@ -9908,7 +9909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" s="1">
         <v>5</v>
       </c>
@@ -9919,7 +9920,7 @@
         <v>0</v>
       </c>
       <c r="D414" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E414" s="1">
         <v>220</v>
@@ -9937,7 +9938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" s="1">
         <v>6</v>
       </c>
@@ -9966,7 +9967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" s="1">
         <v>7</v>
       </c>
@@ -9995,7 +9996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" s="1">
         <v>8</v>
       </c>
@@ -10006,7 +10007,7 @@
         <v>0</v>
       </c>
       <c r="D417" s="1">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E417" s="1">
         <v>220</v>
@@ -10024,7 +10025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" s="1">
         <v>9</v>
       </c>
@@ -10053,7 +10054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" s="1">
         <v>10</v>
       </c>
@@ -10064,7 +10065,7 @@
         <v>0</v>
       </c>
       <c r="D419" s="1">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E419" s="1">
         <v>220</v>
@@ -10082,7 +10083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" s="1">
         <v>11</v>
       </c>
@@ -10093,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="D420" s="1">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E420" s="1">
         <v>220</v>
@@ -10111,7 +10112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="1">
         <v>12</v>
       </c>
@@ -10122,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="D421" s="1">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E421" s="1">
         <v>220</v>
@@ -10140,7 +10141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" s="1">
         <v>13</v>
       </c>
@@ -10151,7 +10152,7 @@
         <v>0</v>
       </c>
       <c r="D422" s="1">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E422" s="1">
         <v>220</v>
@@ -10169,7 +10170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" s="1">
         <v>14</v>
       </c>
@@ -10180,7 +10181,7 @@
         <v>0</v>
       </c>
       <c r="D423" s="1">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E423" s="1">
         <v>220</v>
@@ -10198,7 +10199,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" s="1">
         <v>15</v>
       </c>
@@ -10209,7 +10210,7 @@
         <v>0</v>
       </c>
       <c r="D424" s="1">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E424" s="1">
         <v>220</v>
@@ -10227,7 +10228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" s="1">
         <v>16</v>
       </c>
@@ -10238,7 +10239,7 @@
         <v>0</v>
       </c>
       <c r="D425" s="1">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E425" s="1">
         <v>220</v>
@@ -10256,7 +10257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" s="1">
         <v>17</v>
       </c>
@@ -10267,7 +10268,7 @@
         <v>0</v>
       </c>
       <c r="D426" s="1">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E426" s="1">
         <v>220</v>
@@ -10285,7 +10286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" s="1">
         <v>18</v>
       </c>
@@ -10296,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="D427" s="1">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E427" s="1">
         <v>220</v>
@@ -10314,7 +10315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" s="1">
         <v>19</v>
       </c>
@@ -10325,7 +10326,7 @@
         <v>0</v>
       </c>
       <c r="D428" s="1">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E428" s="1">
         <v>220</v>
@@ -10343,7 +10344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" s="1">
         <v>20</v>
       </c>
@@ -10354,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="D429" s="1">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E429" s="1">
         <v>220</v>
@@ -10372,7 +10373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" s="1">
         <v>21</v>
       </c>
@@ -10383,7 +10384,7 @@
         <v>0</v>
       </c>
       <c r="D430" s="1">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E430" s="1">
         <v>220</v>
@@ -10401,7 +10402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" s="1">
         <v>22</v>
       </c>
@@ -10412,7 +10413,7 @@
         <v>0</v>
       </c>
       <c r="D431" s="1">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E431" s="1">
         <v>220</v>
@@ -10430,7 +10431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" s="1">
         <v>23</v>
       </c>
@@ -10441,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="D432" s="1">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E432" s="1">
         <v>220</v>
@@ -10459,7 +10460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" s="1">
         <v>24</v>
       </c>
@@ -10470,7 +10471,7 @@
         <v>0</v>
       </c>
       <c r="D433" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E433" s="1">
         <v>220</v>
@@ -10488,7 +10489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" s="1">
         <v>25</v>
       </c>
@@ -10499,7 +10500,7 @@
         <v>0</v>
       </c>
       <c r="D434" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E434" s="1">
         <v>220</v>
@@ -10517,7 +10518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" s="1">
         <v>26</v>
       </c>
@@ -10528,7 +10529,7 @@
         <v>0</v>
       </c>
       <c r="D435" s="1">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E435" s="1">
         <v>220</v>
@@ -10546,7 +10547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" s="1">
         <v>27</v>
       </c>
@@ -10557,7 +10558,7 @@
         <v>0</v>
       </c>
       <c r="D436" s="1">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E436" s="1">
         <v>220</v>
@@ -10575,7 +10576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" s="1">
         <v>28</v>
       </c>
@@ -10586,7 +10587,7 @@
         <v>0</v>
       </c>
       <c r="D437" s="1">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E437" s="1">
         <v>220</v>
@@ -10604,7 +10605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" s="1">
         <v>29</v>
       </c>
@@ -10615,7 +10616,7 @@
         <v>0</v>
       </c>
       <c r="D438" s="1">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E438" s="1">
         <v>220</v>
@@ -10633,7 +10634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" s="1">
         <v>30</v>
       </c>
@@ -10644,7 +10645,7 @@
         <v>0</v>
       </c>
       <c r="D439" s="1">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E439" s="1">
         <v>220</v>
@@ -10662,7 +10663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" s="1">
         <v>31</v>
       </c>
@@ -10673,7 +10674,7 @@
         <v>0</v>
       </c>
       <c r="D440" s="1">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E440" s="1">
         <v>220</v>
@@ -10691,7 +10692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" s="1">
         <v>32</v>
       </c>
@@ -10702,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="D441" s="1">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E441" s="1">
         <v>220</v>
@@ -10720,7 +10721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" s="1">
         <v>33</v>
       </c>
@@ -10731,7 +10732,7 @@
         <v>0</v>
       </c>
       <c r="D442" s="1">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E442" s="1">
         <v>220</v>
@@ -10749,7 +10750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" s="1">
         <v>34</v>
       </c>
@@ -10760,7 +10761,7 @@
         <v>0</v>
       </c>
       <c r="D443" s="1">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E443" s="1">
         <v>220</v>
@@ -10778,7 +10779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" s="1">
         <v>35</v>
       </c>
@@ -10789,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="D444" s="1">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E444" s="1">
         <v>220</v>
@@ -10807,7 +10808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" s="1">
         <v>36</v>
       </c>
@@ -10818,7 +10819,7 @@
         <v>0</v>
       </c>
       <c r="D445" s="1">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E445" s="1">
         <v>220</v>
@@ -10836,7 +10837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" s="1">
         <v>37</v>
       </c>
@@ -10847,7 +10848,7 @@
         <v>0</v>
       </c>
       <c r="D446" s="1">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E446" s="1">
         <v>220</v>
@@ -10865,7 +10866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" s="1">
         <v>38</v>
       </c>
@@ -10876,7 +10877,7 @@
         <v>0</v>
       </c>
       <c r="D447" s="1">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E447" s="1">
         <v>220</v>
@@ -10894,7 +10895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" s="1">
         <v>39</v>
       </c>
@@ -10905,7 +10906,7 @@
         <v>0</v>
       </c>
       <c r="D448" s="1">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E448" s="1">
         <v>220</v>
@@ -10923,7 +10924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" s="1">
         <v>40</v>
       </c>
@@ -10934,7 +10935,7 @@
         <v>0</v>
       </c>
       <c r="D449" s="1">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E449" s="1">
         <v>220</v>
@@ -10952,7 +10953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" s="1">
         <v>41</v>
       </c>
@@ -10963,7 +10964,7 @@
         <v>0</v>
       </c>
       <c r="D450" s="1">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E450" s="1">
         <v>220</v>
@@ -10981,7 +10982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" s="1">
         <v>42</v>
       </c>
@@ -10992,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="D451" s="1">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E451" s="1">
         <v>220</v>
@@ -11010,7 +11011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" s="1">
         <v>43</v>
       </c>
@@ -11021,7 +11022,7 @@
         <v>0</v>
       </c>
       <c r="D452" s="1">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E452" s="1">
         <v>220</v>
@@ -11039,7 +11040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" s="1">
         <v>44</v>
       </c>
@@ -11050,7 +11051,7 @@
         <v>0</v>
       </c>
       <c r="D453" s="1">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E453" s="1">
         <v>220</v>
@@ -11068,18 +11069,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" s="1">
         <v>45</v>
       </c>
       <c r="B454" s="2">
-        <v>6163</v>
+        <v>7736</v>
       </c>
       <c r="C454">
         <v>0</v>
       </c>
       <c r="D454" s="1">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E454" s="1">
         <v>220</v>
@@ -11097,7 +11098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" s="1">
         <v>46</v>
       </c>
@@ -11108,7 +11109,7 @@
         <v>0</v>
       </c>
       <c r="D455" s="1">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E455" s="1">
         <v>220</v>
@@ -11126,7 +11127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" s="1">
         <v>47</v>
       </c>
@@ -11137,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="D456" s="1">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E456" s="1">
         <v>220</v>
@@ -11155,7 +11156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" s="1">
         <v>48</v>
       </c>
@@ -11166,7 +11167,7 @@
         <v>0</v>
       </c>
       <c r="D457" s="1">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E457" s="1">
         <v>220</v>
@@ -11184,7 +11185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" s="1">
         <v>49</v>
       </c>
@@ -11195,7 +11196,7 @@
         <v>0</v>
       </c>
       <c r="D458" s="1">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E458" s="1">
         <v>220</v>
@@ -11213,7 +11214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" s="1">
         <v>50</v>
       </c>
@@ -11224,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="D459" s="1">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E459" s="1">
         <v>220</v>
@@ -11242,7 +11243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" s="1">
         <v>51</v>
       </c>
@@ -11253,7 +11254,7 @@
         <v>0</v>
       </c>
       <c r="D460" s="1">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E460" s="1">
         <v>220</v>
@@ -11271,7 +11272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" s="1">
         <v>52</v>
       </c>
@@ -11300,7 +11301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" s="1">
         <v>53</v>
       </c>
@@ -11329,7 +11330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" s="1">
         <v>54</v>
       </c>
@@ -11358,18 +11359,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" s="1">
         <v>55</v>
       </c>
       <c r="B464" s="2">
-        <v>50000</v>
+        <v>8634</v>
       </c>
       <c r="C464">
         <v>0</v>
       </c>
       <c r="D464" s="1">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E464" s="1">
         <v>220</v>
@@ -11384,21 +11385,21 @@
         <v>3</v>
       </c>
       <c r="I464">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" s="1">
         <v>56</v>
       </c>
       <c r="B465" s="2">
-        <v>50001</v>
+        <v>50000</v>
       </c>
       <c r="C465">
         <v>0</v>
       </c>
       <c r="D465" s="1">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E465" s="1">
         <v>220</v>
@@ -11416,12 +11417,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" s="1">
         <v>129</v>
       </c>
@@ -11432,7 +11433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" s="1">
         <v>130</v>
       </c>
@@ -11443,18 +11444,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" s="1">
         <v>131</v>
       </c>
       <c r="B470" s="2">
-        <v>2092</v>
+        <v>2004</v>
       </c>
       <c r="C470">
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" s="1">
         <v>132</v>
       </c>
@@ -11465,18 +11466,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" s="1">
         <v>133</v>
       </c>
       <c r="B472" s="2">
-        <v>2094</v>
+        <v>2005</v>
       </c>
       <c r="C472">
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" s="1">
         <v>134</v>
       </c>
@@ -11487,7 +11488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" s="1">
         <v>135</v>
       </c>
@@ -11498,165 +11499,165 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" s="1">
         <v>136</v>
       </c>
       <c r="B475" s="2">
-        <v>2097</v>
+        <v>2166</v>
       </c>
       <c r="C475">
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" s="1">
         <v>137</v>
       </c>
       <c r="B476" s="2">
-        <v>2098</v>
+        <v>2176</v>
       </c>
       <c r="C476">
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" s="1">
         <v>138</v>
       </c>
       <c r="B477" s="2">
-        <v>2099</v>
+        <v>2168</v>
       </c>
       <c r="C477">
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" s="1">
         <v>139</v>
       </c>
       <c r="B478" s="2">
-        <v>2100</v>
+        <v>2169</v>
       </c>
       <c r="C478">
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" s="1">
         <v>140</v>
       </c>
       <c r="B479" s="2">
-        <v>2101</v>
+        <v>2170</v>
       </c>
       <c r="C479">
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" s="1">
         <v>141</v>
       </c>
       <c r="B480" s="2">
-        <v>2102</v>
+        <v>2098</v>
       </c>
       <c r="C480">
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" s="1">
         <v>142</v>
       </c>
       <c r="B481" s="2">
-        <v>2103</v>
+        <v>2097</v>
       </c>
       <c r="C481">
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" s="1">
         <v>143</v>
       </c>
       <c r="B482" s="2">
-        <v>2104</v>
+        <v>2099</v>
       </c>
       <c r="C482">
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" s="1">
         <v>144</v>
       </c>
       <c r="B483" s="2">
-        <v>1975</v>
+        <v>2106</v>
       </c>
       <c r="C483">
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" s="1">
         <v>145</v>
       </c>
       <c r="B484" s="2">
-        <v>1976</v>
+        <v>2105</v>
       </c>
       <c r="C484">
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" s="1">
         <v>146</v>
       </c>
       <c r="B485" s="2">
-        <v>1977</v>
+        <v>2104</v>
       </c>
       <c r="C485">
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" s="1">
         <v>147</v>
       </c>
       <c r="B486" s="2">
-        <v>70000</v>
+        <v>2103</v>
       </c>
       <c r="C486">
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" s="1">
         <v>148</v>
       </c>
       <c r="B487" s="2">
-        <v>70001</v>
+        <v>70000</v>
       </c>
       <c r="C487">
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" s="1">
         <v>1</v>
       </c>
@@ -11685,7 +11686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" s="1">
         <v>2</v>
       </c>
@@ -11714,7 +11715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" s="1">
         <v>3</v>
       </c>
@@ -11743,7 +11744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" s="1">
         <v>4</v>
       </c>
@@ -11772,7 +11773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" s="1">
         <v>5</v>
       </c>
@@ -11801,7 +11802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" s="1">
         <v>6</v>
       </c>
@@ -11830,7 +11831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" s="1">
         <v>7</v>
       </c>
@@ -11859,7 +11860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" s="1">
         <v>8</v>
       </c>
@@ -11888,7 +11889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" s="1">
         <v>9</v>
       </c>
@@ -11917,7 +11918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" s="1">
         <v>10</v>
       </c>
@@ -11946,7 +11947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" s="1">
         <v>11</v>
       </c>
@@ -11975,7 +11976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" s="1">
         <v>12</v>
       </c>
@@ -12004,7 +12005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" s="1">
         <v>13</v>
       </c>
@@ -12033,7 +12034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" s="1">
         <v>14</v>
       </c>
@@ -12062,7 +12063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" s="1">
         <v>15</v>
       </c>
@@ -12091,7 +12092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" s="1">
         <v>16</v>
       </c>
@@ -12120,7 +12121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" s="1">
         <v>17</v>
       </c>
@@ -12149,7 +12150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" s="1">
         <v>18</v>
       </c>
@@ -12178,7 +12179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" s="1">
         <v>19</v>
       </c>
@@ -12207,7 +12208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" s="1">
         <v>20</v>
       </c>
@@ -12236,7 +12237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" s="1">
         <v>21</v>
       </c>
@@ -12265,7 +12266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" s="1">
         <v>22</v>
       </c>
@@ -12294,7 +12295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" s="1">
         <v>23</v>
       </c>
@@ -12323,7 +12324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" s="1">
         <v>24</v>
       </c>
@@ -12352,7 +12353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" s="1">
         <v>25</v>
       </c>
@@ -12381,7 +12382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" s="1">
         <v>26</v>
       </c>
@@ -12410,7 +12411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" s="1">
         <v>27</v>
       </c>
@@ -12439,7 +12440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" s="1">
         <v>28</v>
       </c>
@@ -12468,7 +12469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" s="1">
         <v>29</v>
       </c>
@@ -12497,7 +12498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" s="1">
         <v>30</v>
       </c>
@@ -12526,7 +12527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" s="1">
         <v>31</v>
       </c>
@@ -12555,7 +12556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" s="1">
         <v>32</v>
       </c>
@@ -12584,7 +12585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" s="1">
         <v>33</v>
       </c>
@@ -12613,7 +12614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" s="1">
         <v>34</v>
       </c>
@@ -12642,7 +12643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" s="1">
         <v>35</v>
       </c>
@@ -12671,7 +12672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" s="1">
         <v>36</v>
       </c>
@@ -12700,7 +12701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" s="1">
         <v>37</v>
       </c>
@@ -12729,7 +12730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" s="1">
         <v>38</v>
       </c>
@@ -12758,7 +12759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" s="1">
         <v>39</v>
       </c>
@@ -12787,7 +12788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" s="1">
         <v>40</v>
       </c>
@@ -12816,7 +12817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" s="1">
         <v>41</v>
       </c>
@@ -12845,7 +12846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" s="1">
         <v>42</v>
       </c>
@@ -12874,7 +12875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" s="1">
         <v>43</v>
       </c>
@@ -12903,7 +12904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" s="1">
         <v>44</v>
       </c>
@@ -12932,12 +12933,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" s="1">
         <v>129</v>
       </c>
@@ -12948,7 +12949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" s="1">
         <v>130</v>
       </c>
@@ -12959,7 +12960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" s="1">
         <v>131</v>
       </c>
@@ -12970,7 +12971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" s="1">
         <v>132</v>
       </c>
@@ -12981,7 +12982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" s="1">
         <v>133</v>
       </c>
@@ -12992,7 +12993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" s="1">
         <v>134</v>
       </c>
@@ -13003,7 +13004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" s="1">
         <v>135</v>
       </c>
@@ -13014,7 +13015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" s="1">
         <v>136</v>
       </c>
@@ -13025,7 +13026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" s="1">
         <v>137</v>
       </c>
@@ -13036,7 +13037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" s="1">
         <v>138</v>
       </c>
@@ -13047,7 +13048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" s="1">
         <v>139</v>
       </c>
@@ -13058,7 +13059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" s="1">
         <v>140</v>
       </c>
@@ -13069,7 +13070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" s="1">
         <v>141</v>
       </c>
@@ -13080,7 +13081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" s="1">
         <v>142</v>
       </c>
@@ -13091,22 +13092,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" s="1">
         <v>1</v>
       </c>
@@ -13135,7 +13136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" s="1">
         <v>2</v>
       </c>
@@ -13164,7 +13165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" s="1">
         <v>3</v>
       </c>
@@ -13193,7 +13194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" s="1">
         <v>4</v>
       </c>
@@ -13222,7 +13223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" s="1">
         <v>5</v>
       </c>
@@ -13251,7 +13252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" s="1">
         <v>6</v>
       </c>
@@ -13280,7 +13281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" s="1">
         <v>7</v>
       </c>
@@ -13309,7 +13310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" s="1">
         <v>8</v>
       </c>
@@ -13338,7 +13339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" s="1">
         <v>9</v>
       </c>
@@ -13367,7 +13368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" s="1">
         <v>10</v>
       </c>
@@ -13396,7 +13397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" s="1">
         <v>11</v>
       </c>
@@ -13425,7 +13426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" s="1">
         <v>12</v>
       </c>
@@ -13454,7 +13455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" s="1">
         <v>13</v>
       </c>
@@ -13483,7 +13484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A569" s="1">
         <v>14</v>
       </c>
@@ -13512,7 +13513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" s="1">
         <v>15</v>
       </c>
@@ -13541,7 +13542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" s="1">
         <v>16</v>
       </c>
@@ -13570,7 +13571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" s="1">
         <v>17</v>
       </c>
@@ -13599,7 +13600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" s="1">
         <v>18</v>
       </c>
@@ -13628,7 +13629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" s="1">
         <v>19</v>
       </c>
@@ -13657,7 +13658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A575" s="1">
         <v>20</v>
       </c>
@@ -13686,7 +13687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" s="1">
         <v>21</v>
       </c>
@@ -13715,12 +13716,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" s="1">
         <v>22</v>
       </c>
       <c r="B577" s="2">
-        <v>6191</v>
+        <v>7733</v>
       </c>
       <c r="C577">
         <v>0</v>
@@ -13744,7 +13745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A578" s="1">
         <v>23</v>
       </c>
@@ -13773,7 +13774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" s="1">
         <v>24</v>
       </c>
@@ -13802,7 +13803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" s="1">
         <v>25</v>
       </c>
@@ -13831,7 +13832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" s="1">
         <v>26</v>
       </c>
@@ -13860,7 +13861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" s="1">
         <v>27</v>
       </c>
@@ -13889,7 +13890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" s="1">
         <v>28</v>
       </c>
@@ -13918,7 +13919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" s="1">
         <v>29</v>
       </c>
@@ -13947,7 +13948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" s="1">
         <v>30</v>
       </c>
@@ -13976,7 +13977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" s="1">
         <v>31</v>
       </c>
@@ -14005,7 +14006,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A587" s="1">
         <v>32</v>
       </c>
@@ -14034,7 +14035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" s="1">
         <v>33</v>
       </c>
@@ -14063,7 +14064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" s="1">
         <v>34</v>
       </c>
@@ -14092,7 +14093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" s="1">
         <v>35</v>
       </c>
@@ -14121,7 +14122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" s="1">
         <v>36</v>
       </c>
@@ -14150,7 +14151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" s="1">
         <v>37</v>
       </c>
@@ -14179,7 +14180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" s="1">
         <v>38</v>
       </c>
@@ -14208,7 +14209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" s="1">
         <v>39</v>
       </c>
@@ -14237,7 +14238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" s="1">
         <v>40</v>
       </c>
@@ -14266,7 +14267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A596" s="1">
         <v>41</v>
       </c>
@@ -14295,7 +14296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" s="1">
         <v>42</v>
       </c>
@@ -14324,7 +14325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" s="1">
         <v>43</v>
       </c>
@@ -14353,7 +14354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" s="1">
         <v>44</v>
       </c>
@@ -14382,7 +14383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" s="1">
         <v>45</v>
       </c>
@@ -14411,7 +14412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" s="1">
         <v>46</v>
       </c>
@@ -14440,7 +14441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" s="1">
         <v>47</v>
       </c>
@@ -14469,7 +14470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" s="1">
         <v>48</v>
       </c>
@@ -14498,7 +14499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" s="1">
         <v>49</v>
       </c>
@@ -14527,7 +14528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" s="1">
         <v>50</v>
       </c>
@@ -14556,7 +14557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" s="1">
         <v>51</v>
       </c>
@@ -14585,7 +14586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A607" s="1">
         <v>52</v>
       </c>
@@ -14614,7 +14615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" s="1">
         <v>53</v>
       </c>
@@ -14643,7 +14644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" s="1">
         <v>54</v>
       </c>
@@ -14672,7 +14673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" s="1">
         <v>55</v>
       </c>
@@ -14701,7 +14702,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A611" s="1">
         <v>56</v>
       </c>
@@ -14730,12 +14731,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" s="1">
         <v>129</v>
       </c>
@@ -14746,7 +14747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" s="1">
         <v>130</v>
       </c>
@@ -14757,7 +14758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" s="1">
         <v>131</v>
       </c>
@@ -14768,7 +14769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" s="1">
         <v>132</v>
       </c>
@@ -14779,7 +14780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" s="1">
         <v>133</v>
       </c>
@@ -14790,7 +14791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" s="1">
         <v>134</v>
       </c>
@@ -14801,7 +14802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" s="1">
         <v>135</v>
       </c>
@@ -14812,7 +14813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" s="1">
         <v>136</v>
       </c>
@@ -14823,7 +14824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" s="1">
         <v>137</v>
       </c>
@@ -14834,7 +14835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" s="1">
         <v>138</v>
       </c>
@@ -14845,7 +14846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A624" s="1">
         <v>139</v>
       </c>
@@ -14856,7 +14857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A625" s="1">
         <v>140</v>
       </c>
@@ -14867,7 +14868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A626" s="1">
         <v>141</v>
       </c>
@@ -14878,7 +14879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A627" s="1">
         <v>142</v>
       </c>
@@ -14889,22 +14890,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="629" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A629" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A630" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A631" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A632" s="1">
         <v>1</v>
       </c>
@@ -14933,7 +14934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A633" s="1">
         <v>2</v>
       </c>
@@ -14962,7 +14963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A634" s="1">
         <v>3</v>
       </c>
@@ -14991,7 +14992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A635" s="1">
         <v>4</v>
       </c>
@@ -15020,7 +15021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A636" s="1">
         <v>5</v>
       </c>
@@ -15049,7 +15050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A637" s="1">
         <v>6</v>
       </c>
@@ -15078,7 +15079,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A638" s="1">
         <v>7</v>
       </c>
@@ -15107,7 +15108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A639" s="1">
         <v>8</v>
       </c>
@@ -15136,7 +15137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A640" s="1">
         <v>9</v>
       </c>
@@ -15165,7 +15166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A641" s="1">
         <v>10</v>
       </c>
@@ -15194,7 +15195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A642" s="1">
         <v>11</v>
       </c>
@@ -15223,7 +15224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A643" s="1">
         <v>12</v>
       </c>
@@ -15252,7 +15253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A644" s="1">
         <v>13</v>
       </c>
@@ -15281,7 +15282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A645" s="1">
         <v>14</v>
       </c>
@@ -15310,7 +15311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A646" s="1">
         <v>15</v>
       </c>
@@ -15339,7 +15340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A647" s="1">
         <v>16</v>
       </c>
@@ -15368,7 +15369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A648" s="1">
         <v>17</v>
       </c>
@@ -15397,7 +15398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A649" s="1">
         <v>18</v>
       </c>
@@ -15426,7 +15427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A650" s="1">
         <v>19</v>
       </c>
@@ -15455,7 +15456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A651" s="1">
         <v>20</v>
       </c>
@@ -15484,7 +15485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A652" s="1">
         <v>21</v>
       </c>
@@ -15513,7 +15514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A653" s="1">
         <v>22</v>
       </c>
@@ -15542,7 +15543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A654" s="1">
         <v>23</v>
       </c>
@@ -15571,7 +15572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A655" s="1">
         <v>24</v>
       </c>
@@ -15600,7 +15601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A656" s="1">
         <v>25</v>
       </c>
@@ -15629,7 +15630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A657" s="1">
         <v>26</v>
       </c>
@@ -15658,7 +15659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A658" s="1">
         <v>27</v>
       </c>
@@ -15687,7 +15688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A659" s="1">
         <v>28</v>
       </c>
@@ -15716,7 +15717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A660" s="1">
         <v>29</v>
       </c>
@@ -15745,7 +15746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A661" s="1">
         <v>30</v>
       </c>
@@ -15774,7 +15775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A662" s="1">
         <v>31</v>
       </c>
@@ -15803,7 +15804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A663" s="1">
         <v>32</v>
       </c>
@@ -15832,7 +15833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A664" s="1">
         <v>33</v>
       </c>
@@ -15861,7 +15862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A665" s="1">
         <v>34</v>
       </c>
@@ -15890,7 +15891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A666" s="1">
         <v>35</v>
       </c>
@@ -15919,7 +15920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A667" s="1">
         <v>36</v>
       </c>
@@ -15948,7 +15949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A668" s="1">
         <v>37</v>
       </c>
@@ -15977,7 +15978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A669" s="1">
         <v>38</v>
       </c>
@@ -16006,7 +16007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A670" s="1">
         <v>39</v>
       </c>
@@ -16035,7 +16036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A671" s="1">
         <v>40</v>
       </c>
@@ -16064,7 +16065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A672" s="1">
         <v>41</v>
       </c>
@@ -16093,7 +16094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A673" s="1">
         <v>42</v>
       </c>
@@ -16122,7 +16123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A674" s="1">
         <v>43</v>
       </c>
@@ -16151,7 +16152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A675" s="1">
         <v>44</v>
       </c>
@@ -16180,7 +16181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A676" s="1">
         <v>45</v>
       </c>
@@ -16209,7 +16210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A677" s="1">
         <v>46</v>
       </c>
@@ -16238,7 +16239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A678" s="1">
         <v>47</v>
       </c>
@@ -16267,7 +16268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A679" s="1">
         <v>48</v>
       </c>
@@ -16296,7 +16297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A680" s="1">
         <v>49</v>
       </c>
@@ -16325,7 +16326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A681" s="1">
         <v>50</v>
       </c>
@@ -16354,12 +16355,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A684" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A685" s="1">
         <v>129</v>
       </c>
@@ -16370,7 +16371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A686" s="1">
         <v>130</v>
       </c>
@@ -16381,7 +16382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A687" s="1">
         <v>131</v>
       </c>
@@ -16392,7 +16393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A688" s="1">
         <v>132</v>
       </c>
@@ -16403,7 +16404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A689" s="1">
         <v>133</v>
       </c>
@@ -16414,7 +16415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A690" s="1">
         <v>134</v>
       </c>
@@ -16425,7 +16426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A691" s="1">
         <v>135</v>
       </c>
@@ -16436,7 +16437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A692" s="1">
         <v>136</v>
       </c>
@@ -16447,7 +16448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A693" s="1">
         <v>137</v>
       </c>
@@ -16458,7 +16459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A694" s="1">
         <v>138</v>
       </c>
@@ -16469,7 +16470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A695" s="1">
         <v>139</v>
       </c>
@@ -16480,7 +16481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A696" s="1">
         <v>140</v>
       </c>
@@ -16491,7 +16492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A697" s="1">
         <v>141</v>
       </c>
@@ -16502,7 +16503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A698" s="1">
         <v>142</v>
       </c>
@@ -16513,22 +16514,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A700" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A701" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A702" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A703" s="1">
         <v>1</v>
       </c>
@@ -16557,7 +16558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A704" s="1">
         <v>2</v>
       </c>
@@ -16586,7 +16587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A705" s="1">
         <v>3</v>
       </c>
@@ -16615,7 +16616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="706" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A706" s="1">
         <v>4</v>
       </c>
@@ -16644,7 +16645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="707" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A707" s="1">
         <v>5</v>
       </c>
@@ -16673,7 +16674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="708" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A708" s="1">
         <v>6</v>
       </c>
@@ -16702,7 +16703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="709" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A709" s="1">
         <v>7</v>
       </c>
@@ -16731,7 +16732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A710" s="1">
         <v>8</v>
       </c>
@@ -16760,7 +16761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="711" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="711" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A711" s="1">
         <v>9</v>
       </c>
@@ -16789,7 +16790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="712" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A712" s="1">
         <v>10</v>
       </c>
@@ -16818,7 +16819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="713" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A713" s="1">
         <v>11</v>
       </c>
@@ -16847,7 +16848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="714" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A714" s="1">
         <v>12</v>
       </c>
@@ -16876,7 +16877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="715" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A715" s="1">
         <v>13</v>
       </c>
@@ -16905,7 +16906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A716" s="1">
         <v>14</v>
       </c>
@@ -16934,7 +16935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="717" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A717" s="1">
         <v>15</v>
       </c>
@@ -16963,7 +16964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="718" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A718" s="1">
         <v>16</v>
       </c>
@@ -16992,7 +16993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A719" s="1">
         <v>17</v>
       </c>
@@ -17021,7 +17022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="720" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A720" s="1">
         <v>18</v>
       </c>
@@ -17050,7 +17051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A721" s="1">
         <v>19</v>
       </c>
@@ -17079,7 +17080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A722" s="1">
         <v>20</v>
       </c>
@@ -17108,7 +17109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A723" s="1">
         <v>21</v>
       </c>
@@ -17137,7 +17138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="724" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A724" s="1">
         <v>22</v>
       </c>
@@ -17166,7 +17167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A725" s="1">
         <v>23</v>
       </c>
@@ -17195,7 +17196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A726" s="1">
         <v>24</v>
       </c>
@@ -17224,7 +17225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A727" s="1">
         <v>25</v>
       </c>
@@ -17253,7 +17254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A728" s="1">
         <v>26</v>
       </c>
@@ -17282,7 +17283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A729" s="1">
         <v>27</v>
       </c>
@@ -17311,7 +17312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A730" s="1">
         <v>28</v>
       </c>
@@ -17340,7 +17341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A731" s="1">
         <v>29</v>
       </c>
@@ -17369,7 +17370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A732" s="1">
         <v>30</v>
       </c>
@@ -17398,7 +17399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A733" s="1">
         <v>31</v>
       </c>
@@ -17427,7 +17428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A734" s="1">
         <v>32</v>
       </c>
@@ -17456,7 +17457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A735" s="1">
         <v>33</v>
       </c>
@@ -17485,7 +17486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A736" s="1">
         <v>34</v>
       </c>
@@ -17514,7 +17515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A737" s="1">
         <v>35</v>
       </c>
@@ -17543,7 +17544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A738" s="1">
         <v>36</v>
       </c>
@@ -17572,12 +17573,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="739" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A739" s="1">
         <v>37</v>
       </c>
       <c r="B739" s="2">
-        <v>6369</v>
+        <v>7730</v>
       </c>
       <c r="C739">
         <v>0</v>
@@ -17601,7 +17602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A740" s="1">
         <v>38</v>
       </c>
@@ -17630,7 +17631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="741" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A741" s="1">
         <v>39</v>
       </c>
@@ -17659,7 +17660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A742" s="1">
         <v>40</v>
       </c>
@@ -17688,7 +17689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="743" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A743" s="1">
         <v>41</v>
       </c>
@@ -17717,7 +17718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="744" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A744" s="1">
         <v>42</v>
       </c>
@@ -17746,7 +17747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A745" s="1">
         <v>43</v>
       </c>
@@ -17775,7 +17776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A746" s="1">
         <v>44</v>
       </c>
@@ -17804,7 +17805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="747" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A747" s="1">
         <v>45</v>
       </c>
@@ -17833,7 +17834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="748" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A748" s="1">
         <v>46</v>
       </c>
@@ -17862,7 +17863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A749" s="1">
         <v>47</v>
       </c>
@@ -17891,7 +17892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A750" s="1">
         <v>48</v>
       </c>
@@ -17920,12 +17921,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A753" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A754" s="1">
         <v>129</v>
       </c>
@@ -17936,7 +17937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A755" s="1">
         <v>130</v>
       </c>
@@ -17947,18 +17948,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A756" s="1">
         <v>131</v>
       </c>
       <c r="B756" s="2">
-        <v>2153</v>
+        <v>541</v>
       </c>
       <c r="C756">
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A757" s="1">
         <v>132</v>
       </c>
@@ -17969,7 +17970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A758" s="1">
         <v>133</v>
       </c>
@@ -17980,7 +17981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A759" s="1">
         <v>134</v>
       </c>
@@ -17991,7 +17992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A760" s="1">
         <v>135</v>
       </c>
@@ -18002,7 +18003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A761" s="1">
         <v>136</v>
       </c>
@@ -18013,7 +18014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A762" s="1">
         <v>137</v>
       </c>
@@ -18024,7 +18025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A763" s="1">
         <v>138</v>
       </c>
@@ -18035,7 +18036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A764" s="1">
         <v>139</v>
       </c>
@@ -18046,7 +18047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A765" s="1">
         <v>140</v>
       </c>

--- a/06_납품현황/2017/04_부산용홈만w몰/02_SerialNumber/CCM2_USM_LGM_SerialNumber.xlsx
+++ b/06_납품현황/2017/04_부산용홈만w몰/02_SerialNumber/CCM2_USM_LGM_SerialNumber.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\02_PGS\06_납품현황\2017\04_부산용홈만w몰\02_SerialNumber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GUI\02_PGS\06_납품현황\2017\04_부산용홈만w몰\02_SerialNumber\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -404,44 +403,44 @@
   <dimension ref="A1:I765"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A375" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D384" sqref="D384:D388"/>
+      <selection activeCell="W387" sqref="W387"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.78515625" style="1"/>
-    <col min="2" max="2" width="12.0703125" style="2" customWidth="1"/>
-    <col min="4" max="6" width="8.78515625" style="1"/>
-    <col min="7" max="8" width="8.78515625" style="3"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="2" max="2" width="12.09765625" style="2" customWidth="1"/>
+    <col min="4" max="6" width="8.796875" style="1"/>
+    <col min="7" max="8" width="8.796875" style="3"/>
+    <col min="11" max="11" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -470,7 +469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -499,7 +498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -528,7 +527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -557,7 +556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -586,7 +585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -615,7 +614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -644,7 +643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -673,7 +672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -702,7 +701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -731,7 +730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -760,7 +759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -789,7 +788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -818,7 +817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -847,7 +846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -876,7 +875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -905,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -934,7 +933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -963,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -992,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1021,7 +1020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1050,7 +1049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1079,7 +1078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1108,7 +1107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1137,7 +1136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1166,7 +1165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1195,7 +1194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1224,7 +1223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1253,7 +1252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1282,7 +1281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -1311,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -1340,7 +1339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -1369,7 +1368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -1398,7 +1397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -1427,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -1456,7 +1455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -1485,7 +1484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -1514,7 +1513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -1543,7 +1542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -1572,7 +1571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -1601,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -1630,7 +1629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -1659,7 +1658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -1688,7 +1687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -1717,7 +1716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -1746,7 +1745,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -1775,12 +1774,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>129</v>
       </c>
@@ -1791,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>130</v>
       </c>
@@ -1802,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>131</v>
       </c>
@@ -1813,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>132</v>
       </c>
@@ -1824,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>133</v>
       </c>
@@ -1835,7 +1834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>134</v>
       </c>
@@ -1846,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>135</v>
       </c>
@@ -1857,7 +1856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>136</v>
       </c>
@@ -1868,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>137</v>
       </c>
@@ -1879,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>138</v>
       </c>
@@ -1890,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>139</v>
       </c>
@@ -1901,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>140</v>
       </c>
@@ -1912,22 +1911,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>1</v>
       </c>
@@ -1956,7 +1955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>2</v>
       </c>
@@ -1985,7 +1984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>3</v>
       </c>
@@ -2014,7 +2013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>4</v>
       </c>
@@ -2043,7 +2042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>5</v>
       </c>
@@ -2072,7 +2071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>6</v>
       </c>
@@ -2101,7 +2100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>7</v>
       </c>
@@ -2130,7 +2129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>8</v>
       </c>
@@ -2159,7 +2158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>9</v>
       </c>
@@ -2188,7 +2187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>10</v>
       </c>
@@ -2217,7 +2216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>11</v>
       </c>
@@ -2246,7 +2245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>12</v>
       </c>
@@ -2275,7 +2274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>13</v>
       </c>
@@ -2304,7 +2303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>14</v>
       </c>
@@ -2333,7 +2332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>15</v>
       </c>
@@ -2362,7 +2361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>16</v>
       </c>
@@ -2391,7 +2390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>17</v>
       </c>
@@ -2420,7 +2419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>18</v>
       </c>
@@ -2449,7 +2448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>19</v>
       </c>
@@ -2478,7 +2477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>20</v>
       </c>
@@ -2507,7 +2506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>21</v>
       </c>
@@ -2536,7 +2535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>22</v>
       </c>
@@ -2565,7 +2564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>23</v>
       </c>
@@ -2594,7 +2593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>24</v>
       </c>
@@ -2623,7 +2622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>25</v>
       </c>
@@ -2652,7 +2651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>26</v>
       </c>
@@ -2681,7 +2680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>27</v>
       </c>
@@ -2710,7 +2709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>28</v>
       </c>
@@ -2739,7 +2738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>29</v>
       </c>
@@ -2768,7 +2767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>30</v>
       </c>
@@ -2797,7 +2796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>31</v>
       </c>
@@ -2826,7 +2825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>32</v>
       </c>
@@ -2855,7 +2854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>33</v>
       </c>
@@ -2884,7 +2883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>34</v>
       </c>
@@ -2913,7 +2912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>35</v>
       </c>
@@ -2942,7 +2941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>36</v>
       </c>
@@ -2971,7 +2970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>37</v>
       </c>
@@ -3000,7 +2999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>38</v>
       </c>
@@ -3029,7 +3028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>39</v>
       </c>
@@ -3058,7 +3057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>40</v>
       </c>
@@ -3087,7 +3086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>41</v>
       </c>
@@ -3116,7 +3115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>42</v>
       </c>
@@ -3145,12 +3144,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>129</v>
       </c>
@@ -3161,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>130</v>
       </c>
@@ -3172,7 +3171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>131</v>
       </c>
@@ -3183,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>132</v>
       </c>
@@ -3194,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>133</v>
       </c>
@@ -3205,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
         <v>134</v>
       </c>
@@ -3216,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
         <v>135</v>
       </c>
@@ -3227,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>136</v>
       </c>
@@ -3238,7 +3237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>137</v>
       </c>
@@ -3249,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
         <v>138</v>
       </c>
@@ -3260,22 +3259,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
         <v>1</v>
       </c>
@@ -3304,7 +3303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A128" s="1">
         <v>2</v>
       </c>
@@ -3333,7 +3332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A129" s="1">
         <v>3</v>
       </c>
@@ -3362,7 +3361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <v>4</v>
       </c>
@@ -3391,7 +3390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
         <v>5</v>
       </c>
@@ -3420,7 +3419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A132" s="1">
         <v>6</v>
       </c>
@@ -3449,7 +3448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A133" s="1">
         <v>7</v>
       </c>
@@ -3478,7 +3477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
         <v>8</v>
       </c>
@@ -3507,7 +3506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A135" s="1">
         <v>9</v>
       </c>
@@ -3536,7 +3535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A136" s="1">
         <v>10</v>
       </c>
@@ -3565,7 +3564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A137" s="1">
         <v>11</v>
       </c>
@@ -3594,7 +3593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A138" s="1">
         <v>12</v>
       </c>
@@ -3623,7 +3622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
         <v>13</v>
       </c>
@@ -3652,7 +3651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A140" s="1">
         <v>14</v>
       </c>
@@ -3681,7 +3680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A141" s="1">
         <v>15</v>
       </c>
@@ -3710,7 +3709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A142" s="1">
         <v>16</v>
       </c>
@@ -3739,7 +3738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A143" s="1">
         <v>17</v>
       </c>
@@ -3768,7 +3767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A144" s="1">
         <v>18</v>
       </c>
@@ -3797,7 +3796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A145" s="1">
         <v>19</v>
       </c>
@@ -3826,7 +3825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A146" s="1">
         <v>20</v>
       </c>
@@ -3855,7 +3854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A147" s="1">
         <v>21</v>
       </c>
@@ -3884,7 +3883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A148" s="1">
         <v>22</v>
       </c>
@@ -3913,7 +3912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A149" s="1">
         <v>23</v>
       </c>
@@ -3942,7 +3941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A150" s="1">
         <v>24</v>
       </c>
@@ -3971,7 +3970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A151" s="1">
         <v>25</v>
       </c>
@@ -4000,7 +3999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A152" s="1">
         <v>26</v>
       </c>
@@ -4029,7 +4028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A153" s="1">
         <v>27</v>
       </c>
@@ -4058,7 +4057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A154" s="1">
         <v>28</v>
       </c>
@@ -4087,7 +4086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A155" s="1">
         <v>29</v>
       </c>
@@ -4116,7 +4115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A156" s="1">
         <v>30</v>
       </c>
@@ -4145,7 +4144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A157" s="1">
         <v>31</v>
       </c>
@@ -4174,7 +4173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A158" s="1">
         <v>32</v>
       </c>
@@ -4203,7 +4202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A159" s="1">
         <v>33</v>
       </c>
@@ -4232,7 +4231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A160" s="1">
         <v>34</v>
       </c>
@@ -4261,7 +4260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A161" s="1">
         <v>35</v>
       </c>
@@ -4290,7 +4289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A162" s="1">
         <v>36</v>
       </c>
@@ -4319,7 +4318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A163" s="1">
         <v>37</v>
       </c>
@@ -4348,7 +4347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A164" s="1">
         <v>38</v>
       </c>
@@ -4377,7 +4376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A165" s="1">
         <v>39</v>
       </c>
@@ -4406,7 +4405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A166" s="1">
         <v>40</v>
       </c>
@@ -4435,7 +4434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A167" s="1">
         <v>41</v>
       </c>
@@ -4464,7 +4463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A168" s="1">
         <v>42</v>
       </c>
@@ -4493,7 +4492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A169" s="1">
         <v>43</v>
       </c>
@@ -4522,7 +4521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A170" s="1">
         <v>44</v>
       </c>
@@ -4551,7 +4550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A171" s="1">
         <v>45</v>
       </c>
@@ -4580,7 +4579,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A172" s="1">
         <v>46</v>
       </c>
@@ -4609,12 +4608,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A175" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A176" s="1">
         <v>129</v>
       </c>
@@ -4625,7 +4624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A177" s="1">
         <v>130</v>
       </c>
@@ -4636,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A178" s="1">
         <v>131</v>
       </c>
@@ -4647,7 +4646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A179" s="1">
         <v>132</v>
       </c>
@@ -4658,7 +4657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A180" s="1">
         <v>133</v>
       </c>
@@ -4669,7 +4668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A181" s="1">
         <v>134</v>
       </c>
@@ -4680,7 +4679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A182" s="1">
         <v>135</v>
       </c>
@@ -4691,7 +4690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A183" s="1">
         <v>136</v>
       </c>
@@ -4702,7 +4701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A184" s="1">
         <v>137</v>
       </c>
@@ -4713,7 +4712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A185" s="1">
         <v>138</v>
       </c>
@@ -4724,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A186" s="1">
         <v>139</v>
       </c>
@@ -4735,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A187" s="1">
         <v>140</v>
       </c>
@@ -4746,22 +4745,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A189" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A190" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A191" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A192" s="1">
         <v>1</v>
       </c>
@@ -4790,7 +4789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A193" s="1">
         <v>2</v>
       </c>
@@ -4819,7 +4818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A194" s="1">
         <v>3</v>
       </c>
@@ -4848,7 +4847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A195" s="1">
         <v>4</v>
       </c>
@@ -4877,7 +4876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A196" s="1">
         <v>5</v>
       </c>
@@ -4906,7 +4905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A197" s="1">
         <v>6</v>
       </c>
@@ -4935,7 +4934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A198" s="1">
         <v>7</v>
       </c>
@@ -4964,7 +4963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A199" s="1">
         <v>8</v>
       </c>
@@ -4993,7 +4992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A200" s="1">
         <v>9</v>
       </c>
@@ -5022,7 +5021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A201" s="1">
         <v>10</v>
       </c>
@@ -5051,7 +5050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A202" s="1">
         <v>11</v>
       </c>
@@ -5080,7 +5079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A203" s="1">
         <v>12</v>
       </c>
@@ -5109,7 +5108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A204" s="1">
         <v>13</v>
       </c>
@@ -5138,7 +5137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A205" s="1">
         <v>14</v>
       </c>
@@ -5167,7 +5166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A206" s="1">
         <v>15</v>
       </c>
@@ -5196,7 +5195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A207" s="1">
         <v>16</v>
       </c>
@@ -5225,7 +5224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A208" s="1">
         <v>17</v>
       </c>
@@ -5254,7 +5253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A209" s="1">
         <v>18</v>
       </c>
@@ -5283,7 +5282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A210" s="1">
         <v>19</v>
       </c>
@@ -5312,7 +5311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A211" s="1">
         <v>20</v>
       </c>
@@ -5341,7 +5340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A212" s="1">
         <v>21</v>
       </c>
@@ -5370,7 +5369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A213" s="1">
         <v>22</v>
       </c>
@@ -5399,7 +5398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A214" s="1">
         <v>23</v>
       </c>
@@ -5428,7 +5427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A215" s="1">
         <v>24</v>
       </c>
@@ -5457,7 +5456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A216" s="1">
         <v>25</v>
       </c>
@@ -5486,7 +5485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A217" s="1">
         <v>26</v>
       </c>
@@ -5515,7 +5514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A218" s="1">
         <v>27</v>
       </c>
@@ -5544,7 +5543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A219" s="1">
         <v>28</v>
       </c>
@@ -5573,7 +5572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A220" s="1">
         <v>29</v>
       </c>
@@ -5602,7 +5601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A221" s="1">
         <v>30</v>
       </c>
@@ -5631,7 +5630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A222" s="1">
         <v>31</v>
       </c>
@@ -5660,7 +5659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A223" s="1">
         <v>32</v>
       </c>
@@ -5689,7 +5688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A224" s="1">
         <v>33</v>
       </c>
@@ -5718,7 +5717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A225" s="1">
         <v>34</v>
       </c>
@@ -5747,7 +5746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A226" s="1">
         <v>35</v>
       </c>
@@ -5776,7 +5775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A227" s="1">
         <v>36</v>
       </c>
@@ -5805,7 +5804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A228" s="1">
         <v>37</v>
       </c>
@@ -5834,7 +5833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A229" s="1">
         <v>38</v>
       </c>
@@ -5863,7 +5862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A230" s="1">
         <v>39</v>
       </c>
@@ -5892,7 +5891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A231" s="1">
         <v>40</v>
       </c>
@@ -5921,7 +5920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A232" s="1">
         <v>41</v>
       </c>
@@ -5950,7 +5949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A233" s="1">
         <v>42</v>
       </c>
@@ -5979,7 +5978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A234" s="1">
         <v>43</v>
       </c>
@@ -6008,7 +6007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A235" s="1">
         <v>44</v>
       </c>
@@ -6037,7 +6036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A236" s="1">
         <v>45</v>
       </c>
@@ -6066,7 +6065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A237" s="1">
         <v>46</v>
       </c>
@@ -6095,12 +6094,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A239" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A240" s="1">
         <v>129</v>
       </c>
@@ -6111,7 +6110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A241" s="1">
         <v>130</v>
       </c>
@@ -6122,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A242" s="1">
         <v>131</v>
       </c>
@@ -6133,7 +6132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A243" s="1">
         <v>132</v>
       </c>
@@ -6144,7 +6143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A244" s="1">
         <v>133</v>
       </c>
@@ -6155,7 +6154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A245" s="1">
         <v>134</v>
       </c>
@@ -6166,7 +6165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A246" s="1">
         <v>135</v>
       </c>
@@ -6177,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A247" s="1">
         <v>136</v>
       </c>
@@ -6188,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A248" s="1">
         <v>137</v>
       </c>
@@ -6199,7 +6198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A249" s="1">
         <v>138</v>
       </c>
@@ -6210,7 +6209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A250" s="1">
         <v>139</v>
       </c>
@@ -6221,7 +6220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A251" s="1">
         <v>140</v>
       </c>
@@ -6232,22 +6231,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A253" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A254" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A255" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A256" s="1">
         <v>1</v>
       </c>
@@ -6276,7 +6275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A257" s="1">
         <v>2</v>
       </c>
@@ -6305,7 +6304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A258" s="1">
         <v>3</v>
       </c>
@@ -6334,7 +6333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A259" s="1">
         <v>4</v>
       </c>
@@ -6363,7 +6362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A260" s="1">
         <v>5</v>
       </c>
@@ -6392,7 +6391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A261" s="1">
         <v>6</v>
       </c>
@@ -6421,7 +6420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A262" s="1">
         <v>7</v>
       </c>
@@ -6450,7 +6449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A263" s="1">
         <v>8</v>
       </c>
@@ -6479,7 +6478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A264" s="1">
         <v>9</v>
       </c>
@@ -6508,7 +6507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A265" s="1">
         <v>10</v>
       </c>
@@ -6537,7 +6536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A266" s="1">
         <v>11</v>
       </c>
@@ -6566,7 +6565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A267" s="1">
         <v>12</v>
       </c>
@@ -6595,7 +6594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A268" s="1">
         <v>13</v>
       </c>
@@ -6624,7 +6623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A269" s="1">
         <v>14</v>
       </c>
@@ -6653,7 +6652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A270" s="1">
         <v>15</v>
       </c>
@@ -6682,7 +6681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A271" s="1">
         <v>16</v>
       </c>
@@ -6711,7 +6710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A272" s="1">
         <v>17</v>
       </c>
@@ -6740,7 +6739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A273" s="1">
         <v>18</v>
       </c>
@@ -6769,7 +6768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A274" s="1">
         <v>19</v>
       </c>
@@ -6798,7 +6797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A275" s="1">
         <v>20</v>
       </c>
@@ -6827,7 +6826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A276" s="1">
         <v>21</v>
       </c>
@@ -6856,7 +6855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A277" s="1">
         <v>22</v>
       </c>
@@ -6885,7 +6884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A278" s="1">
         <v>23</v>
       </c>
@@ -6914,7 +6913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A279" s="1">
         <v>24</v>
       </c>
@@ -6943,7 +6942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A280" s="1">
         <v>25</v>
       </c>
@@ -6972,7 +6971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A281" s="1">
         <v>26</v>
       </c>
@@ -7001,7 +7000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A282" s="1">
         <v>27</v>
       </c>
@@ -7030,7 +7029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A283" s="1">
         <v>28</v>
       </c>
@@ -7059,7 +7058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A284" s="1">
         <v>29</v>
       </c>
@@ -7088,7 +7087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A285" s="1">
         <v>30</v>
       </c>
@@ -7117,7 +7116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A286" s="1">
         <v>31</v>
       </c>
@@ -7146,7 +7145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A287" s="1">
         <v>32</v>
       </c>
@@ -7175,7 +7174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A288" s="1">
         <v>33</v>
       </c>
@@ -7204,7 +7203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A289" s="1">
         <v>34</v>
       </c>
@@ -7233,7 +7232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A290" s="1">
         <v>35</v>
       </c>
@@ -7262,7 +7261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A291" s="1">
         <v>36</v>
       </c>
@@ -7291,7 +7290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A292" s="1">
         <v>37</v>
       </c>
@@ -7320,7 +7319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A293" s="1">
         <v>38</v>
       </c>
@@ -7349,7 +7348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A294" s="1">
         <v>39</v>
       </c>
@@ -7378,7 +7377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A295" s="1">
         <v>40</v>
       </c>
@@ -7407,7 +7406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A296" s="1">
         <v>41</v>
       </c>
@@ -7436,7 +7435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A297" s="1">
         <v>42</v>
       </c>
@@ -7465,7 +7464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A298" s="1">
         <v>43</v>
       </c>
@@ -7494,7 +7493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A299" s="1">
         <v>44</v>
       </c>
@@ -7523,7 +7522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A300" s="1">
         <v>45</v>
       </c>
@@ -7552,7 +7551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A301" s="1">
         <v>46</v>
       </c>
@@ -7581,7 +7580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A302" s="1">
         <v>47</v>
       </c>
@@ -7610,7 +7609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A303" s="1">
         <v>48</v>
       </c>
@@ -7639,7 +7638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A304" s="1">
         <v>49</v>
       </c>
@@ -7668,7 +7667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A305" s="1">
         <v>50</v>
       </c>
@@ -7697,7 +7696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A306" s="1">
         <v>51</v>
       </c>
@@ -7726,7 +7725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A307" s="1">
         <v>52</v>
       </c>
@@ -7755,7 +7754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A308" s="1">
         <v>53</v>
       </c>
@@ -7784,7 +7783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A309" s="1">
         <v>54</v>
       </c>
@@ -7813,7 +7812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A310" s="1">
         <v>55</v>
       </c>
@@ -7842,7 +7841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A311" s="1">
         <v>56</v>
       </c>
@@ -7871,7 +7870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A312" s="1">
         <v>57</v>
       </c>
@@ -7900,7 +7899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A313" s="1">
         <v>58</v>
       </c>
@@ -7929,7 +7928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A314" s="1">
         <v>59</v>
       </c>
@@ -7958,7 +7957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A315" s="1">
         <v>60</v>
       </c>
@@ -7987,7 +7986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A316" s="1">
         <v>61</v>
       </c>
@@ -8016,7 +8015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A317" s="1">
         <v>62</v>
       </c>
@@ -8045,7 +8044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A318" s="1">
         <v>63</v>
       </c>
@@ -8074,7 +8073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A319" s="1">
         <v>64</v>
       </c>
@@ -8103,7 +8102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A320" s="1">
         <v>65</v>
       </c>
@@ -8132,7 +8131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A321" s="1">
         <v>66</v>
       </c>
@@ -8161,7 +8160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A322" s="1">
         <v>67</v>
       </c>
@@ -8190,7 +8189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A323" s="1">
         <v>68</v>
       </c>
@@ -8219,7 +8218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A324" s="1">
         <v>69</v>
       </c>
@@ -8248,7 +8247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A325" s="1">
         <v>70</v>
       </c>
@@ -8277,7 +8276,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="326" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A326" s="1">
         <v>71</v>
       </c>
@@ -8306,7 +8305,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A327" s="1">
         <v>72</v>
       </c>
@@ -8335,12 +8334,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A329" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A330" s="1">
         <v>129</v>
       </c>
@@ -8351,7 +8350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A331" s="1">
         <v>130</v>
       </c>
@@ -8362,7 +8361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A332" s="1">
         <v>131</v>
       </c>
@@ -8373,7 +8372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A333" s="1">
         <v>132</v>
       </c>
@@ -8384,7 +8383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A334" s="1">
         <v>133</v>
       </c>
@@ -8395,7 +8394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A335" s="1">
         <v>134</v>
       </c>
@@ -8406,7 +8405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A336" s="1">
         <v>135</v>
       </c>
@@ -8417,7 +8416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A337" s="1">
         <v>136</v>
       </c>
@@ -8428,7 +8427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A338" s="1">
         <v>137</v>
       </c>
@@ -8439,7 +8438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A339" s="1">
         <v>138</v>
       </c>
@@ -8450,7 +8449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A340" s="1">
         <v>139</v>
       </c>
@@ -8461,7 +8460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A341" s="1">
         <v>140</v>
       </c>
@@ -8472,7 +8471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A342" s="1">
         <v>141</v>
       </c>
@@ -8483,7 +8482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A343" s="1">
         <v>142</v>
       </c>
@@ -8494,7 +8493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A344" s="1">
         <v>143</v>
       </c>
@@ -8505,7 +8504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A345" s="1">
         <v>144</v>
       </c>
@@ -8516,7 +8515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A346" s="1">
         <v>145</v>
       </c>
@@ -8527,7 +8526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A347" s="1">
         <v>146</v>
       </c>
@@ -8538,7 +8537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A348" s="1">
         <v>147</v>
       </c>
@@ -8549,7 +8548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A349" s="1">
         <v>148</v>
       </c>
@@ -8560,7 +8559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A350" s="1">
         <v>149</v>
       </c>
@@ -8571,7 +8570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A351" s="1">
         <v>150</v>
       </c>
@@ -8582,22 +8581,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A353" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A354" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A355" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A356" s="1">
         <v>1</v>
       </c>
@@ -8626,7 +8625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A357" s="1">
         <v>2</v>
       </c>
@@ -8655,7 +8654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A358" s="1">
         <v>3</v>
       </c>
@@ -8684,7 +8683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A359" s="1">
         <v>4</v>
       </c>
@@ -8713,7 +8712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A360" s="1">
         <v>5</v>
       </c>
@@ -8742,7 +8741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A361" s="1">
         <v>6</v>
       </c>
@@ -8771,7 +8770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A362" s="1">
         <v>7</v>
       </c>
@@ -8800,7 +8799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A363" s="1">
         <v>8</v>
       </c>
@@ -8829,7 +8828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A364" s="1">
         <v>9</v>
       </c>
@@ -8858,7 +8857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A365" s="1">
         <v>10</v>
       </c>
@@ -8887,7 +8886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A366" s="1">
         <v>11</v>
       </c>
@@ -8916,7 +8915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A367" s="1">
         <v>12</v>
       </c>
@@ -8945,7 +8944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A368" s="1">
         <v>13</v>
       </c>
@@ -8974,7 +8973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A369" s="1">
         <v>14</v>
       </c>
@@ -9003,7 +9002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A370" s="1">
         <v>15</v>
       </c>
@@ -9032,7 +9031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A371" s="1">
         <v>16</v>
       </c>
@@ -9061,7 +9060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A372" s="1">
         <v>17</v>
       </c>
@@ -9090,7 +9089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A373" s="1">
         <v>18</v>
       </c>
@@ -9119,7 +9118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A374" s="1">
         <v>19</v>
       </c>
@@ -9148,7 +9147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A375" s="1">
         <v>20</v>
       </c>
@@ -9177,7 +9176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A376" s="1">
         <v>21</v>
       </c>
@@ -9206,7 +9205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A377" s="1">
         <v>22</v>
       </c>
@@ -9235,7 +9234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A378" s="1">
         <v>23</v>
       </c>
@@ -9264,7 +9263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A379" s="1">
         <v>24</v>
       </c>
@@ -9293,7 +9292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A380" s="1">
         <v>25</v>
       </c>
@@ -9322,7 +9321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A381" s="1">
         <v>26</v>
       </c>
@@ -9351,7 +9350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A382" s="1">
         <v>27</v>
       </c>
@@ -9380,7 +9379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A383" s="1">
         <v>28</v>
       </c>
@@ -9409,7 +9408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A384" s="1">
         <v>29</v>
       </c>
@@ -9438,7 +9437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A385" s="1">
         <v>30</v>
       </c>
@@ -9467,7 +9466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A386" s="1">
         <v>31</v>
       </c>
@@ -9496,7 +9495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A387" s="1">
         <v>32</v>
       </c>
@@ -9525,7 +9524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A388" s="1">
         <v>33</v>
       </c>
@@ -9554,7 +9553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A389" s="1">
         <v>34</v>
       </c>
@@ -9583,7 +9582,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A390" s="1">
         <v>35</v>
       </c>
@@ -9612,7 +9611,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A391" s="1">
         <v>36</v>
       </c>
@@ -9641,12 +9640,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A393" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A394" s="1">
         <v>129</v>
       </c>
@@ -9657,7 +9656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A395" s="1">
         <v>130</v>
       </c>
@@ -9668,7 +9667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A396" s="1">
         <v>131</v>
       </c>
@@ -9679,7 +9678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A397" s="1">
         <v>132</v>
       </c>
@@ -9690,7 +9689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A398" s="1">
         <v>133</v>
       </c>
@@ -9701,7 +9700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A399" s="1">
         <v>134</v>
       </c>
@@ -9712,7 +9711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A400" s="1">
         <v>135</v>
       </c>
@@ -9723,7 +9722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A401" s="1">
         <v>136</v>
       </c>
@@ -9734,7 +9733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A402" s="1">
         <v>137</v>
       </c>
@@ -9745,7 +9744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A403" s="1">
         <v>138</v>
       </c>
@@ -9756,7 +9755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A404" s="1">
         <v>139</v>
       </c>
@@ -9767,7 +9766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A405" s="1">
         <v>140</v>
       </c>
@@ -9778,22 +9777,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A407" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A408" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A409" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A410" s="1">
         <v>1</v>
       </c>
@@ -9822,7 +9821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A411" s="1">
         <v>2</v>
       </c>
@@ -9851,7 +9850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A412" s="1">
         <v>3</v>
       </c>
@@ -9880,7 +9879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A413" s="1">
         <v>4</v>
       </c>
@@ -9909,7 +9908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A414" s="1">
         <v>5</v>
       </c>
@@ -9938,7 +9937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A415" s="1">
         <v>6</v>
       </c>
@@ -9967,7 +9966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A416" s="1">
         <v>7</v>
       </c>
@@ -9996,7 +9995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A417" s="1">
         <v>8</v>
       </c>
@@ -10025,7 +10024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A418" s="1">
         <v>9</v>
       </c>
@@ -10054,7 +10053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A419" s="1">
         <v>10</v>
       </c>
@@ -10083,7 +10082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A420" s="1">
         <v>11</v>
       </c>
@@ -10112,7 +10111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A421" s="1">
         <v>12</v>
       </c>
@@ -10141,7 +10140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A422" s="1">
         <v>13</v>
       </c>
@@ -10170,7 +10169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A423" s="1">
         <v>14</v>
       </c>
@@ -10199,7 +10198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A424" s="1">
         <v>15</v>
       </c>
@@ -10228,7 +10227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A425" s="1">
         <v>16</v>
       </c>
@@ -10257,7 +10256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A426" s="1">
         <v>17</v>
       </c>
@@ -10286,7 +10285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A427" s="1">
         <v>18</v>
       </c>
@@ -10315,7 +10314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A428" s="1">
         <v>19</v>
       </c>
@@ -10344,7 +10343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A429" s="1">
         <v>20</v>
       </c>
@@ -10373,7 +10372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A430" s="1">
         <v>21</v>
       </c>
@@ -10402,7 +10401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A431" s="1">
         <v>22</v>
       </c>
@@ -10431,7 +10430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A432" s="1">
         <v>23</v>
       </c>
@@ -10460,7 +10459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A433" s="1">
         <v>24</v>
       </c>
@@ -10489,7 +10488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A434" s="1">
         <v>25</v>
       </c>
@@ -10518,7 +10517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A435" s="1">
         <v>26</v>
       </c>
@@ -10547,7 +10546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A436" s="1">
         <v>27</v>
       </c>
@@ -10576,7 +10575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A437" s="1">
         <v>28</v>
       </c>
@@ -10605,7 +10604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A438" s="1">
         <v>29</v>
       </c>
@@ -10634,7 +10633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A439" s="1">
         <v>30</v>
       </c>
@@ -10663,7 +10662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A440" s="1">
         <v>31</v>
       </c>
@@ -10692,7 +10691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A441" s="1">
         <v>32</v>
       </c>
@@ -10721,7 +10720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A442" s="1">
         <v>33</v>
       </c>
@@ -10750,7 +10749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A443" s="1">
         <v>34</v>
       </c>
@@ -10779,7 +10778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A444" s="1">
         <v>35</v>
       </c>
@@ -10808,7 +10807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A445" s="1">
         <v>36</v>
       </c>
@@ -10837,7 +10836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A446" s="1">
         <v>37</v>
       </c>
@@ -10866,7 +10865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A447" s="1">
         <v>38</v>
       </c>
@@ -10895,7 +10894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A448" s="1">
         <v>39</v>
       </c>
@@ -10924,7 +10923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A449" s="1">
         <v>40</v>
       </c>
@@ -10953,7 +10952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A450" s="1">
         <v>41</v>
       </c>
@@ -10982,7 +10981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A451" s="1">
         <v>42</v>
       </c>
@@ -11011,7 +11010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A452" s="1">
         <v>43</v>
       </c>
@@ -11040,7 +11039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A453" s="1">
         <v>44</v>
       </c>
@@ -11069,7 +11068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A454" s="1">
         <v>45</v>
       </c>
@@ -11098,7 +11097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A455" s="1">
         <v>46</v>
       </c>
@@ -11127,7 +11126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A456" s="1">
         <v>47</v>
       </c>
@@ -11156,7 +11155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A457" s="1">
         <v>48</v>
       </c>
@@ -11185,7 +11184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A458" s="1">
         <v>49</v>
       </c>
@@ -11214,7 +11213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A459" s="1">
         <v>50</v>
       </c>
@@ -11243,7 +11242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A460" s="1">
         <v>51</v>
       </c>
@@ -11272,7 +11271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A461" s="1">
         <v>52</v>
       </c>
@@ -11301,7 +11300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A462" s="1">
         <v>53</v>
       </c>
@@ -11330,7 +11329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A463" s="1">
         <v>54</v>
       </c>
@@ -11359,7 +11358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A464" s="1">
         <v>55</v>
       </c>
@@ -11388,7 +11387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A465" s="1">
         <v>56</v>
       </c>
@@ -11417,12 +11416,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A467" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A468" s="1">
         <v>129</v>
       </c>
@@ -11433,7 +11432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A469" s="1">
         <v>130</v>
       </c>
@@ -11444,7 +11443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A470" s="1">
         <v>131</v>
       </c>
@@ -11455,7 +11454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A471" s="1">
         <v>132</v>
       </c>
@@ -11466,7 +11465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A472" s="1">
         <v>133</v>
       </c>
@@ -11477,7 +11476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A473" s="1">
         <v>134</v>
       </c>
@@ -11488,7 +11487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A474" s="1">
         <v>135</v>
       </c>
@@ -11499,7 +11498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A475" s="1">
         <v>136</v>
       </c>
@@ -11510,7 +11509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A476" s="1">
         <v>137</v>
       </c>
@@ -11521,7 +11520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A477" s="1">
         <v>138</v>
       </c>
@@ -11532,7 +11531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A478" s="1">
         <v>139</v>
       </c>
@@ -11543,7 +11542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A479" s="1">
         <v>140</v>
       </c>
@@ -11554,7 +11553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A480" s="1">
         <v>141</v>
       </c>
@@ -11565,7 +11564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A481" s="1">
         <v>142</v>
       </c>
@@ -11576,7 +11575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A482" s="1">
         <v>143</v>
       </c>
@@ -11587,7 +11586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A483" s="1">
         <v>144</v>
       </c>
@@ -11598,7 +11597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A484" s="1">
         <v>145</v>
       </c>
@@ -11609,7 +11608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A485" s="1">
         <v>146</v>
       </c>
@@ -11620,7 +11619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A486" s="1">
         <v>147</v>
       </c>
@@ -11631,7 +11630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A487" s="1">
         <v>148</v>
       </c>
@@ -11642,22 +11641,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A489" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A490" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A491" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A492" s="1">
         <v>1</v>
       </c>
@@ -11686,7 +11685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A493" s="1">
         <v>2</v>
       </c>
@@ -11715,7 +11714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A494" s="1">
         <v>3</v>
       </c>
@@ -11744,7 +11743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A495" s="1">
         <v>4</v>
       </c>
@@ -11773,7 +11772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A496" s="1">
         <v>5</v>
       </c>
@@ -11802,7 +11801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A497" s="1">
         <v>6</v>
       </c>
@@ -11831,7 +11830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A498" s="1">
         <v>7</v>
       </c>
@@ -11860,7 +11859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A499" s="1">
         <v>8</v>
       </c>
@@ -11889,7 +11888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A500" s="1">
         <v>9</v>
       </c>
@@ -11918,7 +11917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A501" s="1">
         <v>10</v>
       </c>
@@ -11947,7 +11946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A502" s="1">
         <v>11</v>
       </c>
@@ -11976,7 +11975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A503" s="1">
         <v>12</v>
       </c>
@@ -12005,7 +12004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A504" s="1">
         <v>13</v>
       </c>
@@ -12034,7 +12033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A505" s="1">
         <v>14</v>
       </c>
@@ -12063,7 +12062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A506" s="1">
         <v>15</v>
       </c>
@@ -12092,7 +12091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A507" s="1">
         <v>16</v>
       </c>
@@ -12121,7 +12120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A508" s="1">
         <v>17</v>
       </c>
@@ -12150,7 +12149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A509" s="1">
         <v>18</v>
       </c>
@@ -12179,7 +12178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A510" s="1">
         <v>19</v>
       </c>
@@ -12208,7 +12207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A511" s="1">
         <v>20</v>
       </c>
@@ -12237,7 +12236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A512" s="1">
         <v>21</v>
       </c>
@@ -12266,7 +12265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A513" s="1">
         <v>22</v>
       </c>
@@ -12295,7 +12294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A514" s="1">
         <v>23</v>
       </c>
@@ -12324,7 +12323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A515" s="1">
         <v>24</v>
       </c>
@@ -12353,7 +12352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A516" s="1">
         <v>25</v>
       </c>
@@ -12382,7 +12381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A517" s="1">
         <v>26</v>
       </c>
@@ -12411,7 +12410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A518" s="1">
         <v>27</v>
       </c>
@@ -12440,7 +12439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A519" s="1">
         <v>28</v>
       </c>
@@ -12469,7 +12468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A520" s="1">
         <v>29</v>
       </c>
@@ -12498,7 +12497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A521" s="1">
         <v>30</v>
       </c>
@@ -12527,7 +12526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A522" s="1">
         <v>31</v>
       </c>
@@ -12556,7 +12555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A523" s="1">
         <v>32</v>
       </c>
@@ -12585,7 +12584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A524" s="1">
         <v>33</v>
       </c>
@@ -12614,7 +12613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A525" s="1">
         <v>34</v>
       </c>
@@ -12643,7 +12642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A526" s="1">
         <v>35</v>
       </c>
@@ -12672,7 +12671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A527" s="1">
         <v>36</v>
       </c>
@@ -12701,7 +12700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A528" s="1">
         <v>37</v>
       </c>
@@ -12730,7 +12729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A529" s="1">
         <v>38</v>
       </c>
@@ -12759,7 +12758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A530" s="1">
         <v>39</v>
       </c>
@@ -12788,7 +12787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A531" s="1">
         <v>40</v>
       </c>
@@ -12817,7 +12816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A532" s="1">
         <v>41</v>
       </c>
@@ -12846,7 +12845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A533" s="1">
         <v>42</v>
       </c>
@@ -12875,7 +12874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A534" s="1">
         <v>43</v>
       </c>
@@ -12904,7 +12903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A535" s="1">
         <v>44</v>
       </c>
@@ -12933,12 +12932,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A537" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A538" s="1">
         <v>129</v>
       </c>
@@ -12949,7 +12948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A539" s="1">
         <v>130</v>
       </c>
@@ -12960,7 +12959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A540" s="1">
         <v>131</v>
       </c>
@@ -12971,7 +12970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A541" s="1">
         <v>132</v>
       </c>
@@ -12982,7 +12981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A542" s="1">
         <v>133</v>
       </c>
@@ -12993,7 +12992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A543" s="1">
         <v>134</v>
       </c>
@@ -13004,7 +13003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A544" s="1">
         <v>135</v>
       </c>
@@ -13015,7 +13014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A545" s="1">
         <v>136</v>
       </c>
@@ -13026,7 +13025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A546" s="1">
         <v>137</v>
       </c>
@@ -13037,7 +13036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A547" s="1">
         <v>138</v>
       </c>
@@ -13048,7 +13047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A548" s="1">
         <v>139</v>
       </c>
@@ -13059,7 +13058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A549" s="1">
         <v>140</v>
       </c>
@@ -13070,7 +13069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A550" s="1">
         <v>141</v>
       </c>
@@ -13081,7 +13080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A551" s="1">
         <v>142</v>
       </c>
@@ -13092,22 +13091,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A553" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A554" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A555" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A556" s="1">
         <v>1</v>
       </c>
@@ -13136,7 +13135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A557" s="1">
         <v>2</v>
       </c>
@@ -13165,7 +13164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A558" s="1">
         <v>3</v>
       </c>
@@ -13194,7 +13193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A559" s="1">
         <v>4</v>
       </c>
@@ -13223,7 +13222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A560" s="1">
         <v>5</v>
       </c>
@@ -13252,7 +13251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A561" s="1">
         <v>6</v>
       </c>
@@ -13281,7 +13280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A562" s="1">
         <v>7</v>
       </c>
@@ -13310,7 +13309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A563" s="1">
         <v>8</v>
       </c>
@@ -13339,7 +13338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A564" s="1">
         <v>9</v>
       </c>
@@ -13368,7 +13367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A565" s="1">
         <v>10</v>
       </c>
@@ -13397,7 +13396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A566" s="1">
         <v>11</v>
       </c>
@@ -13426,7 +13425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A567" s="1">
         <v>12</v>
       </c>
@@ -13455,7 +13454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A568" s="1">
         <v>13</v>
       </c>
@@ -13484,7 +13483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A569" s="1">
         <v>14</v>
       </c>
@@ -13513,7 +13512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A570" s="1">
         <v>15</v>
       </c>
@@ -13542,7 +13541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A571" s="1">
         <v>16</v>
       </c>
@@ -13571,7 +13570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A572" s="1">
         <v>17</v>
       </c>
@@ -13600,7 +13599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A573" s="1">
         <v>18</v>
       </c>
@@ -13629,7 +13628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A574" s="1">
         <v>19</v>
       </c>
@@ -13658,7 +13657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A575" s="1">
         <v>20</v>
       </c>
@@ -13687,7 +13686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A576" s="1">
         <v>21</v>
       </c>
@@ -13716,7 +13715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A577" s="1">
         <v>22</v>
       </c>
@@ -13745,7 +13744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A578" s="1">
         <v>23</v>
       </c>
@@ -13774,7 +13773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A579" s="1">
         <v>24</v>
       </c>
@@ -13803,7 +13802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A580" s="1">
         <v>25</v>
       </c>
@@ -13832,7 +13831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A581" s="1">
         <v>26</v>
       </c>
@@ -13861,7 +13860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A582" s="1">
         <v>27</v>
       </c>
@@ -13890,7 +13889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A583" s="1">
         <v>28</v>
       </c>
@@ -13919,7 +13918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A584" s="1">
         <v>29</v>
       </c>
@@ -13948,7 +13947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A585" s="1">
         <v>30</v>
       </c>
@@ -13977,7 +13976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A586" s="1">
         <v>31</v>
       </c>
@@ -14006,7 +14005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A587" s="1">
         <v>32</v>
       </c>
@@ -14035,7 +14034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A588" s="1">
         <v>33</v>
       </c>
@@ -14064,7 +14063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A589" s="1">
         <v>34</v>
       </c>
@@ -14093,7 +14092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A590" s="1">
         <v>35</v>
       </c>
@@ -14122,7 +14121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A591" s="1">
         <v>36</v>
       </c>
@@ -14151,7 +14150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A592" s="1">
         <v>37</v>
       </c>
@@ -14180,7 +14179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A593" s="1">
         <v>38</v>
       </c>
@@ -14209,7 +14208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A594" s="1">
         <v>39</v>
       </c>
@@ -14238,7 +14237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A595" s="1">
         <v>40</v>
       </c>
@@ -14267,7 +14266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A596" s="1">
         <v>41</v>
       </c>
@@ -14296,7 +14295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A597" s="1">
         <v>42</v>
       </c>
@@ -14325,7 +14324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A598" s="1">
         <v>43</v>
       </c>
@@ -14354,7 +14353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A599" s="1">
         <v>44</v>
       </c>
@@ -14383,7 +14382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A600" s="1">
         <v>45</v>
       </c>
@@ -14412,7 +14411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A601" s="1">
         <v>46</v>
       </c>
@@ -14441,7 +14440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A602" s="1">
         <v>47</v>
       </c>
@@ -14470,7 +14469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A603" s="1">
         <v>48</v>
       </c>
@@ -14499,7 +14498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A604" s="1">
         <v>49</v>
       </c>
@@ -14528,7 +14527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A605" s="1">
         <v>50</v>
       </c>
@@ -14557,7 +14556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A606" s="1">
         <v>51</v>
       </c>
@@ -14586,7 +14585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A607" s="1">
         <v>52</v>
       </c>
@@ -14615,7 +14614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A608" s="1">
         <v>53</v>
       </c>
@@ -14644,7 +14643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A609" s="1">
         <v>54</v>
       </c>
@@ -14673,7 +14672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A610" s="1">
         <v>55</v>
       </c>
@@ -14702,7 +14701,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A611" s="1">
         <v>56</v>
       </c>
@@ -14731,12 +14730,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A613" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A614" s="1">
         <v>129</v>
       </c>
@@ -14747,7 +14746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A615" s="1">
         <v>130</v>
       </c>
@@ -14758,7 +14757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A616" s="1">
         <v>131</v>
       </c>
@@ -14769,7 +14768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A617" s="1">
         <v>132</v>
       </c>
@@ -14780,7 +14779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A618" s="1">
         <v>133</v>
       </c>
@@ -14791,7 +14790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A619" s="1">
         <v>134</v>
       </c>
@@ -14802,7 +14801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A620" s="1">
         <v>135</v>
       </c>
@@ -14813,7 +14812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A621" s="1">
         <v>136</v>
       </c>
@@ -14824,7 +14823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A622" s="1">
         <v>137</v>
       </c>
@@ -14835,7 +14834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A623" s="1">
         <v>138</v>
       </c>
@@ -14846,7 +14845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A624" s="1">
         <v>139</v>
       </c>
@@ -14857,7 +14856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A625" s="1">
         <v>140</v>
       </c>
@@ -14868,7 +14867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A626" s="1">
         <v>141</v>
       </c>
@@ -14879,7 +14878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A627" s="1">
         <v>142</v>
       </c>
@@ -14890,22 +14889,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="629" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A629" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A630" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A631" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A632" s="1">
         <v>1</v>
       </c>
@@ -14934,7 +14933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A633" s="1">
         <v>2</v>
       </c>
@@ -14963,7 +14962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A634" s="1">
         <v>3</v>
       </c>
@@ -14992,7 +14991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A635" s="1">
         <v>4</v>
       </c>
@@ -15021,7 +15020,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A636" s="1">
         <v>5</v>
       </c>
@@ -15050,7 +15049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A637" s="1">
         <v>6</v>
       </c>
@@ -15079,7 +15078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A638" s="1">
         <v>7</v>
       </c>
@@ -15108,7 +15107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A639" s="1">
         <v>8</v>
       </c>
@@ -15137,7 +15136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A640" s="1">
         <v>9</v>
       </c>
@@ -15166,7 +15165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A641" s="1">
         <v>10</v>
       </c>
@@ -15195,7 +15194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A642" s="1">
         <v>11</v>
       </c>
@@ -15224,7 +15223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A643" s="1">
         <v>12</v>
       </c>
@@ -15253,7 +15252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A644" s="1">
         <v>13</v>
       </c>
@@ -15282,7 +15281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A645" s="1">
         <v>14</v>
       </c>
@@ -15311,7 +15310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A646" s="1">
         <v>15</v>
       </c>
@@ -15340,7 +15339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A647" s="1">
         <v>16</v>
       </c>
@@ -15369,7 +15368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A648" s="1">
         <v>17</v>
       </c>
@@ -15398,7 +15397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A649" s="1">
         <v>18</v>
       </c>
@@ -15427,7 +15426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A650" s="1">
         <v>19</v>
       </c>
@@ -15456,7 +15455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A651" s="1">
         <v>20</v>
       </c>
@@ -15485,7 +15484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A652" s="1">
         <v>21</v>
       </c>
@@ -15514,7 +15513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A653" s="1">
         <v>22</v>
       </c>
@@ -15543,7 +15542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A654" s="1">
         <v>23</v>
       </c>
@@ -15572,7 +15571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A655" s="1">
         <v>24</v>
       </c>
@@ -15601,7 +15600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A656" s="1">
         <v>25</v>
       </c>
@@ -15630,7 +15629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A657" s="1">
         <v>26</v>
       </c>
@@ -15659,7 +15658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A658" s="1">
         <v>27</v>
       </c>
@@ -15688,7 +15687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A659" s="1">
         <v>28</v>
       </c>
@@ -15717,7 +15716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A660" s="1">
         <v>29</v>
       </c>
@@ -15746,7 +15745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A661" s="1">
         <v>30</v>
       </c>
@@ -15775,7 +15774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A662" s="1">
         <v>31</v>
       </c>
@@ -15804,7 +15803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A663" s="1">
         <v>32</v>
       </c>
@@ -15833,7 +15832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A664" s="1">
         <v>33</v>
       </c>
@@ -15862,7 +15861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A665" s="1">
         <v>34</v>
       </c>
@@ -15891,7 +15890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A666" s="1">
         <v>35</v>
       </c>
@@ -15920,7 +15919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A667" s="1">
         <v>36</v>
       </c>
@@ -15949,7 +15948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A668" s="1">
         <v>37</v>
       </c>
@@ -15978,7 +15977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A669" s="1">
         <v>38</v>
       </c>
@@ -16007,7 +16006,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A670" s="1">
         <v>39</v>
       </c>
@@ -16036,7 +16035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A671" s="1">
         <v>40</v>
       </c>
@@ -16065,7 +16064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A672" s="1">
         <v>41</v>
       </c>
@@ -16094,7 +16093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A673" s="1">
         <v>42</v>
       </c>
@@ -16123,7 +16122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A674" s="1">
         <v>43</v>
       </c>
@@ -16152,7 +16151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A675" s="1">
         <v>44</v>
       </c>
@@ -16181,7 +16180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A676" s="1">
         <v>45</v>
       </c>
@@ -16210,7 +16209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A677" s="1">
         <v>46</v>
       </c>
@@ -16239,7 +16238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A678" s="1">
         <v>47</v>
       </c>
@@ -16268,7 +16267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A679" s="1">
         <v>48</v>
       </c>
@@ -16297,7 +16296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A680" s="1">
         <v>49</v>
       </c>
@@ -16326,7 +16325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A681" s="1">
         <v>50</v>
       </c>
@@ -16355,12 +16354,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A684" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A685" s="1">
         <v>129</v>
       </c>
@@ -16371,7 +16370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A686" s="1">
         <v>130</v>
       </c>
@@ -16382,7 +16381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A687" s="1">
         <v>131</v>
       </c>
@@ -16393,7 +16392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A688" s="1">
         <v>132</v>
       </c>
@@ -16404,7 +16403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A689" s="1">
         <v>133</v>
       </c>
@@ -16415,7 +16414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A690" s="1">
         <v>134</v>
       </c>
@@ -16426,7 +16425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A691" s="1">
         <v>135</v>
       </c>
@@ -16437,7 +16436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A692" s="1">
         <v>136</v>
       </c>
@@ -16448,7 +16447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A693" s="1">
         <v>137</v>
       </c>
@@ -16459,7 +16458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A694" s="1">
         <v>138</v>
       </c>
@@ -16470,7 +16469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A695" s="1">
         <v>139</v>
       </c>
@@ -16481,7 +16480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A696" s="1">
         <v>140</v>
       </c>
@@ -16492,7 +16491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A697" s="1">
         <v>141</v>
       </c>
@@ -16503,7 +16502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A698" s="1">
         <v>142</v>
       </c>
@@ -16514,22 +16513,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A700" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A701" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A702" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A703" s="1">
         <v>1</v>
       </c>
@@ -16558,7 +16557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A704" s="1">
         <v>2</v>
       </c>
@@ -16587,7 +16586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A705" s="1">
         <v>3</v>
       </c>
@@ -16616,7 +16615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="706" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A706" s="1">
         <v>4</v>
       </c>
@@ -16645,7 +16644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="707" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A707" s="1">
         <v>5</v>
       </c>
@@ -16674,7 +16673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="708" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A708" s="1">
         <v>6</v>
       </c>
@@ -16703,7 +16702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="709" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A709" s="1">
         <v>7</v>
       </c>
@@ -16732,7 +16731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A710" s="1">
         <v>8</v>
       </c>
@@ -16761,7 +16760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="711" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="711" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A711" s="1">
         <v>9</v>
       </c>
@@ -16790,7 +16789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="712" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A712" s="1">
         <v>10</v>
       </c>
@@ -16819,7 +16818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="713" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A713" s="1">
         <v>11</v>
       </c>
@@ -16848,7 +16847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="714" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A714" s="1">
         <v>12</v>
       </c>
@@ -16877,7 +16876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="715" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A715" s="1">
         <v>13</v>
       </c>
@@ -16906,7 +16905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A716" s="1">
         <v>14</v>
       </c>
@@ -16935,7 +16934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="717" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A717" s="1">
         <v>15</v>
       </c>
@@ -16964,7 +16963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="718" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A718" s="1">
         <v>16</v>
       </c>
@@ -16993,7 +16992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A719" s="1">
         <v>17</v>
       </c>
@@ -17022,7 +17021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="720" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A720" s="1">
         <v>18</v>
       </c>
@@ -17051,7 +17050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A721" s="1">
         <v>19</v>
       </c>
@@ -17080,7 +17079,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A722" s="1">
         <v>20</v>
       </c>
@@ -17109,7 +17108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A723" s="1">
         <v>21</v>
       </c>
@@ -17138,7 +17137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="724" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A724" s="1">
         <v>22</v>
       </c>
@@ -17167,7 +17166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A725" s="1">
         <v>23</v>
       </c>
@@ -17196,7 +17195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A726" s="1">
         <v>24</v>
       </c>
@@ -17225,7 +17224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A727" s="1">
         <v>25</v>
       </c>
@@ -17254,7 +17253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A728" s="1">
         <v>26</v>
       </c>
@@ -17283,7 +17282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A729" s="1">
         <v>27</v>
       </c>
@@ -17312,7 +17311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A730" s="1">
         <v>28</v>
       </c>
@@ -17341,7 +17340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A731" s="1">
         <v>29</v>
       </c>
@@ -17370,7 +17369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A732" s="1">
         <v>30</v>
       </c>
@@ -17399,7 +17398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A733" s="1">
         <v>31</v>
       </c>
@@ -17428,7 +17427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A734" s="1">
         <v>32</v>
       </c>
@@ -17457,7 +17456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A735" s="1">
         <v>33</v>
       </c>
@@ -17486,7 +17485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A736" s="1">
         <v>34</v>
       </c>
@@ -17515,7 +17514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A737" s="1">
         <v>35</v>
       </c>
@@ -17544,7 +17543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A738" s="1">
         <v>36</v>
       </c>
@@ -17573,7 +17572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="739" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A739" s="1">
         <v>37</v>
       </c>
@@ -17602,7 +17601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A740" s="1">
         <v>38</v>
       </c>
@@ -17631,7 +17630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="741" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A741" s="1">
         <v>39</v>
       </c>
@@ -17660,7 +17659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A742" s="1">
         <v>40</v>
       </c>
@@ -17689,7 +17688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="743" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A743" s="1">
         <v>41</v>
       </c>
@@ -17718,7 +17717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="744" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A744" s="1">
         <v>42</v>
       </c>
@@ -17747,7 +17746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A745" s="1">
         <v>43</v>
       </c>
@@ -17776,7 +17775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A746" s="1">
         <v>44</v>
       </c>
@@ -17805,7 +17804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="747" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A747" s="1">
         <v>45</v>
       </c>
@@ -17834,7 +17833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="748" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A748" s="1">
         <v>46</v>
       </c>
@@ -17863,7 +17862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A749" s="1">
         <v>47</v>
       </c>
@@ -17892,7 +17891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A750" s="1">
         <v>48</v>
       </c>
@@ -17921,12 +17920,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A753" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A754" s="1">
         <v>129</v>
       </c>
@@ -17937,7 +17936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A755" s="1">
         <v>130</v>
       </c>
@@ -17948,7 +17947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A756" s="1">
         <v>131</v>
       </c>
@@ -17959,7 +17958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A757" s="1">
         <v>132</v>
       </c>
@@ -17970,7 +17969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A758" s="1">
         <v>133</v>
       </c>
@@ -17981,7 +17980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A759" s="1">
         <v>134</v>
       </c>
@@ -17992,7 +17991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A760" s="1">
         <v>135</v>
       </c>
@@ -18003,7 +18002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A761" s="1">
         <v>136</v>
       </c>
@@ -18014,7 +18013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A762" s="1">
         <v>137</v>
       </c>
@@ -18025,7 +18024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A763" s="1">
         <v>138</v>
       </c>
@@ -18036,7 +18035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A764" s="1">
         <v>139</v>
       </c>
@@ -18047,7 +18046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A765" s="1">
         <v>140</v>
       </c>

--- a/06_납품현황/2017/04_부산용홈만w몰/02_SerialNumber/CCM2_USM_LGM_SerialNumber.xlsx
+++ b/06_납품현황/2017/04_부산용홈만w몰/02_SerialNumber/CCM2_USM_LGM_SerialNumber.xlsx
@@ -402,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I765"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A375" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W387" sqref="W387"/>
+    <sheetView tabSelected="1" topLeftCell="A692" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I750" sqref="I750"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
@@ -495,7 +495,7 @@
         <v>3</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
@@ -524,7 +524,7 @@
         <v>3</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
@@ -553,7 +553,7 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
@@ -582,7 +582,7 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -611,7 +611,7 @@
         <v>3</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
@@ -640,7 +640,7 @@
         <v>3</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
@@ -669,7 +669,7 @@
         <v>3</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
@@ -698,7 +698,7 @@
         <v>3</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
@@ -727,7 +727,7 @@
         <v>3</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
@@ -756,7 +756,7 @@
         <v>3</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
@@ -785,7 +785,7 @@
         <v>3</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
@@ -814,7 +814,7 @@
         <v>3</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -843,7 +843,7 @@
         <v>3</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -872,7 +872,7 @@
         <v>3</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
@@ -930,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
@@ -959,7 +959,7 @@
         <v>3</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
@@ -988,7 +988,7 @@
         <v>3</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
@@ -1017,7 +1017,7 @@
         <v>3</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
@@ -1046,7 +1046,7 @@
         <v>3</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
@@ -1075,7 +1075,7 @@
         <v>3</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
@@ -1104,7 +1104,7 @@
         <v>3</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
@@ -1133,7 +1133,7 @@
         <v>3</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
@@ -1162,7 +1162,7 @@
         <v>3</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
@@ -1191,7 +1191,7 @@
         <v>3</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
@@ -1220,7 +1220,7 @@
         <v>3</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
@@ -1249,7 +1249,7 @@
         <v>3</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
@@ -1278,7 +1278,7 @@
         <v>3</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
@@ -1307,7 +1307,7 @@
         <v>3</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
@@ -1336,7 +1336,7 @@
         <v>3</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
@@ -1365,7 +1365,7 @@
         <v>3</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.4">
@@ -1394,7 +1394,7 @@
         <v>3</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.4">
@@ -1423,7 +1423,7 @@
         <v>3</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
@@ -1452,7 +1452,7 @@
         <v>3</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
@@ -1481,7 +1481,7 @@
         <v>3</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.4">
@@ -1510,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.4">
@@ -1539,7 +1539,7 @@
         <v>3</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.4">
@@ -1568,7 +1568,7 @@
         <v>3</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.4">
@@ -1597,7 +1597,7 @@
         <v>3</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
@@ -1626,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
@@ -1655,7 +1655,7 @@
         <v>3</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.4">
@@ -1684,7 +1684,7 @@
         <v>3</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.4">
@@ -1713,7 +1713,7 @@
         <v>3</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.4">
@@ -1952,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.4">
@@ -1981,7 +1981,7 @@
         <v>3</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.4">
@@ -2010,7 +2010,7 @@
         <v>3</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.4">
@@ -2039,7 +2039,7 @@
         <v>3</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.4">
@@ -2068,7 +2068,7 @@
         <v>3</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.4">
@@ -2097,7 +2097,7 @@
         <v>3</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.4">
@@ -2126,7 +2126,7 @@
         <v>3</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.4">
@@ -2155,7 +2155,7 @@
         <v>3</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.4">
@@ -2184,7 +2184,7 @@
         <v>3</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.4">
@@ -2213,7 +2213,7 @@
         <v>3</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.4">
@@ -2242,7 +2242,7 @@
         <v>3</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.4">
@@ -2271,7 +2271,7 @@
         <v>3</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.4">
@@ -2300,7 +2300,7 @@
         <v>3</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.4">
@@ -2329,7 +2329,7 @@
         <v>3</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.4">
@@ -2358,7 +2358,7 @@
         <v>3</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.4">
@@ -2387,7 +2387,7 @@
         <v>3</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.4">
@@ -2416,7 +2416,7 @@
         <v>3</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.4">
@@ -2445,7 +2445,7 @@
         <v>3</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.4">
@@ -2474,7 +2474,7 @@
         <v>3</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.4">
@@ -2503,7 +2503,7 @@
         <v>3</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.4">
@@ -2532,7 +2532,7 @@
         <v>3</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.4">
@@ -2561,7 +2561,7 @@
         <v>3</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.4">
@@ -2590,7 +2590,7 @@
         <v>3</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.4">
@@ -2619,7 +2619,7 @@
         <v>3</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.4">
@@ -2648,7 +2648,7 @@
         <v>3</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.4">
@@ -2677,7 +2677,7 @@
         <v>3</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.4">
@@ -2706,7 +2706,7 @@
         <v>3</v>
       </c>
       <c r="I94">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.4">
@@ -2735,7 +2735,7 @@
         <v>3</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.4">
@@ -2764,7 +2764,7 @@
         <v>3</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.4">
@@ -2793,7 +2793,7 @@
         <v>3</v>
       </c>
       <c r="I97">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.4">
@@ -2822,7 +2822,7 @@
         <v>3</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.4">
@@ -2851,7 +2851,7 @@
         <v>3</v>
       </c>
       <c r="I99">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.4">
@@ -2880,7 +2880,7 @@
         <v>3</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.4">
@@ -2909,7 +2909,7 @@
         <v>3</v>
       </c>
       <c r="I101">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.4">
@@ -2938,7 +2938,7 @@
         <v>3</v>
       </c>
       <c r="I102">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.4">
@@ -2967,7 +2967,7 @@
         <v>3</v>
       </c>
       <c r="I103">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.4">
@@ -2996,7 +2996,7 @@
         <v>3</v>
       </c>
       <c r="I104">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.4">
@@ -3025,7 +3025,7 @@
         <v>3</v>
       </c>
       <c r="I105">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.4">
@@ -3054,7 +3054,7 @@
         <v>3</v>
       </c>
       <c r="I106">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.4">
@@ -3083,7 +3083,7 @@
         <v>3</v>
       </c>
       <c r="I107">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.4">
@@ -3112,7 +3112,7 @@
         <v>3</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.4">
@@ -3300,7 +3300,7 @@
         <v>3</v>
       </c>
       <c r="I127">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.4">
@@ -3329,7 +3329,7 @@
         <v>3</v>
       </c>
       <c r="I128">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.4">
@@ -3358,7 +3358,7 @@
         <v>3</v>
       </c>
       <c r="I129">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.4">
@@ -3387,7 +3387,7 @@
         <v>3</v>
       </c>
       <c r="I130">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.4">
@@ -3416,7 +3416,7 @@
         <v>3</v>
       </c>
       <c r="I131">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.4">
@@ -3445,7 +3445,7 @@
         <v>3</v>
       </c>
       <c r="I132">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.4">
@@ -3474,7 +3474,7 @@
         <v>3</v>
       </c>
       <c r="I133">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.4">
@@ -3503,7 +3503,7 @@
         <v>3</v>
       </c>
       <c r="I134">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.4">
@@ -3532,7 +3532,7 @@
         <v>3</v>
       </c>
       <c r="I135">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.4">
@@ -3561,7 +3561,7 @@
         <v>3</v>
       </c>
       <c r="I136">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.4">
@@ -3590,7 +3590,7 @@
         <v>3</v>
       </c>
       <c r="I137">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.4">
@@ -3619,7 +3619,7 @@
         <v>3</v>
       </c>
       <c r="I138">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.4">
@@ -3648,7 +3648,7 @@
         <v>3</v>
       </c>
       <c r="I139">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.4">
@@ -3677,7 +3677,7 @@
         <v>3</v>
       </c>
       <c r="I140">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.4">
@@ -3706,7 +3706,7 @@
         <v>3</v>
       </c>
       <c r="I141">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.4">
@@ -3735,7 +3735,7 @@
         <v>3</v>
       </c>
       <c r="I142">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.4">
@@ -3764,7 +3764,7 @@
         <v>3</v>
       </c>
       <c r="I143">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.4">
@@ -3793,7 +3793,7 @@
         <v>3</v>
       </c>
       <c r="I144">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.4">
@@ -3822,7 +3822,7 @@
         <v>3</v>
       </c>
       <c r="I145">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.4">
@@ -3851,7 +3851,7 @@
         <v>3</v>
       </c>
       <c r="I146">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.4">
@@ -3880,7 +3880,7 @@
         <v>3</v>
       </c>
       <c r="I147">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.4">
@@ -3909,7 +3909,7 @@
         <v>3</v>
       </c>
       <c r="I148">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.4">
@@ -3938,7 +3938,7 @@
         <v>3</v>
       </c>
       <c r="I149">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.4">
@@ -3967,7 +3967,7 @@
         <v>3</v>
       </c>
       <c r="I150">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.4">
@@ -3996,7 +3996,7 @@
         <v>3</v>
       </c>
       <c r="I151">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.4">
@@ -4025,7 +4025,7 @@
         <v>3</v>
       </c>
       <c r="I152">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.4">
@@ -4054,7 +4054,7 @@
         <v>3</v>
       </c>
       <c r="I153">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.4">
@@ -4083,7 +4083,7 @@
         <v>3</v>
       </c>
       <c r="I154">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.4">
@@ -4112,7 +4112,7 @@
         <v>3</v>
       </c>
       <c r="I155">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.4">
@@ -4141,7 +4141,7 @@
         <v>3</v>
       </c>
       <c r="I156">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.4">
@@ -4170,7 +4170,7 @@
         <v>3</v>
       </c>
       <c r="I157">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.4">
@@ -4199,7 +4199,7 @@
         <v>3</v>
       </c>
       <c r="I158">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.4">
@@ -4228,7 +4228,7 @@
         <v>3</v>
       </c>
       <c r="I159">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.4">
@@ -4257,7 +4257,7 @@
         <v>3</v>
       </c>
       <c r="I160">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.4">
@@ -4286,7 +4286,7 @@
         <v>3</v>
       </c>
       <c r="I161">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.4">
@@ -4315,7 +4315,7 @@
         <v>3</v>
       </c>
       <c r="I162">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.4">
@@ -4344,7 +4344,7 @@
         <v>3</v>
       </c>
       <c r="I163">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.4">
@@ -4373,7 +4373,7 @@
         <v>3</v>
       </c>
       <c r="I164">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.4">
@@ -4402,7 +4402,7 @@
         <v>3</v>
       </c>
       <c r="I165">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.4">
@@ -4431,7 +4431,7 @@
         <v>3</v>
       </c>
       <c r="I166">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.4">
@@ -4460,7 +4460,7 @@
         <v>3</v>
       </c>
       <c r="I167">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.4">
@@ -4489,7 +4489,7 @@
         <v>3</v>
       </c>
       <c r="I168">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.4">
@@ -4518,7 +4518,7 @@
         <v>3</v>
       </c>
       <c r="I169">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.4">
@@ -4547,7 +4547,7 @@
         <v>3</v>
       </c>
       <c r="I170">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.4">
@@ -4786,7 +4786,7 @@
         <v>3</v>
       </c>
       <c r="I192">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.4">
@@ -4815,7 +4815,7 @@
         <v>3</v>
       </c>
       <c r="I193">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.4">
@@ -4844,7 +4844,7 @@
         <v>3</v>
       </c>
       <c r="I194">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.4">
@@ -4873,7 +4873,7 @@
         <v>3</v>
       </c>
       <c r="I195">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.4">
@@ -4902,7 +4902,7 @@
         <v>3</v>
       </c>
       <c r="I196">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.4">
@@ -4931,7 +4931,7 @@
         <v>3</v>
       </c>
       <c r="I197">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.4">
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="I198">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.4">
@@ -4989,7 +4989,7 @@
         <v>3</v>
       </c>
       <c r="I199">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.4">
@@ -5018,7 +5018,7 @@
         <v>3</v>
       </c>
       <c r="I200">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.4">
@@ -5047,7 +5047,7 @@
         <v>3</v>
       </c>
       <c r="I201">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.4">
@@ -5076,7 +5076,7 @@
         <v>3</v>
       </c>
       <c r="I202">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.4">
@@ -5105,7 +5105,7 @@
         <v>3</v>
       </c>
       <c r="I203">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.4">
@@ -5134,7 +5134,7 @@
         <v>3</v>
       </c>
       <c r="I204">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.4">
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="I205">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.4">
@@ -5192,7 +5192,7 @@
         <v>3</v>
       </c>
       <c r="I206">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.4">
@@ -5221,7 +5221,7 @@
         <v>3</v>
       </c>
       <c r="I207">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.4">
@@ -5250,7 +5250,7 @@
         <v>3</v>
       </c>
       <c r="I208">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.4">
@@ -5279,7 +5279,7 @@
         <v>3</v>
       </c>
       <c r="I209">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.4">
@@ -5308,7 +5308,7 @@
         <v>3</v>
       </c>
       <c r="I210">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.4">
@@ -5337,7 +5337,7 @@
         <v>3</v>
       </c>
       <c r="I211">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.4">
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="I212">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.4">
@@ -5395,7 +5395,7 @@
         <v>3</v>
       </c>
       <c r="I213">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.4">
@@ -5424,7 +5424,7 @@
         <v>3</v>
       </c>
       <c r="I214">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.4">
@@ -5453,7 +5453,7 @@
         <v>3</v>
       </c>
       <c r="I215">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.4">
@@ -5482,7 +5482,7 @@
         <v>3</v>
       </c>
       <c r="I216">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.4">
@@ -5511,7 +5511,7 @@
         <v>3</v>
       </c>
       <c r="I217">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.4">
@@ -5540,7 +5540,7 @@
         <v>3</v>
       </c>
       <c r="I218">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.4">
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="I219">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.4">
@@ -5598,7 +5598,7 @@
         <v>3</v>
       </c>
       <c r="I220">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.4">
@@ -5627,7 +5627,7 @@
         <v>3</v>
       </c>
       <c r="I221">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.4">
@@ -5656,7 +5656,7 @@
         <v>3</v>
       </c>
       <c r="I222">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.4">
@@ -5685,7 +5685,7 @@
         <v>3</v>
       </c>
       <c r="I223">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.4">
@@ -5714,7 +5714,7 @@
         <v>3</v>
       </c>
       <c r="I224">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.4">
@@ -5743,7 +5743,7 @@
         <v>3</v>
       </c>
       <c r="I225">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.4">
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="I226">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.4">
@@ -5801,7 +5801,7 @@
         <v>3</v>
       </c>
       <c r="I227">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.4">
@@ -5830,7 +5830,7 @@
         <v>3</v>
       </c>
       <c r="I228">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.4">
@@ -5859,7 +5859,7 @@
         <v>3</v>
       </c>
       <c r="I229">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.4">
@@ -5888,7 +5888,7 @@
         <v>3</v>
       </c>
       <c r="I230">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.4">
@@ -5917,7 +5917,7 @@
         <v>3</v>
       </c>
       <c r="I231">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.4">
@@ -5946,7 +5946,7 @@
         <v>3</v>
       </c>
       <c r="I232">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.4">
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="I233">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.4">
@@ -6004,7 +6004,7 @@
         <v>3</v>
       </c>
       <c r="I234">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.4">
@@ -6033,7 +6033,7 @@
         <v>3</v>
       </c>
       <c r="I235">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.4">
@@ -6062,7 +6062,7 @@
         <v>3</v>
       </c>
       <c r="I236">
-        <v>4</v>
+        <v>99</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.4">
@@ -6091,7 +6091,7 @@
         <v>3</v>
       </c>
       <c r="I237">
-        <v>4</v>
+        <v>99</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.4">
@@ -6272,7 +6272,7 @@
         <v>3</v>
       </c>
       <c r="I256">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.4">
@@ -6301,7 +6301,7 @@
         <v>3</v>
       </c>
       <c r="I257">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.4">
@@ -6330,7 +6330,7 @@
         <v>3</v>
       </c>
       <c r="I258">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.4">
@@ -6359,7 +6359,7 @@
         <v>3</v>
       </c>
       <c r="I259">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.4">
@@ -6388,7 +6388,7 @@
         <v>3</v>
       </c>
       <c r="I260">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.4">
@@ -6417,7 +6417,7 @@
         <v>3</v>
       </c>
       <c r="I261">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.4">
@@ -6446,7 +6446,7 @@
         <v>3</v>
       </c>
       <c r="I262">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.4">
@@ -6475,7 +6475,7 @@
         <v>3</v>
       </c>
       <c r="I263">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.4">
@@ -6504,7 +6504,7 @@
         <v>3</v>
       </c>
       <c r="I264">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.4">
@@ -6533,7 +6533,7 @@
         <v>3</v>
       </c>
       <c r="I265">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.4">
@@ -6562,7 +6562,7 @@
         <v>3</v>
       </c>
       <c r="I266">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.4">
@@ -6591,7 +6591,7 @@
         <v>3</v>
       </c>
       <c r="I267">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.4">
@@ -6620,7 +6620,7 @@
         <v>3</v>
       </c>
       <c r="I268">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.4">
@@ -6649,7 +6649,7 @@
         <v>3</v>
       </c>
       <c r="I269">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.4">
@@ -6678,7 +6678,7 @@
         <v>3</v>
       </c>
       <c r="I270">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.4">
@@ -6707,7 +6707,7 @@
         <v>3</v>
       </c>
       <c r="I271">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.4">
@@ -6736,7 +6736,7 @@
         <v>3</v>
       </c>
       <c r="I272">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.4">
@@ -6765,7 +6765,7 @@
         <v>3</v>
       </c>
       <c r="I273">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.4">
@@ -6794,7 +6794,7 @@
         <v>3</v>
       </c>
       <c r="I274">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.4">
@@ -6823,7 +6823,7 @@
         <v>3</v>
       </c>
       <c r="I275">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.4">
@@ -6852,7 +6852,7 @@
         <v>3</v>
       </c>
       <c r="I276">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.4">
@@ -6881,7 +6881,7 @@
         <v>3</v>
       </c>
       <c r="I277">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.4">
@@ -6910,7 +6910,7 @@
         <v>3</v>
       </c>
       <c r="I278">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.4">
@@ -6939,7 +6939,7 @@
         <v>3</v>
       </c>
       <c r="I279">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.4">
@@ -6968,7 +6968,7 @@
         <v>3</v>
       </c>
       <c r="I280">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -6997,7 +6997,7 @@
         <v>3</v>
       </c>
       <c r="I281">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7026,7 +7026,7 @@
         <v>3</v>
       </c>
       <c r="I282">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7055,7 +7055,7 @@
         <v>3</v>
       </c>
       <c r="I283">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="284" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7084,7 +7084,7 @@
         <v>3</v>
       </c>
       <c r="I284">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="285" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7113,7 +7113,7 @@
         <v>3</v>
       </c>
       <c r="I285">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="286" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7142,7 +7142,7 @@
         <v>3</v>
       </c>
       <c r="I286">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7171,7 +7171,7 @@
         <v>3</v>
       </c>
       <c r="I287">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7200,7 +7200,7 @@
         <v>3</v>
       </c>
       <c r="I288">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="289" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7229,7 +7229,7 @@
         <v>3</v>
       </c>
       <c r="I289">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="290" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7258,7 +7258,7 @@
         <v>3</v>
       </c>
       <c r="I290">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="291" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7287,7 +7287,7 @@
         <v>3</v>
       </c>
       <c r="I291">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="292" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7316,7 +7316,7 @@
         <v>3</v>
       </c>
       <c r="I292">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="293" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7345,7 +7345,7 @@
         <v>3</v>
       </c>
       <c r="I293">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="294" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7374,7 +7374,7 @@
         <v>3</v>
       </c>
       <c r="I294">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="295" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7403,7 +7403,7 @@
         <v>3</v>
       </c>
       <c r="I295">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="296" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7432,7 +7432,7 @@
         <v>3</v>
       </c>
       <c r="I296">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="297" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7461,7 +7461,7 @@
         <v>3</v>
       </c>
       <c r="I297">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="298" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7490,7 +7490,7 @@
         <v>3</v>
       </c>
       <c r="I298">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="299" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7519,7 +7519,7 @@
         <v>3</v>
       </c>
       <c r="I299">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="300" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7548,7 +7548,7 @@
         <v>3</v>
       </c>
       <c r="I300">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="301" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7577,7 +7577,7 @@
         <v>3</v>
       </c>
       <c r="I301">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="302" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7606,7 +7606,7 @@
         <v>3</v>
       </c>
       <c r="I302">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="303" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7635,7 +7635,7 @@
         <v>3</v>
       </c>
       <c r="I303">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="304" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7664,7 +7664,7 @@
         <v>3</v>
       </c>
       <c r="I304">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7693,7 +7693,7 @@
         <v>3</v>
       </c>
       <c r="I305">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7722,7 +7722,7 @@
         <v>3</v>
       </c>
       <c r="I306">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7751,7 +7751,7 @@
         <v>3</v>
       </c>
       <c r="I307">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7780,7 +7780,7 @@
         <v>3</v>
       </c>
       <c r="I308">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7809,7 +7809,7 @@
         <v>3</v>
       </c>
       <c r="I309">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="310" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7838,7 +7838,7 @@
         <v>3</v>
       </c>
       <c r="I310">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="311" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7867,7 +7867,7 @@
         <v>3</v>
       </c>
       <c r="I311">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7896,7 +7896,7 @@
         <v>3</v>
       </c>
       <c r="I312">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7925,7 +7925,7 @@
         <v>3</v>
       </c>
       <c r="I313">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7954,7 +7954,7 @@
         <v>3</v>
       </c>
       <c r="I314">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7983,7 +7983,7 @@
         <v>3</v>
       </c>
       <c r="I315">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8012,7 +8012,7 @@
         <v>3</v>
       </c>
       <c r="I316">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8041,7 +8041,7 @@
         <v>3</v>
       </c>
       <c r="I317">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8070,7 +8070,7 @@
         <v>3</v>
       </c>
       <c r="I318">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8099,7 +8099,7 @@
         <v>3</v>
       </c>
       <c r="I319">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8128,7 +8128,7 @@
         <v>3</v>
       </c>
       <c r="I320">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="321" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8157,7 +8157,7 @@
         <v>3</v>
       </c>
       <c r="I321">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="322" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8186,7 +8186,7 @@
         <v>3</v>
       </c>
       <c r="I322">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="323" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8215,7 +8215,7 @@
         <v>3</v>
       </c>
       <c r="I323">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="324" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8244,7 +8244,7 @@
         <v>3</v>
       </c>
       <c r="I324">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="325" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8622,7 +8622,7 @@
         <v>3</v>
       </c>
       <c r="I356">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.4">
@@ -8651,7 +8651,7 @@
         <v>3</v>
       </c>
       <c r="I357">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.4">
@@ -8680,7 +8680,7 @@
         <v>3</v>
       </c>
       <c r="I358">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.4">
@@ -8709,7 +8709,7 @@
         <v>3</v>
       </c>
       <c r="I359">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.4">
@@ -8738,7 +8738,7 @@
         <v>3</v>
       </c>
       <c r="I360">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.4">
@@ -8767,7 +8767,7 @@
         <v>3</v>
       </c>
       <c r="I361">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.4">
@@ -8796,7 +8796,7 @@
         <v>3</v>
       </c>
       <c r="I362">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.4">
@@ -8825,7 +8825,7 @@
         <v>3</v>
       </c>
       <c r="I363">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.4">
@@ -8854,7 +8854,7 @@
         <v>3</v>
       </c>
       <c r="I364">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.4">
@@ -8883,7 +8883,7 @@
         <v>3</v>
       </c>
       <c r="I365">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.4">
@@ -8912,7 +8912,7 @@
         <v>3</v>
       </c>
       <c r="I366">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.4">
@@ -8941,7 +8941,7 @@
         <v>3</v>
       </c>
       <c r="I367">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.4">
@@ -8970,7 +8970,7 @@
         <v>3</v>
       </c>
       <c r="I368">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.4">
@@ -8999,7 +8999,7 @@
         <v>3</v>
       </c>
       <c r="I369">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.4">
@@ -9028,7 +9028,7 @@
         <v>3</v>
       </c>
       <c r="I370">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.4">
@@ -9057,7 +9057,7 @@
         <v>3</v>
       </c>
       <c r="I371">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.4">
@@ -9086,7 +9086,7 @@
         <v>3</v>
       </c>
       <c r="I372">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.4">
@@ -9115,7 +9115,7 @@
         <v>3</v>
       </c>
       <c r="I373">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.4">
@@ -9144,7 +9144,7 @@
         <v>3</v>
       </c>
       <c r="I374">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.4">
@@ -9173,7 +9173,7 @@
         <v>3</v>
       </c>
       <c r="I375">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.4">
@@ -9202,7 +9202,7 @@
         <v>3</v>
       </c>
       <c r="I376">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.4">
@@ -9231,7 +9231,7 @@
         <v>3</v>
       </c>
       <c r="I377">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.4">
@@ -9260,7 +9260,7 @@
         <v>3</v>
       </c>
       <c r="I378">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.4">
@@ -9289,7 +9289,7 @@
         <v>3</v>
       </c>
       <c r="I379">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.4">
@@ -9318,7 +9318,7 @@
         <v>3</v>
       </c>
       <c r="I380">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.4">
@@ -9347,7 +9347,7 @@
         <v>3</v>
       </c>
       <c r="I381">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.4">
@@ -9376,7 +9376,7 @@
         <v>3</v>
       </c>
       <c r="I382">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.4">
@@ -9405,7 +9405,7 @@
         <v>3</v>
       </c>
       <c r="I383">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.4">
@@ -9434,7 +9434,7 @@
         <v>3</v>
       </c>
       <c r="I384">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.4">
@@ -9463,7 +9463,7 @@
         <v>3</v>
       </c>
       <c r="I385">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.4">
@@ -9492,7 +9492,7 @@
         <v>3</v>
       </c>
       <c r="I386">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.4">
@@ -9521,7 +9521,7 @@
         <v>3</v>
       </c>
       <c r="I387">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.4">
@@ -9550,7 +9550,7 @@
         <v>3</v>
       </c>
       <c r="I388">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.4">
@@ -9818,7 +9818,7 @@
         <v>3</v>
       </c>
       <c r="I410">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.4">
@@ -9847,7 +9847,7 @@
         <v>3</v>
       </c>
       <c r="I411">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.4">
@@ -9876,7 +9876,7 @@
         <v>3</v>
       </c>
       <c r="I412">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.4">
@@ -9905,7 +9905,7 @@
         <v>3</v>
       </c>
       <c r="I413">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.4">
@@ -9934,7 +9934,7 @@
         <v>3</v>
       </c>
       <c r="I414">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.4">
@@ -9963,7 +9963,7 @@
         <v>3</v>
       </c>
       <c r="I415">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.4">
@@ -9992,7 +9992,7 @@
         <v>3</v>
       </c>
       <c r="I416">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.4">
@@ -10021,7 +10021,7 @@
         <v>3</v>
       </c>
       <c r="I417">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.4">
@@ -10050,7 +10050,7 @@
         <v>3</v>
       </c>
       <c r="I418">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.4">
@@ -10079,7 +10079,7 @@
         <v>3</v>
       </c>
       <c r="I419">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.4">
@@ -10108,7 +10108,7 @@
         <v>3</v>
       </c>
       <c r="I420">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.4">
@@ -10137,7 +10137,7 @@
         <v>3</v>
       </c>
       <c r="I421">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.4">
@@ -10166,7 +10166,7 @@
         <v>3</v>
       </c>
       <c r="I422">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.4">
@@ -10195,7 +10195,7 @@
         <v>3</v>
       </c>
       <c r="I423">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.4">
@@ -10224,7 +10224,7 @@
         <v>3</v>
       </c>
       <c r="I424">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.4">
@@ -10253,7 +10253,7 @@
         <v>3</v>
       </c>
       <c r="I425">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.4">
@@ -10282,7 +10282,7 @@
         <v>3</v>
       </c>
       <c r="I426">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.4">
@@ -10311,7 +10311,7 @@
         <v>3</v>
       </c>
       <c r="I427">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.4">
@@ -10340,7 +10340,7 @@
         <v>3</v>
       </c>
       <c r="I428">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.4">
@@ -10369,7 +10369,7 @@
         <v>3</v>
       </c>
       <c r="I429">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.4">
@@ -10398,7 +10398,7 @@
         <v>3</v>
       </c>
       <c r="I430">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.4">
@@ -10427,7 +10427,7 @@
         <v>3</v>
       </c>
       <c r="I431">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.4">
@@ -10456,7 +10456,7 @@
         <v>3</v>
       </c>
       <c r="I432">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.4">
@@ -10485,7 +10485,7 @@
         <v>3</v>
       </c>
       <c r="I433">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.4">
@@ -10514,7 +10514,7 @@
         <v>3</v>
       </c>
       <c r="I434">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.4">
@@ -10543,7 +10543,7 @@
         <v>3</v>
       </c>
       <c r="I435">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.4">
@@ -10572,7 +10572,7 @@
         <v>3</v>
       </c>
       <c r="I436">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.4">
@@ -10601,7 +10601,7 @@
         <v>3</v>
       </c>
       <c r="I437">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.4">
@@ -10630,7 +10630,7 @@
         <v>3</v>
       </c>
       <c r="I438">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.4">
@@ -10659,7 +10659,7 @@
         <v>3</v>
       </c>
       <c r="I439">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.4">
@@ -10688,7 +10688,7 @@
         <v>3</v>
       </c>
       <c r="I440">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.4">
@@ -10717,7 +10717,7 @@
         <v>3</v>
       </c>
       <c r="I441">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.4">
@@ -10746,7 +10746,7 @@
         <v>3</v>
       </c>
       <c r="I442">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.4">
@@ -10775,7 +10775,7 @@
         <v>3</v>
       </c>
       <c r="I443">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.4">
@@ -10804,7 +10804,7 @@
         <v>3</v>
       </c>
       <c r="I444">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.4">
@@ -10833,7 +10833,7 @@
         <v>3</v>
       </c>
       <c r="I445">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.4">
@@ -10862,7 +10862,7 @@
         <v>3</v>
       </c>
       <c r="I446">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.4">
@@ -10891,7 +10891,7 @@
         <v>3</v>
       </c>
       <c r="I447">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.4">
@@ -10920,7 +10920,7 @@
         <v>3</v>
       </c>
       <c r="I448">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.4">
@@ -10949,7 +10949,7 @@
         <v>3</v>
       </c>
       <c r="I449">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.4">
@@ -11036,7 +11036,7 @@
         <v>3</v>
       </c>
       <c r="I452">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.4">
@@ -11065,7 +11065,7 @@
         <v>3</v>
       </c>
       <c r="I453">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.4">
@@ -11094,7 +11094,7 @@
         <v>3</v>
       </c>
       <c r="I454">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.4">
@@ -11123,7 +11123,7 @@
         <v>3</v>
       </c>
       <c r="I455">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.4">
@@ -11152,7 +11152,7 @@
         <v>3</v>
       </c>
       <c r="I456">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.4">
@@ -11181,7 +11181,7 @@
         <v>3</v>
       </c>
       <c r="I457">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.4">
@@ -11210,7 +11210,7 @@
         <v>3</v>
       </c>
       <c r="I458">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.4">
@@ -11239,7 +11239,7 @@
         <v>3</v>
       </c>
       <c r="I459">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.4">
@@ -11268,7 +11268,7 @@
         <v>3</v>
       </c>
       <c r="I460">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.4">
@@ -11297,7 +11297,7 @@
         <v>3</v>
       </c>
       <c r="I461">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.4">
@@ -11326,7 +11326,7 @@
         <v>3</v>
       </c>
       <c r="I462">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.4">
@@ -11355,7 +11355,7 @@
         <v>3</v>
       </c>
       <c r="I463">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.4">
@@ -11384,7 +11384,7 @@
         <v>3</v>
       </c>
       <c r="I464">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.4">
@@ -11682,7 +11682,7 @@
         <v>3</v>
       </c>
       <c r="I492">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.4">
@@ -11711,7 +11711,7 @@
         <v>3</v>
       </c>
       <c r="I493">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.4">
@@ -11740,7 +11740,7 @@
         <v>3</v>
       </c>
       <c r="I494">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.4">
@@ -11769,7 +11769,7 @@
         <v>3</v>
       </c>
       <c r="I495">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.4">
@@ -11798,7 +11798,7 @@
         <v>3</v>
       </c>
       <c r="I496">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.4">
@@ -11827,7 +11827,7 @@
         <v>3</v>
       </c>
       <c r="I497">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.4">
@@ -11856,7 +11856,7 @@
         <v>3</v>
       </c>
       <c r="I498">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.4">
@@ -11885,7 +11885,7 @@
         <v>3</v>
       </c>
       <c r="I499">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="500" spans="1:9" x14ac:dyDescent="0.4">
@@ -11914,7 +11914,7 @@
         <v>3</v>
       </c>
       <c r="I500">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.4">
@@ -11943,7 +11943,7 @@
         <v>3</v>
       </c>
       <c r="I501">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.4">
@@ -11972,7 +11972,7 @@
         <v>3</v>
       </c>
       <c r="I502">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="503" spans="1:9" x14ac:dyDescent="0.4">
@@ -12001,7 +12001,7 @@
         <v>3</v>
       </c>
       <c r="I503">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="504" spans="1:9" x14ac:dyDescent="0.4">
@@ -12030,7 +12030,7 @@
         <v>3</v>
       </c>
       <c r="I504">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="505" spans="1:9" x14ac:dyDescent="0.4">
@@ -12059,7 +12059,7 @@
         <v>3</v>
       </c>
       <c r="I505">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="506" spans="1:9" x14ac:dyDescent="0.4">
@@ -12088,7 +12088,7 @@
         <v>3</v>
       </c>
       <c r="I506">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="507" spans="1:9" x14ac:dyDescent="0.4">
@@ -12117,7 +12117,7 @@
         <v>3</v>
       </c>
       <c r="I507">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="508" spans="1:9" x14ac:dyDescent="0.4">
@@ -12146,7 +12146,7 @@
         <v>3</v>
       </c>
       <c r="I508">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="509" spans="1:9" x14ac:dyDescent="0.4">
@@ -12175,7 +12175,7 @@
         <v>3</v>
       </c>
       <c r="I509">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="510" spans="1:9" x14ac:dyDescent="0.4">
@@ -12204,7 +12204,7 @@
         <v>3</v>
       </c>
       <c r="I510">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="511" spans="1:9" x14ac:dyDescent="0.4">
@@ -12233,7 +12233,7 @@
         <v>3</v>
       </c>
       <c r="I511">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="512" spans="1:9" x14ac:dyDescent="0.4">
@@ -12262,7 +12262,7 @@
         <v>3</v>
       </c>
       <c r="I512">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="513" spans="1:9" x14ac:dyDescent="0.4">
@@ -12291,7 +12291,7 @@
         <v>3</v>
       </c>
       <c r="I513">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="514" spans="1:9" x14ac:dyDescent="0.4">
@@ -12320,7 +12320,7 @@
         <v>3</v>
       </c>
       <c r="I514">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="515" spans="1:9" x14ac:dyDescent="0.4">
@@ -12349,7 +12349,7 @@
         <v>3</v>
       </c>
       <c r="I515">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="516" spans="1:9" x14ac:dyDescent="0.4">
@@ -12378,7 +12378,7 @@
         <v>3</v>
       </c>
       <c r="I516">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="517" spans="1:9" x14ac:dyDescent="0.4">
@@ -12407,7 +12407,7 @@
         <v>3</v>
       </c>
       <c r="I517">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="518" spans="1:9" x14ac:dyDescent="0.4">
@@ -12436,7 +12436,7 @@
         <v>3</v>
       </c>
       <c r="I518">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="519" spans="1:9" x14ac:dyDescent="0.4">
@@ -12465,7 +12465,7 @@
         <v>3</v>
       </c>
       <c r="I519">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="520" spans="1:9" x14ac:dyDescent="0.4">
@@ -12494,7 +12494,7 @@
         <v>3</v>
       </c>
       <c r="I520">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="521" spans="1:9" x14ac:dyDescent="0.4">
@@ -12523,7 +12523,7 @@
         <v>3</v>
       </c>
       <c r="I521">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="522" spans="1:9" x14ac:dyDescent="0.4">
@@ -12552,7 +12552,7 @@
         <v>3</v>
       </c>
       <c r="I522">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="523" spans="1:9" x14ac:dyDescent="0.4">
@@ -12581,7 +12581,7 @@
         <v>3</v>
       </c>
       <c r="I523">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="524" spans="1:9" x14ac:dyDescent="0.4">
@@ -12610,7 +12610,7 @@
         <v>3</v>
       </c>
       <c r="I524">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="525" spans="1:9" x14ac:dyDescent="0.4">
@@ -12639,7 +12639,7 @@
         <v>3</v>
       </c>
       <c r="I525">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="526" spans="1:9" x14ac:dyDescent="0.4">
@@ -12668,7 +12668,7 @@
         <v>3</v>
       </c>
       <c r="I526">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="527" spans="1:9" x14ac:dyDescent="0.4">
@@ -12697,7 +12697,7 @@
         <v>3</v>
       </c>
       <c r="I527">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="528" spans="1:9" x14ac:dyDescent="0.4">
@@ -12726,7 +12726,7 @@
         <v>3</v>
       </c>
       <c r="I528">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="529" spans="1:9" x14ac:dyDescent="0.4">
@@ -12755,7 +12755,7 @@
         <v>3</v>
       </c>
       <c r="I529">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="530" spans="1:9" x14ac:dyDescent="0.4">
@@ -12784,7 +12784,7 @@
         <v>3</v>
       </c>
       <c r="I530">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="531" spans="1:9" x14ac:dyDescent="0.4">
@@ -12813,7 +12813,7 @@
         <v>3</v>
       </c>
       <c r="I531">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="532" spans="1:9" x14ac:dyDescent="0.4">
@@ -12842,7 +12842,7 @@
         <v>3</v>
       </c>
       <c r="I532">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="533" spans="1:9" x14ac:dyDescent="0.4">
@@ -12871,7 +12871,7 @@
         <v>3</v>
       </c>
       <c r="I533">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="534" spans="1:9" x14ac:dyDescent="0.4">
@@ -12900,7 +12900,7 @@
         <v>3</v>
       </c>
       <c r="I534">
-        <v>6</v>
+        <v>99</v>
       </c>
     </row>
     <row r="535" spans="1:9" x14ac:dyDescent="0.4">
@@ -12929,7 +12929,7 @@
         <v>3</v>
       </c>
       <c r="I535">
-        <v>6</v>
+        <v>99</v>
       </c>
     </row>
     <row r="537" spans="1:9" x14ac:dyDescent="0.4">
@@ -13306,7 +13306,7 @@
         <v>3</v>
       </c>
       <c r="I562">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="563" spans="1:9" x14ac:dyDescent="0.4">
@@ -13335,7 +13335,7 @@
         <v>3</v>
       </c>
       <c r="I563">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="564" spans="1:9" x14ac:dyDescent="0.4">
@@ -13364,7 +13364,7 @@
         <v>3</v>
       </c>
       <c r="I564">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="565" spans="1:9" x14ac:dyDescent="0.4">
@@ -13393,7 +13393,7 @@
         <v>3</v>
       </c>
       <c r="I565">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="566" spans="1:9" x14ac:dyDescent="0.4">
@@ -13422,7 +13422,7 @@
         <v>3</v>
       </c>
       <c r="I566">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="567" spans="1:9" x14ac:dyDescent="0.4">
@@ -13451,7 +13451,7 @@
         <v>3</v>
       </c>
       <c r="I567">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="568" spans="1:9" x14ac:dyDescent="0.4">
@@ -13480,7 +13480,7 @@
         <v>3</v>
       </c>
       <c r="I568">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="569" spans="1:9" x14ac:dyDescent="0.4">
@@ -13509,7 +13509,7 @@
         <v>3</v>
       </c>
       <c r="I569">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="570" spans="1:9" x14ac:dyDescent="0.4">
@@ -13538,7 +13538,7 @@
         <v>3</v>
       </c>
       <c r="I570">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="571" spans="1:9" x14ac:dyDescent="0.4">
@@ -13567,7 +13567,7 @@
         <v>3</v>
       </c>
       <c r="I571">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="572" spans="1:9" x14ac:dyDescent="0.4">
@@ -13596,7 +13596,7 @@
         <v>3</v>
       </c>
       <c r="I572">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="573" spans="1:9" x14ac:dyDescent="0.4">
@@ -13625,7 +13625,7 @@
         <v>3</v>
       </c>
       <c r="I573">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="574" spans="1:9" x14ac:dyDescent="0.4">
@@ -13654,7 +13654,7 @@
         <v>3</v>
       </c>
       <c r="I574">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="575" spans="1:9" x14ac:dyDescent="0.4">
@@ -13683,7 +13683,7 @@
         <v>3</v>
       </c>
       <c r="I575">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="576" spans="1:9" x14ac:dyDescent="0.4">
@@ -13712,7 +13712,7 @@
         <v>3</v>
       </c>
       <c r="I576">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="577" spans="1:9" x14ac:dyDescent="0.4">
@@ -13741,7 +13741,7 @@
         <v>3</v>
       </c>
       <c r="I577">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="578" spans="1:9" x14ac:dyDescent="0.4">
@@ -13770,7 +13770,7 @@
         <v>3</v>
       </c>
       <c r="I578">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="579" spans="1:9" x14ac:dyDescent="0.4">
@@ -13799,7 +13799,7 @@
         <v>3</v>
       </c>
       <c r="I579">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="580" spans="1:9" x14ac:dyDescent="0.4">
@@ -13828,7 +13828,7 @@
         <v>3</v>
       </c>
       <c r="I580">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="581" spans="1:9" x14ac:dyDescent="0.4">
@@ -13857,7 +13857,7 @@
         <v>3</v>
       </c>
       <c r="I581">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="582" spans="1:9" x14ac:dyDescent="0.4">
@@ -13886,7 +13886,7 @@
         <v>3</v>
       </c>
       <c r="I582">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="583" spans="1:9" x14ac:dyDescent="0.4">
@@ -13915,7 +13915,7 @@
         <v>3</v>
       </c>
       <c r="I583">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="584" spans="1:9" x14ac:dyDescent="0.4">
@@ -13944,7 +13944,7 @@
         <v>3</v>
       </c>
       <c r="I584">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="585" spans="1:9" x14ac:dyDescent="0.4">
@@ -13973,7 +13973,7 @@
         <v>3</v>
       </c>
       <c r="I585">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="586" spans="1:9" x14ac:dyDescent="0.4">
@@ -14002,7 +14002,7 @@
         <v>3</v>
       </c>
       <c r="I586">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="587" spans="1:9" x14ac:dyDescent="0.4">
@@ -14031,7 +14031,7 @@
         <v>3</v>
       </c>
       <c r="I587">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="588" spans="1:9" x14ac:dyDescent="0.4">
@@ -14060,7 +14060,7 @@
         <v>3</v>
       </c>
       <c r="I588">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="589" spans="1:9" x14ac:dyDescent="0.4">
@@ -14089,7 +14089,7 @@
         <v>3</v>
       </c>
       <c r="I589">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="590" spans="1:9" x14ac:dyDescent="0.4">
@@ -14118,7 +14118,7 @@
         <v>3</v>
       </c>
       <c r="I590">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="591" spans="1:9" x14ac:dyDescent="0.4">
@@ -14147,7 +14147,7 @@
         <v>3</v>
       </c>
       <c r="I591">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="592" spans="1:9" x14ac:dyDescent="0.4">
@@ -14176,7 +14176,7 @@
         <v>3</v>
       </c>
       <c r="I592">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="593" spans="1:9" x14ac:dyDescent="0.4">
@@ -14205,7 +14205,7 @@
         <v>3</v>
       </c>
       <c r="I593">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="594" spans="1:9" x14ac:dyDescent="0.4">
@@ -14234,7 +14234,7 @@
         <v>3</v>
       </c>
       <c r="I594">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="595" spans="1:9" x14ac:dyDescent="0.4">
@@ -14263,7 +14263,7 @@
         <v>3</v>
       </c>
       <c r="I595">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="596" spans="1:9" x14ac:dyDescent="0.4">
@@ -14292,7 +14292,7 @@
         <v>3</v>
       </c>
       <c r="I596">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="597" spans="1:9" x14ac:dyDescent="0.4">
@@ -14321,7 +14321,7 @@
         <v>3</v>
       </c>
       <c r="I597">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="598" spans="1:9" x14ac:dyDescent="0.4">
@@ -14350,7 +14350,7 @@
         <v>3</v>
       </c>
       <c r="I598">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="599" spans="1:9" x14ac:dyDescent="0.4">
@@ -14379,7 +14379,7 @@
         <v>3</v>
       </c>
       <c r="I599">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="600" spans="1:9" x14ac:dyDescent="0.4">
@@ -14408,7 +14408,7 @@
         <v>3</v>
       </c>
       <c r="I600">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="601" spans="1:9" x14ac:dyDescent="0.4">
@@ -14437,7 +14437,7 @@
         <v>3</v>
       </c>
       <c r="I601">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="602" spans="1:9" x14ac:dyDescent="0.4">
@@ -14466,7 +14466,7 @@
         <v>3</v>
       </c>
       <c r="I602">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="603" spans="1:9" x14ac:dyDescent="0.4">
@@ -14495,7 +14495,7 @@
         <v>3</v>
       </c>
       <c r="I603">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="604" spans="1:9" x14ac:dyDescent="0.4">
@@ -14524,7 +14524,7 @@
         <v>3</v>
       </c>
       <c r="I604">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="605" spans="1:9" x14ac:dyDescent="0.4">
@@ -14553,7 +14553,7 @@
         <v>3</v>
       </c>
       <c r="I605">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="606" spans="1:9" x14ac:dyDescent="0.4">
@@ -14582,7 +14582,7 @@
         <v>3</v>
       </c>
       <c r="I606">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="607" spans="1:9" x14ac:dyDescent="0.4">
@@ -14611,7 +14611,7 @@
         <v>3</v>
       </c>
       <c r="I607">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="608" spans="1:9" x14ac:dyDescent="0.4">
@@ -14640,7 +14640,7 @@
         <v>3</v>
       </c>
       <c r="I608">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="609" spans="1:9" x14ac:dyDescent="0.4">
@@ -14669,7 +14669,7 @@
         <v>3</v>
       </c>
       <c r="I609">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="610" spans="1:9" x14ac:dyDescent="0.4">
@@ -14930,7 +14930,7 @@
         <v>3</v>
       </c>
       <c r="I632">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:9" x14ac:dyDescent="0.4">
@@ -14959,7 +14959,7 @@
         <v>3</v>
       </c>
       <c r="I633">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:9" x14ac:dyDescent="0.4">
@@ -14988,7 +14988,7 @@
         <v>3</v>
       </c>
       <c r="I634">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:9" x14ac:dyDescent="0.4">
@@ -15017,7 +15017,7 @@
         <v>3</v>
       </c>
       <c r="I635">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:9" x14ac:dyDescent="0.4">
@@ -15046,7 +15046,7 @@
         <v>3</v>
       </c>
       <c r="I636">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:9" x14ac:dyDescent="0.4">
@@ -15075,7 +15075,7 @@
         <v>3</v>
       </c>
       <c r="I637">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="638" spans="1:9" x14ac:dyDescent="0.4">
@@ -15104,7 +15104,7 @@
         <v>3</v>
       </c>
       <c r="I638">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="639" spans="1:9" x14ac:dyDescent="0.4">
@@ -15133,7 +15133,7 @@
         <v>3</v>
       </c>
       <c r="I639">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="640" spans="1:9" x14ac:dyDescent="0.4">
@@ -15162,7 +15162,7 @@
         <v>3</v>
       </c>
       <c r="I640">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="641" spans="1:9" x14ac:dyDescent="0.4">
@@ -15191,7 +15191,7 @@
         <v>3</v>
       </c>
       <c r="I641">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="642" spans="1:9" x14ac:dyDescent="0.4">
@@ -15220,7 +15220,7 @@
         <v>3</v>
       </c>
       <c r="I642">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="643" spans="1:9" x14ac:dyDescent="0.4">
@@ -15249,7 +15249,7 @@
         <v>3</v>
       </c>
       <c r="I643">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="644" spans="1:9" x14ac:dyDescent="0.4">
@@ -15278,7 +15278,7 @@
         <v>3</v>
       </c>
       <c r="I644">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="645" spans="1:9" x14ac:dyDescent="0.4">
@@ -15307,7 +15307,7 @@
         <v>3</v>
       </c>
       <c r="I645">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="646" spans="1:9" x14ac:dyDescent="0.4">
@@ -15336,7 +15336,7 @@
         <v>3</v>
       </c>
       <c r="I646">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="647" spans="1:9" x14ac:dyDescent="0.4">
@@ -15365,7 +15365,7 @@
         <v>3</v>
       </c>
       <c r="I647">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="648" spans="1:9" x14ac:dyDescent="0.4">
@@ -15394,7 +15394,7 @@
         <v>3</v>
       </c>
       <c r="I648">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="649" spans="1:9" x14ac:dyDescent="0.4">
@@ -15423,7 +15423,7 @@
         <v>3</v>
       </c>
       <c r="I649">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="650" spans="1:9" x14ac:dyDescent="0.4">
@@ -15452,7 +15452,7 @@
         <v>3</v>
       </c>
       <c r="I650">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="651" spans="1:9" x14ac:dyDescent="0.4">
@@ -15481,7 +15481,7 @@
         <v>3</v>
       </c>
       <c r="I651">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="652" spans="1:9" x14ac:dyDescent="0.4">
@@ -15510,7 +15510,7 @@
         <v>3</v>
       </c>
       <c r="I652">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="653" spans="1:9" x14ac:dyDescent="0.4">
@@ -15539,7 +15539,7 @@
         <v>3</v>
       </c>
       <c r="I653">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="654" spans="1:9" x14ac:dyDescent="0.4">
@@ -15568,7 +15568,7 @@
         <v>3</v>
       </c>
       <c r="I654">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="655" spans="1:9" x14ac:dyDescent="0.4">
@@ -15597,7 +15597,7 @@
         <v>3</v>
       </c>
       <c r="I655">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="656" spans="1:9" x14ac:dyDescent="0.4">
@@ -15626,7 +15626,7 @@
         <v>3</v>
       </c>
       <c r="I656">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="657" spans="1:9" x14ac:dyDescent="0.4">
@@ -15655,7 +15655,7 @@
         <v>3</v>
       </c>
       <c r="I657">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="658" spans="1:9" x14ac:dyDescent="0.4">
@@ -15684,7 +15684,7 @@
         <v>3</v>
       </c>
       <c r="I658">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="659" spans="1:9" x14ac:dyDescent="0.4">
@@ -15713,7 +15713,7 @@
         <v>3</v>
       </c>
       <c r="I659">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="660" spans="1:9" x14ac:dyDescent="0.4">
@@ -15742,7 +15742,7 @@
         <v>3</v>
       </c>
       <c r="I660">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="661" spans="1:9" x14ac:dyDescent="0.4">
@@ -15771,7 +15771,7 @@
         <v>3</v>
       </c>
       <c r="I661">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="662" spans="1:9" x14ac:dyDescent="0.4">
@@ -15800,7 +15800,7 @@
         <v>3</v>
       </c>
       <c r="I662">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="663" spans="1:9" x14ac:dyDescent="0.4">
@@ -15829,7 +15829,7 @@
         <v>3</v>
       </c>
       <c r="I663">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="664" spans="1:9" x14ac:dyDescent="0.4">
@@ -15858,7 +15858,7 @@
         <v>3</v>
       </c>
       <c r="I664">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="665" spans="1:9" x14ac:dyDescent="0.4">
@@ -15887,7 +15887,7 @@
         <v>3</v>
       </c>
       <c r="I665">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="666" spans="1:9" x14ac:dyDescent="0.4">
@@ -15916,7 +15916,7 @@
         <v>3</v>
       </c>
       <c r="I666">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="667" spans="1:9" x14ac:dyDescent="0.4">
@@ -15945,7 +15945,7 @@
         <v>3</v>
       </c>
       <c r="I667">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="668" spans="1:9" x14ac:dyDescent="0.4">
@@ -15974,7 +15974,7 @@
         <v>3</v>
       </c>
       <c r="I668">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="669" spans="1:9" x14ac:dyDescent="0.4">
@@ -16003,7 +16003,7 @@
         <v>3</v>
       </c>
       <c r="I669">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="670" spans="1:9" x14ac:dyDescent="0.4">
@@ -16032,7 +16032,7 @@
         <v>3</v>
       </c>
       <c r="I670">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="671" spans="1:9" x14ac:dyDescent="0.4">
@@ -16061,7 +16061,7 @@
         <v>3</v>
       </c>
       <c r="I671">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="672" spans="1:9" x14ac:dyDescent="0.4">
@@ -16090,7 +16090,7 @@
         <v>3</v>
       </c>
       <c r="I672">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="673" spans="1:9" x14ac:dyDescent="0.4">
@@ -16119,7 +16119,7 @@
         <v>3</v>
       </c>
       <c r="I673">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="674" spans="1:9" x14ac:dyDescent="0.4">
@@ -16148,7 +16148,7 @@
         <v>3</v>
       </c>
       <c r="I674">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="675" spans="1:9" x14ac:dyDescent="0.4">
@@ -16177,7 +16177,7 @@
         <v>3</v>
       </c>
       <c r="I675">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="676" spans="1:9" x14ac:dyDescent="0.4">
@@ -16206,7 +16206,7 @@
         <v>3</v>
       </c>
       <c r="I676">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="677" spans="1:9" x14ac:dyDescent="0.4">
@@ -16235,7 +16235,7 @@
         <v>3</v>
       </c>
       <c r="I677">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="678" spans="1:9" x14ac:dyDescent="0.4">
@@ -16264,7 +16264,7 @@
         <v>3</v>
       </c>
       <c r="I678">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="679" spans="1:9" x14ac:dyDescent="0.4">
@@ -16293,7 +16293,7 @@
         <v>3</v>
       </c>
       <c r="I679">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="680" spans="1:9" x14ac:dyDescent="0.4">
@@ -16322,7 +16322,7 @@
         <v>3</v>
       </c>
       <c r="I680">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="681" spans="1:9" x14ac:dyDescent="0.4">
@@ -16554,7 +16554,7 @@
         <v>3</v>
       </c>
       <c r="I703">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:9" x14ac:dyDescent="0.4">
@@ -16583,7 +16583,7 @@
         <v>3</v>
       </c>
       <c r="I704">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:9" x14ac:dyDescent="0.4">
@@ -16612,7 +16612,7 @@
         <v>3</v>
       </c>
       <c r="I705">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:9" x14ac:dyDescent="0.4">
@@ -16641,7 +16641,7 @@
         <v>3</v>
       </c>
       <c r="I706">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:9" x14ac:dyDescent="0.4">
@@ -16670,7 +16670,7 @@
         <v>3</v>
       </c>
       <c r="I707">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:9" x14ac:dyDescent="0.4">
@@ -16699,7 +16699,7 @@
         <v>3</v>
       </c>
       <c r="I708">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:9" x14ac:dyDescent="0.4">
@@ -16728,7 +16728,7 @@
         <v>3</v>
       </c>
       <c r="I709">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:9" x14ac:dyDescent="0.4">
@@ -16757,7 +16757,7 @@
         <v>3</v>
       </c>
       <c r="I710">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:9" x14ac:dyDescent="0.4">
@@ -16786,7 +16786,7 @@
         <v>3</v>
       </c>
       <c r="I711">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:9" x14ac:dyDescent="0.4">
@@ -16815,7 +16815,7 @@
         <v>3</v>
       </c>
       <c r="I712">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:9" x14ac:dyDescent="0.4">
@@ -16844,7 +16844,7 @@
         <v>3</v>
       </c>
       <c r="I713">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:9" x14ac:dyDescent="0.4">
@@ -16873,7 +16873,7 @@
         <v>3</v>
       </c>
       <c r="I714">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:9" x14ac:dyDescent="0.4">
@@ -16902,7 +16902,7 @@
         <v>3</v>
       </c>
       <c r="I715">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:9" x14ac:dyDescent="0.4">
@@ -16931,7 +16931,7 @@
         <v>3</v>
       </c>
       <c r="I716">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:9" x14ac:dyDescent="0.4">
@@ -16960,7 +16960,7 @@
         <v>3</v>
       </c>
       <c r="I717">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:9" x14ac:dyDescent="0.4">
@@ -16989,7 +16989,7 @@
         <v>3</v>
       </c>
       <c r="I718">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:9" x14ac:dyDescent="0.4">
@@ -17018,7 +17018,7 @@
         <v>3</v>
       </c>
       <c r="I719">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:9" x14ac:dyDescent="0.4">
@@ -17047,7 +17047,7 @@
         <v>3</v>
       </c>
       <c r="I720">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:9" x14ac:dyDescent="0.4">
@@ -17076,7 +17076,7 @@
         <v>3</v>
       </c>
       <c r="I721">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:9" x14ac:dyDescent="0.4">
@@ -17105,7 +17105,7 @@
         <v>3</v>
       </c>
       <c r="I722">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:9" x14ac:dyDescent="0.4">
@@ -17134,7 +17134,7 @@
         <v>3</v>
       </c>
       <c r="I723">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:9" x14ac:dyDescent="0.4">
@@ -17163,7 +17163,7 @@
         <v>3</v>
       </c>
       <c r="I724">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:9" x14ac:dyDescent="0.4">
@@ -17192,7 +17192,7 @@
         <v>3</v>
       </c>
       <c r="I725">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:9" x14ac:dyDescent="0.4">
@@ -17221,7 +17221,7 @@
         <v>3</v>
       </c>
       <c r="I726">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:9" x14ac:dyDescent="0.4">
@@ -17250,7 +17250,7 @@
         <v>3</v>
       </c>
       <c r="I727">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:9" x14ac:dyDescent="0.4">
@@ -17279,7 +17279,7 @@
         <v>3</v>
       </c>
       <c r="I728">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:9" x14ac:dyDescent="0.4">
@@ -17308,7 +17308,7 @@
         <v>3</v>
       </c>
       <c r="I729">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:9" x14ac:dyDescent="0.4">
@@ -17337,7 +17337,7 @@
         <v>3</v>
       </c>
       <c r="I730">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:9" x14ac:dyDescent="0.4">
@@ -17366,7 +17366,7 @@
         <v>3</v>
       </c>
       <c r="I731">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:9" x14ac:dyDescent="0.4">
@@ -17395,7 +17395,7 @@
         <v>3</v>
       </c>
       <c r="I732">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:9" x14ac:dyDescent="0.4">
@@ -17424,7 +17424,7 @@
         <v>3</v>
       </c>
       <c r="I733">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:9" x14ac:dyDescent="0.4">
@@ -17453,7 +17453,7 @@
         <v>3</v>
       </c>
       <c r="I734">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:9" x14ac:dyDescent="0.4">
@@ -17482,7 +17482,7 @@
         <v>3</v>
       </c>
       <c r="I735">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:9" x14ac:dyDescent="0.4">
@@ -17511,7 +17511,7 @@
         <v>3</v>
       </c>
       <c r="I736">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:9" x14ac:dyDescent="0.4">
@@ -17540,7 +17540,7 @@
         <v>3</v>
       </c>
       <c r="I737">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:9" x14ac:dyDescent="0.4">
@@ -17569,7 +17569,7 @@
         <v>3</v>
       </c>
       <c r="I738">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:9" x14ac:dyDescent="0.4">
@@ -17598,7 +17598,7 @@
         <v>3</v>
       </c>
       <c r="I739">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:9" x14ac:dyDescent="0.4">
@@ -17627,7 +17627,7 @@
         <v>3</v>
       </c>
       <c r="I740">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:9" x14ac:dyDescent="0.4">
@@ -17656,7 +17656,7 @@
         <v>3</v>
       </c>
       <c r="I741">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:9" x14ac:dyDescent="0.4">
@@ -17685,7 +17685,7 @@
         <v>3</v>
       </c>
       <c r="I742">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:9" x14ac:dyDescent="0.4">
@@ -17714,7 +17714,7 @@
         <v>3</v>
       </c>
       <c r="I743">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:9" x14ac:dyDescent="0.4">
@@ -17743,7 +17743,7 @@
         <v>3</v>
       </c>
       <c r="I744">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:9" x14ac:dyDescent="0.4">
@@ -17772,7 +17772,7 @@
         <v>3</v>
       </c>
       <c r="I745">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:9" x14ac:dyDescent="0.4">
@@ -17801,7 +17801,7 @@
         <v>3</v>
       </c>
       <c r="I746">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:9" x14ac:dyDescent="0.4">
@@ -17830,7 +17830,7 @@
         <v>3</v>
       </c>
       <c r="I747">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:9" x14ac:dyDescent="0.4">
@@ -17859,7 +17859,7 @@
         <v>3</v>
       </c>
       <c r="I748">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:9" x14ac:dyDescent="0.4">
@@ -17888,7 +17888,7 @@
         <v>3</v>
       </c>
       <c r="I749">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:9" x14ac:dyDescent="0.4">
@@ -17917,7 +17917,7 @@
         <v>3</v>
       </c>
       <c r="I750">
-        <v>7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.4">

--- a/06_납품현황/2017/04_부산용홈만w몰/02_SerialNumber/CCM2_USM_LGM_SerialNumber.xlsx
+++ b/06_납품현황/2017/04_부산용홈만w몰/02_SerialNumber/CCM2_USM_LGM_SerialNumber.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GUI\02_PGS\06_납품현황\2017\04_부산용홈만w몰\02_SerialNumber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\02_PGS\06_납품현황\2017\04_부산용홈만w몰\02_SerialNumber\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -402,45 +402,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I765"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A692" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I750" sqref="I750"/>
+    <sheetView tabSelected="1" topLeftCell="A605" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B471" sqref="B471"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="1"/>
-    <col min="2" max="2" width="12.09765625" style="2" customWidth="1"/>
-    <col min="4" max="6" width="8.796875" style="1"/>
-    <col min="7" max="8" width="8.796875" style="3"/>
-    <col min="11" max="11" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.78515625" style="1"/>
+    <col min="2" max="2" width="12.0703125" style="2" customWidth="1"/>
+    <col min="4" max="6" width="8.78515625" style="1"/>
+    <col min="7" max="8" width="8.78515625" style="3"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -469,7 +469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -498,7 +498,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -527,7 +527,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -556,7 +556,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -585,7 +585,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -614,7 +614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -643,7 +643,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -672,7 +672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -701,7 +701,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -730,7 +730,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -759,7 +759,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -788,7 +788,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -817,7 +817,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -846,7 +846,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -875,7 +875,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -904,7 +904,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -933,7 +933,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -962,7 +962,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -991,7 +991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -1774,12 +1774,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>129</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>130</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>131</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>132</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>133</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>134</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>135</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>136</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>137</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>138</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>139</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>140</v>
       </c>
@@ -1911,22 +1911,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>2</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>3</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>4</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>5</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1">
         <v>6</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1">
         <v>7</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1">
         <v>8</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>9</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
         <v>10</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
         <v>11</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
         <v>12</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
         <v>13</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>14</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>15</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>16</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>17</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
         <v>18</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
         <v>19</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
         <v>20</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>21</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
         <v>22</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
         <v>23</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
         <v>24</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
         <v>25</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
         <v>26</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
         <v>27</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1">
         <v>28</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1">
         <v>29</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1">
         <v>30</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1">
         <v>31</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1">
         <v>32</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1">
         <v>33</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1">
         <v>34</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1">
         <v>35</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1">
         <v>36</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1">
         <v>37</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1">
         <v>38</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
         <v>39</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
         <v>40</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
         <v>41</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
         <v>42</v>
       </c>
@@ -3144,12 +3144,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
         <v>129</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
         <v>130</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1">
         <v>131</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
         <v>132</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
         <v>133</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1">
         <v>134</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1">
         <v>135</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1">
         <v>136</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1">
         <v>137</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1">
         <v>138</v>
       </c>
@@ -3259,22 +3259,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1">
         <v>1</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1">
         <v>2</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1">
         <v>3</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1">
         <v>4</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1">
         <v>5</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1">
         <v>6</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1">
         <v>7</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1">
         <v>8</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1">
         <v>9</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
         <v>10</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1">
         <v>11</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1">
         <v>12</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1">
         <v>13</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1">
         <v>14</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1">
         <v>15</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1">
         <v>16</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1">
         <v>17</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1">
         <v>18</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1">
         <v>19</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1">
         <v>20</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1">
         <v>21</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1">
         <v>22</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1">
         <v>23</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1">
         <v>24</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1">
         <v>25</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1">
         <v>26</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1">
         <v>27</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1">
         <v>28</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1">
         <v>29</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1">
         <v>30</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1">
         <v>31</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1">
         <v>32</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1">
         <v>33</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1">
         <v>34</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1">
         <v>35</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1">
         <v>36</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1">
         <v>37</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1">
         <v>38</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1">
         <v>39</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1">
         <v>40</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1">
         <v>41</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1">
         <v>42</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1">
         <v>43</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1">
         <v>44</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1">
         <v>45</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1">
         <v>46</v>
       </c>
@@ -4608,12 +4608,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1">
         <v>129</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1">
         <v>130</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1">
         <v>131</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1">
         <v>132</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1">
         <v>133</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1">
         <v>134</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1">
         <v>135</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1">
         <v>136</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1">
         <v>137</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1">
         <v>138</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1">
         <v>139</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1">
         <v>140</v>
       </c>
@@ -4745,22 +4745,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1">
         <v>1</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1">
         <v>2</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1">
         <v>3</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1">
         <v>4</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1">
         <v>5</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1">
         <v>6</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1">
         <v>7</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1">
         <v>8</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1">
         <v>9</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1">
         <v>10</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1">
         <v>11</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="1">
         <v>12</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="1">
         <v>13</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="1">
         <v>14</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1">
         <v>15</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1">
         <v>16</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1">
         <v>17</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="1">
         <v>18</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="1">
         <v>19</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="1">
         <v>20</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="1">
         <v>21</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="1">
         <v>22</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="1">
         <v>23</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="1">
         <v>24</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="1">
         <v>25</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="1">
         <v>26</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="1">
         <v>27</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="1">
         <v>28</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="1">
         <v>29</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="1">
         <v>30</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="1">
         <v>31</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="1">
         <v>32</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="1">
         <v>33</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1">
         <v>34</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1">
         <v>35</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="1">
         <v>36</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="1">
         <v>37</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="1">
         <v>38</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="1">
         <v>39</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="1">
         <v>40</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="1">
         <v>41</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="1">
         <v>42</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="1">
         <v>43</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1">
         <v>44</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1">
         <v>45</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1">
         <v>46</v>
       </c>
@@ -6094,12 +6094,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="1">
         <v>129</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="1">
         <v>130</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="1">
         <v>131</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1">
         <v>132</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1">
         <v>133</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1">
         <v>134</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1">
         <v>135</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="1">
         <v>136</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="1">
         <v>137</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="1">
         <v>138</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="1">
         <v>139</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="1">
         <v>140</v>
       </c>
@@ -6231,22 +6231,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="1">
         <v>1</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="1">
         <v>2</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="1">
         <v>3</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="1">
         <v>4</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="1">
         <v>5</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="1">
         <v>6</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="1">
         <v>7</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="1">
         <v>8</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="1">
         <v>9</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="1">
         <v>10</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="1">
         <v>11</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="1">
         <v>12</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="1">
         <v>13</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="1">
         <v>14</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="1">
         <v>15</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="1">
         <v>16</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="1">
         <v>17</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="1">
         <v>18</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="1">
         <v>19</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="1">
         <v>20</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="1">
         <v>21</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="1">
         <v>22</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="1">
         <v>23</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="1">
         <v>24</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="1">
         <v>25</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="1">
         <v>26</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="1">
         <v>27</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="1">
         <v>28</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="1">
         <v>29</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="1">
         <v>30</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="1">
         <v>31</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="1">
         <v>32</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="1">
         <v>33</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="289" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="1">
         <v>34</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="1">
         <v>35</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="1">
         <v>36</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="1">
         <v>37</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="1">
         <v>38</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="1">
         <v>39</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="1">
         <v>40</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="1">
         <v>41</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="1">
         <v>42</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="298" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="1">
         <v>43</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="1">
         <v>44</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="1">
         <v>45</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="1">
         <v>46</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="302" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="1">
         <v>47</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="303" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="1">
         <v>48</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="304" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="1">
         <v>49</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="1">
         <v>50</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="1">
         <v>51</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="1">
         <v>52</v>
       </c>
@@ -7754,7 +7754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="1">
         <v>53</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="1">
         <v>54</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="310" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="1">
         <v>55</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="1">
         <v>56</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="1">
         <v>57</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="1">
         <v>58</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="314" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="1">
         <v>59</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="315" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="1">
         <v>60</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="316" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="1">
         <v>61</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="1">
         <v>62</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="1">
         <v>63</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="1">
         <v>64</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="320" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="1">
         <v>65</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="321" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="1">
         <v>66</v>
       </c>
@@ -8160,7 +8160,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="322" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="1">
         <v>67</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="323" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="1">
         <v>68</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="1">
         <v>69</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="1">
         <v>70</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="326" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="1">
         <v>71</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="1">
         <v>72</v>
       </c>
@@ -8334,12 +8334,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="1">
         <v>129</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="1">
         <v>130</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="1">
         <v>131</v>
       </c>
@@ -8372,7 +8372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="1">
         <v>132</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="1">
         <v>133</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="1">
         <v>134</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="1">
         <v>135</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="1">
         <v>136</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="1">
         <v>137</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="1">
         <v>138</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="1">
         <v>139</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="1">
         <v>140</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="1">
         <v>141</v>
       </c>
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="1">
         <v>142</v>
       </c>
@@ -8493,7 +8493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="1">
         <v>143</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="1">
         <v>144</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="1">
         <v>145</v>
       </c>
@@ -8526,7 +8526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="1">
         <v>146</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="1">
         <v>147</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="1">
         <v>148</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="1">
         <v>149</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="1">
         <v>150</v>
       </c>
@@ -8581,22 +8581,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="1">
         <v>1</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="1">
         <v>2</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="1">
         <v>3</v>
       </c>
@@ -8683,7 +8683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="1">
         <v>4</v>
       </c>
@@ -8712,7 +8712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="1">
         <v>5</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="1">
         <v>6</v>
       </c>
@@ -8770,7 +8770,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="1">
         <v>7</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="1">
         <v>8</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="1">
         <v>9</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="1">
         <v>10</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="1">
         <v>11</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="1">
         <v>12</v>
       </c>
@@ -8944,7 +8944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="1">
         <v>13</v>
       </c>
@@ -8973,7 +8973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="1">
         <v>14</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="1">
         <v>15</v>
       </c>
@@ -9031,7 +9031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" s="1">
         <v>16</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="1">
         <v>17</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="1">
         <v>18</v>
       </c>
@@ -9118,7 +9118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="1">
         <v>19</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="1">
         <v>20</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="1">
         <v>21</v>
       </c>
@@ -9205,7 +9205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="1">
         <v>22</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" s="1">
         <v>23</v>
       </c>
@@ -9263,7 +9263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="1">
         <v>24</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="1">
         <v>25</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="1">
         <v>26</v>
       </c>
@@ -9350,7 +9350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="1">
         <v>27</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="1">
         <v>28</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="1">
         <v>29</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="1">
         <v>30</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="1">
         <v>31</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="1">
         <v>32</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="1">
         <v>33</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="1">
         <v>34</v>
       </c>
@@ -9582,7 +9582,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="1">
         <v>35</v>
       </c>
@@ -9611,7 +9611,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="1">
         <v>36</v>
       </c>
@@ -9640,12 +9640,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="1">
         <v>129</v>
       </c>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="1">
         <v>130</v>
       </c>
@@ -9667,7 +9667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="1">
         <v>131</v>
       </c>
@@ -9678,7 +9678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="1">
         <v>132</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" s="1">
         <v>133</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" s="1">
         <v>134</v>
       </c>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" s="1">
         <v>135</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" s="1">
         <v>136</v>
       </c>
@@ -9733,7 +9733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" s="1">
         <v>137</v>
       </c>
@@ -9744,7 +9744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" s="1">
         <v>138</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" s="1">
         <v>139</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" s="1">
         <v>140</v>
       </c>
@@ -9777,22 +9777,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" s="1">
         <v>1</v>
       </c>
@@ -9821,7 +9821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="1">
         <v>2</v>
       </c>
@@ -9850,7 +9850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" s="1">
         <v>3</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" s="1">
         <v>4</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" s="1">
         <v>5</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" s="1">
         <v>6</v>
       </c>
@@ -9966,7 +9966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" s="1">
         <v>7</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" s="1">
         <v>8</v>
       </c>
@@ -10024,7 +10024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" s="1">
         <v>9</v>
       </c>
@@ -10053,7 +10053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" s="1">
         <v>10</v>
       </c>
@@ -10082,7 +10082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" s="1">
         <v>11</v>
       </c>
@@ -10111,7 +10111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="1">
         <v>12</v>
       </c>
@@ -10140,7 +10140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" s="1">
         <v>13</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" s="1">
         <v>14</v>
       </c>
@@ -10198,7 +10198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" s="1">
         <v>15</v>
       </c>
@@ -10227,7 +10227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" s="1">
         <v>16</v>
       </c>
@@ -10256,7 +10256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" s="1">
         <v>17</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" s="1">
         <v>18</v>
       </c>
@@ -10314,7 +10314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" s="1">
         <v>19</v>
       </c>
@@ -10343,7 +10343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" s="1">
         <v>20</v>
       </c>
@@ -10372,7 +10372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" s="1">
         <v>21</v>
       </c>
@@ -10401,7 +10401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" s="1">
         <v>22</v>
       </c>
@@ -10430,7 +10430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" s="1">
         <v>23</v>
       </c>
@@ -10459,7 +10459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" s="1">
         <v>24</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" s="1">
         <v>25</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" s="1">
         <v>26</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" s="1">
         <v>27</v>
       </c>
@@ -10575,7 +10575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" s="1">
         <v>28</v>
       </c>
@@ -10604,7 +10604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" s="1">
         <v>29</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" s="1">
         <v>30</v>
       </c>
@@ -10662,7 +10662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" s="1">
         <v>31</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" s="1">
         <v>32</v>
       </c>
@@ -10720,7 +10720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" s="1">
         <v>33</v>
       </c>
@@ -10749,7 +10749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" s="1">
         <v>34</v>
       </c>
@@ -10778,7 +10778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" s="1">
         <v>35</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" s="1">
         <v>36</v>
       </c>
@@ -10836,7 +10836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" s="1">
         <v>37</v>
       </c>
@@ -10865,7 +10865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" s="1">
         <v>38</v>
       </c>
@@ -10894,7 +10894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" s="1">
         <v>39</v>
       </c>
@@ -10923,7 +10923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" s="1">
         <v>40</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" s="1">
         <v>41</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" s="1">
         <v>42</v>
       </c>
@@ -11010,7 +11010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" s="1">
         <v>43</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" s="1">
         <v>44</v>
       </c>
@@ -11068,7 +11068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" s="1">
         <v>45</v>
       </c>
@@ -11097,7 +11097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" s="1">
         <v>46</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" s="1">
         <v>47</v>
       </c>
@@ -11155,7 +11155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" s="1">
         <v>48</v>
       </c>
@@ -11184,7 +11184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" s="1">
         <v>49</v>
       </c>
@@ -11213,7 +11213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" s="1">
         <v>50</v>
       </c>
@@ -11242,7 +11242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" s="1">
         <v>51</v>
       </c>
@@ -11271,7 +11271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" s="1">
         <v>52</v>
       </c>
@@ -11300,7 +11300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" s="1">
         <v>53</v>
       </c>
@@ -11329,7 +11329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" s="1">
         <v>54</v>
       </c>
@@ -11358,7 +11358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" s="1">
         <v>55</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" s="1">
         <v>56</v>
       </c>
@@ -11416,12 +11416,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" s="1">
         <v>129</v>
       </c>
@@ -11432,7 +11432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" s="1">
         <v>130</v>
       </c>
@@ -11443,7 +11443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" s="1">
         <v>131</v>
       </c>
@@ -11454,18 +11454,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" s="1">
         <v>132</v>
       </c>
       <c r="B471" s="2">
-        <v>2093</v>
+        <v>2102</v>
       </c>
       <c r="C471">
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" s="1">
         <v>133</v>
       </c>
@@ -11476,7 +11476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" s="1">
         <v>134</v>
       </c>
@@ -11487,7 +11487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" s="1">
         <v>135</v>
       </c>
@@ -11498,7 +11498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" s="1">
         <v>136</v>
       </c>
@@ -11509,7 +11509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" s="1">
         <v>137</v>
       </c>
@@ -11520,7 +11520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" s="1">
         <v>138</v>
       </c>
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" s="1">
         <v>139</v>
       </c>
@@ -11542,7 +11542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" s="1">
         <v>140</v>
       </c>
@@ -11553,7 +11553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" s="1">
         <v>141</v>
       </c>
@@ -11564,7 +11564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" s="1">
         <v>142</v>
       </c>
@@ -11575,7 +11575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" s="1">
         <v>143</v>
       </c>
@@ -11586,29 +11586,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" s="1">
         <v>144</v>
       </c>
       <c r="B483" s="2">
-        <v>2106</v>
+        <v>2100</v>
       </c>
       <c r="C483">
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" s="1">
         <v>145</v>
       </c>
       <c r="B484" s="2">
-        <v>2105</v>
+        <v>2101</v>
       </c>
       <c r="C484">
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" s="1">
         <v>146</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" s="1">
         <v>147</v>
       </c>
@@ -11630,7 +11630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" s="1">
         <v>148</v>
       </c>
@@ -11641,22 +11641,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" s="1">
         <v>1</v>
       </c>
@@ -11685,7 +11685,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" s="1">
         <v>2</v>
       </c>
@@ -11714,7 +11714,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" s="1">
         <v>3</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" s="1">
         <v>4</v>
       </c>
@@ -11772,7 +11772,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" s="1">
         <v>5</v>
       </c>
@@ -11801,7 +11801,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" s="1">
         <v>6</v>
       </c>
@@ -11830,7 +11830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" s="1">
         <v>7</v>
       </c>
@@ -11859,7 +11859,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" s="1">
         <v>8</v>
       </c>
@@ -11888,7 +11888,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" s="1">
         <v>9</v>
       </c>
@@ -11917,7 +11917,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" s="1">
         <v>10</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" s="1">
         <v>11</v>
       </c>
@@ -11975,7 +11975,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" s="1">
         <v>12</v>
       </c>
@@ -12004,7 +12004,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" s="1">
         <v>13</v>
       </c>
@@ -12033,7 +12033,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" s="1">
         <v>14</v>
       </c>
@@ -12062,7 +12062,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" s="1">
         <v>15</v>
       </c>
@@ -12091,7 +12091,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" s="1">
         <v>16</v>
       </c>
@@ -12120,7 +12120,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" s="1">
         <v>17</v>
       </c>
@@ -12149,7 +12149,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" s="1">
         <v>18</v>
       </c>
@@ -12178,7 +12178,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" s="1">
         <v>19</v>
       </c>
@@ -12207,7 +12207,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" s="1">
         <v>20</v>
       </c>
@@ -12236,7 +12236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" s="1">
         <v>21</v>
       </c>
@@ -12265,7 +12265,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" s="1">
         <v>22</v>
       </c>
@@ -12294,7 +12294,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" s="1">
         <v>23</v>
       </c>
@@ -12323,7 +12323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" s="1">
         <v>24</v>
       </c>
@@ -12352,7 +12352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" s="1">
         <v>25</v>
       </c>
@@ -12381,7 +12381,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" s="1">
         <v>26</v>
       </c>
@@ -12410,7 +12410,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" s="1">
         <v>27</v>
       </c>
@@ -12439,7 +12439,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" s="1">
         <v>28</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" s="1">
         <v>29</v>
       </c>
@@ -12497,7 +12497,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" s="1">
         <v>30</v>
       </c>
@@ -12526,7 +12526,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" s="1">
         <v>31</v>
       </c>
@@ -12555,7 +12555,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" s="1">
         <v>32</v>
       </c>
@@ -12584,7 +12584,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" s="1">
         <v>33</v>
       </c>
@@ -12613,7 +12613,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" s="1">
         <v>34</v>
       </c>
@@ -12642,7 +12642,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" s="1">
         <v>35</v>
       </c>
@@ -12671,7 +12671,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" s="1">
         <v>36</v>
       </c>
@@ -12700,7 +12700,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" s="1">
         <v>37</v>
       </c>
@@ -12729,7 +12729,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" s="1">
         <v>38</v>
       </c>
@@ -12758,7 +12758,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" s="1">
         <v>39</v>
       </c>
@@ -12787,7 +12787,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" s="1">
         <v>40</v>
       </c>
@@ -12816,7 +12816,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" s="1">
         <v>41</v>
       </c>
@@ -12845,7 +12845,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" s="1">
         <v>42</v>
       </c>
@@ -12874,7 +12874,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" s="1">
         <v>43</v>
       </c>
@@ -12903,7 +12903,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" s="1">
         <v>44</v>
       </c>
@@ -12932,12 +12932,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" s="1">
         <v>129</v>
       </c>
@@ -12948,7 +12948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" s="1">
         <v>130</v>
       </c>
@@ -12959,7 +12959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" s="1">
         <v>131</v>
       </c>
@@ -12970,7 +12970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" s="1">
         <v>132</v>
       </c>
@@ -12981,7 +12981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" s="1">
         <v>133</v>
       </c>
@@ -12992,7 +12992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" s="1">
         <v>134</v>
       </c>
@@ -13003,7 +13003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" s="1">
         <v>135</v>
       </c>
@@ -13014,7 +13014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" s="1">
         <v>136</v>
       </c>
@@ -13025,7 +13025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" s="1">
         <v>137</v>
       </c>
@@ -13036,7 +13036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" s="1">
         <v>138</v>
       </c>
@@ -13047,7 +13047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" s="1">
         <v>139</v>
       </c>
@@ -13058,7 +13058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" s="1">
         <v>140</v>
       </c>
@@ -13069,7 +13069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" s="1">
         <v>141</v>
       </c>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" s="1">
         <v>142</v>
       </c>
@@ -13091,22 +13091,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" s="1">
         <v>1</v>
       </c>
@@ -13135,7 +13135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" s="1">
         <v>2</v>
       </c>
@@ -13164,7 +13164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" s="1">
         <v>3</v>
       </c>
@@ -13193,7 +13193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" s="1">
         <v>4</v>
       </c>
@@ -13222,7 +13222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" s="1">
         <v>5</v>
       </c>
@@ -13251,7 +13251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" s="1">
         <v>6</v>
       </c>
@@ -13280,7 +13280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" s="1">
         <v>7</v>
       </c>
@@ -13309,7 +13309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" s="1">
         <v>8</v>
       </c>
@@ -13338,7 +13338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" s="1">
         <v>9</v>
       </c>
@@ -13367,7 +13367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" s="1">
         <v>10</v>
       </c>
@@ -13396,7 +13396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" s="1">
         <v>11</v>
       </c>
@@ -13425,7 +13425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" s="1">
         <v>12</v>
       </c>
@@ -13454,7 +13454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" s="1">
         <v>13</v>
       </c>
@@ -13483,7 +13483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A569" s="1">
         <v>14</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" s="1">
         <v>15</v>
       </c>
@@ -13541,7 +13541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" s="1">
         <v>16</v>
       </c>
@@ -13570,7 +13570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" s="1">
         <v>17</v>
       </c>
@@ -13599,7 +13599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" s="1">
         <v>18</v>
       </c>
@@ -13628,7 +13628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" s="1">
         <v>19</v>
       </c>
@@ -13657,7 +13657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A575" s="1">
         <v>20</v>
       </c>
@@ -13686,12 +13686,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" s="1">
         <v>21</v>
       </c>
       <c r="B576" s="2">
-        <v>6190</v>
+        <v>5382</v>
       </c>
       <c r="C576">
         <v>0</v>
@@ -13715,7 +13715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" s="1">
         <v>22</v>
       </c>
@@ -13744,7 +13744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A578" s="1">
         <v>23</v>
       </c>
@@ -13773,7 +13773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" s="1">
         <v>24</v>
       </c>
@@ -13802,7 +13802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" s="1">
         <v>25</v>
       </c>
@@ -13831,7 +13831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" s="1">
         <v>26</v>
       </c>
@@ -13860,7 +13860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" s="1">
         <v>27</v>
       </c>
@@ -13889,7 +13889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" s="1">
         <v>28</v>
       </c>
@@ -13918,7 +13918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" s="1">
         <v>29</v>
       </c>
@@ -13947,7 +13947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" s="1">
         <v>30</v>
       </c>
@@ -13976,7 +13976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" s="1">
         <v>31</v>
       </c>
@@ -14005,7 +14005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A587" s="1">
         <v>32</v>
       </c>
@@ -14034,7 +14034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" s="1">
         <v>33</v>
       </c>
@@ -14063,7 +14063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" s="1">
         <v>34</v>
       </c>
@@ -14092,7 +14092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" s="1">
         <v>35</v>
       </c>
@@ -14121,12 +14121,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" s="1">
         <v>36</v>
       </c>
       <c r="B591" s="2">
-        <v>6205</v>
+        <v>5335</v>
       </c>
       <c r="C591">
         <v>0</v>
@@ -14150,7 +14150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" s="1">
         <v>37</v>
       </c>
@@ -14179,7 +14179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" s="1">
         <v>38</v>
       </c>
@@ -14208,7 +14208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" s="1">
         <v>39</v>
       </c>
@@ -14237,7 +14237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" s="1">
         <v>40</v>
       </c>
@@ -14266,7 +14266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A596" s="1">
         <v>41</v>
       </c>
@@ -14295,7 +14295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" s="1">
         <v>42</v>
       </c>
@@ -14324,7 +14324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" s="1">
         <v>43</v>
       </c>
@@ -14353,7 +14353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" s="1">
         <v>44</v>
       </c>
@@ -14382,7 +14382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" s="1">
         <v>45</v>
       </c>
@@ -14411,7 +14411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" s="1">
         <v>46</v>
       </c>
@@ -14440,7 +14440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" s="1">
         <v>47</v>
       </c>
@@ -14469,7 +14469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" s="1">
         <v>48</v>
       </c>
@@ -14498,7 +14498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" s="1">
         <v>49</v>
       </c>
@@ -14527,7 +14527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" s="1">
         <v>50</v>
       </c>
@@ -14556,7 +14556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" s="1">
         <v>51</v>
       </c>
@@ -14585,7 +14585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A607" s="1">
         <v>52</v>
       </c>
@@ -14614,7 +14614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" s="1">
         <v>53</v>
       </c>
@@ -14643,12 +14643,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" s="1">
         <v>54</v>
       </c>
       <c r="B609" s="2">
-        <v>6223</v>
+        <v>6163</v>
       </c>
       <c r="C609">
         <v>0</v>
@@ -14672,7 +14672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" s="1">
         <v>55</v>
       </c>
@@ -14701,7 +14701,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A611" s="1">
         <v>56</v>
       </c>
@@ -14730,12 +14730,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" s="1">
         <v>129</v>
       </c>
@@ -14746,7 +14746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" s="1">
         <v>130</v>
       </c>
@@ -14757,7 +14757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" s="1">
         <v>131</v>
       </c>
@@ -14768,7 +14768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" s="1">
         <v>132</v>
       </c>
@@ -14779,7 +14779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" s="1">
         <v>133</v>
       </c>
@@ -14790,7 +14790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" s="1">
         <v>134</v>
       </c>
@@ -14801,7 +14801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" s="1">
         <v>135</v>
       </c>
@@ -14812,7 +14812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" s="1">
         <v>136</v>
       </c>
@@ -14823,7 +14823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" s="1">
         <v>137</v>
       </c>
@@ -14834,7 +14834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" s="1">
         <v>138</v>
       </c>
@@ -14845,7 +14845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A624" s="1">
         <v>139</v>
       </c>
@@ -14856,7 +14856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A625" s="1">
         <v>140</v>
       </c>
@@ -14867,7 +14867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A626" s="1">
         <v>141</v>
       </c>
@@ -14878,7 +14878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A627" s="1">
         <v>142</v>
       </c>
@@ -14889,22 +14889,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="629" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A629" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A630" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A631" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A632" s="1">
         <v>1</v>
       </c>
@@ -14933,7 +14933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A633" s="1">
         <v>2</v>
       </c>
@@ -14962,7 +14962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A634" s="1">
         <v>3</v>
       </c>
@@ -14991,7 +14991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A635" s="1">
         <v>4</v>
       </c>
@@ -15020,7 +15020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A636" s="1">
         <v>5</v>
       </c>
@@ -15049,7 +15049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A637" s="1">
         <v>6</v>
       </c>
@@ -15078,7 +15078,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A638" s="1">
         <v>7</v>
       </c>
@@ -15107,7 +15107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A639" s="1">
         <v>8</v>
       </c>
@@ -15136,7 +15136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A640" s="1">
         <v>9</v>
       </c>
@@ -15165,7 +15165,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A641" s="1">
         <v>10</v>
       </c>
@@ -15194,7 +15194,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A642" s="1">
         <v>11</v>
       </c>
@@ -15223,7 +15223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A643" s="1">
         <v>12</v>
       </c>
@@ -15252,7 +15252,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A644" s="1">
         <v>13</v>
       </c>
@@ -15281,7 +15281,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A645" s="1">
         <v>14</v>
       </c>
@@ -15310,7 +15310,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A646" s="1">
         <v>15</v>
       </c>
@@ -15339,7 +15339,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A647" s="1">
         <v>16</v>
       </c>
@@ -15368,7 +15368,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A648" s="1">
         <v>17</v>
       </c>
@@ -15397,7 +15397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A649" s="1">
         <v>18</v>
       </c>
@@ -15426,7 +15426,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A650" s="1">
         <v>19</v>
       </c>
@@ -15455,7 +15455,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A651" s="1">
         <v>20</v>
       </c>
@@ -15484,7 +15484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A652" s="1">
         <v>21</v>
       </c>
@@ -15513,7 +15513,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A653" s="1">
         <v>22</v>
       </c>
@@ -15542,7 +15542,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A654" s="1">
         <v>23</v>
       </c>
@@ -15571,7 +15571,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A655" s="1">
         <v>24</v>
       </c>
@@ -15600,7 +15600,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A656" s="1">
         <v>25</v>
       </c>
@@ -15629,7 +15629,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A657" s="1">
         <v>26</v>
       </c>
@@ -15658,7 +15658,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A658" s="1">
         <v>27</v>
       </c>
@@ -15687,7 +15687,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A659" s="1">
         <v>28</v>
       </c>
@@ -15716,7 +15716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A660" s="1">
         <v>29</v>
       </c>
@@ -15745,7 +15745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A661" s="1">
         <v>30</v>
       </c>
@@ -15774,7 +15774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A662" s="1">
         <v>31</v>
       </c>
@@ -15803,7 +15803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A663" s="1">
         <v>32</v>
       </c>
@@ -15832,7 +15832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A664" s="1">
         <v>33</v>
       </c>
@@ -15861,7 +15861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A665" s="1">
         <v>34</v>
       </c>
@@ -15890,7 +15890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A666" s="1">
         <v>35</v>
       </c>
@@ -15919,7 +15919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A667" s="1">
         <v>36</v>
       </c>
@@ -15948,7 +15948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A668" s="1">
         <v>37</v>
       </c>
@@ -15977,7 +15977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A669" s="1">
         <v>38</v>
       </c>
@@ -16006,7 +16006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A670" s="1">
         <v>39</v>
       </c>
@@ -16035,7 +16035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A671" s="1">
         <v>40</v>
       </c>
@@ -16064,7 +16064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A672" s="1">
         <v>41</v>
       </c>
@@ -16093,7 +16093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A673" s="1">
         <v>42</v>
       </c>
@@ -16122,7 +16122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A674" s="1">
         <v>43</v>
       </c>
@@ -16151,7 +16151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A675" s="1">
         <v>44</v>
       </c>
@@ -16180,7 +16180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A676" s="1">
         <v>45</v>
       </c>
@@ -16209,7 +16209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A677" s="1">
         <v>46</v>
       </c>
@@ -16238,7 +16238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A678" s="1">
         <v>47</v>
       </c>
@@ -16267,7 +16267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A679" s="1">
         <v>48</v>
       </c>
@@ -16296,7 +16296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A680" s="1">
         <v>49</v>
       </c>
@@ -16325,7 +16325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A681" s="1">
         <v>50</v>
       </c>
@@ -16354,12 +16354,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A684" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A685" s="1">
         <v>129</v>
       </c>
@@ -16370,7 +16370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A686" s="1">
         <v>130</v>
       </c>
@@ -16381,7 +16381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A687" s="1">
         <v>131</v>
       </c>
@@ -16392,7 +16392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A688" s="1">
         <v>132</v>
       </c>
@@ -16403,7 +16403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A689" s="1">
         <v>133</v>
       </c>
@@ -16414,7 +16414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A690" s="1">
         <v>134</v>
       </c>
@@ -16425,7 +16425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A691" s="1">
         <v>135</v>
       </c>
@@ -16436,7 +16436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A692" s="1">
         <v>136</v>
       </c>
@@ -16447,7 +16447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A693" s="1">
         <v>137</v>
       </c>
@@ -16458,7 +16458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A694" s="1">
         <v>138</v>
       </c>
@@ -16469,7 +16469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A695" s="1">
         <v>139</v>
       </c>
@@ -16480,7 +16480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A696" s="1">
         <v>140</v>
       </c>
@@ -16491,7 +16491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A697" s="1">
         <v>141</v>
       </c>
@@ -16502,7 +16502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A698" s="1">
         <v>142</v>
       </c>
@@ -16513,22 +16513,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A700" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A701" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A702" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A703" s="1">
         <v>1</v>
       </c>
@@ -16557,7 +16557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A704" s="1">
         <v>2</v>
       </c>
@@ -16586,7 +16586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A705" s="1">
         <v>3</v>
       </c>
@@ -16615,7 +16615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="706" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A706" s="1">
         <v>4</v>
       </c>
@@ -16644,7 +16644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="707" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A707" s="1">
         <v>5</v>
       </c>
@@ -16673,7 +16673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="708" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A708" s="1">
         <v>6</v>
       </c>
@@ -16702,7 +16702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="709" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A709" s="1">
         <v>7</v>
       </c>
@@ -16731,7 +16731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A710" s="1">
         <v>8</v>
       </c>
@@ -16760,7 +16760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="711" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A711" s="1">
         <v>9</v>
       </c>
@@ -16789,7 +16789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="712" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A712" s="1">
         <v>10</v>
       </c>
@@ -16818,7 +16818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="713" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A713" s="1">
         <v>11</v>
       </c>
@@ -16847,7 +16847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="714" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A714" s="1">
         <v>12</v>
       </c>
@@ -16876,7 +16876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="715" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A715" s="1">
         <v>13</v>
       </c>
@@ -16905,7 +16905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A716" s="1">
         <v>14</v>
       </c>
@@ -16934,7 +16934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="717" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A717" s="1">
         <v>15</v>
       </c>
@@ -16963,7 +16963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="718" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A718" s="1">
         <v>16</v>
       </c>
@@ -16992,7 +16992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A719" s="1">
         <v>17</v>
       </c>
@@ -17021,7 +17021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="720" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A720" s="1">
         <v>18</v>
       </c>
@@ -17050,7 +17050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A721" s="1">
         <v>19</v>
       </c>
@@ -17079,7 +17079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A722" s="1">
         <v>20</v>
       </c>
@@ -17108,7 +17108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A723" s="1">
         <v>21</v>
       </c>
@@ -17137,7 +17137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="724" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A724" s="1">
         <v>22</v>
       </c>
@@ -17166,7 +17166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A725" s="1">
         <v>23</v>
       </c>
@@ -17195,7 +17195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A726" s="1">
         <v>24</v>
       </c>
@@ -17224,7 +17224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A727" s="1">
         <v>25</v>
       </c>
@@ -17253,7 +17253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A728" s="1">
         <v>26</v>
       </c>
@@ -17282,7 +17282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A729" s="1">
         <v>27</v>
       </c>
@@ -17311,7 +17311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A730" s="1">
         <v>28</v>
       </c>
@@ -17340,7 +17340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A731" s="1">
         <v>29</v>
       </c>
@@ -17369,7 +17369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A732" s="1">
         <v>30</v>
       </c>
@@ -17398,7 +17398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A733" s="1">
         <v>31</v>
       </c>
@@ -17427,7 +17427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A734" s="1">
         <v>32</v>
       </c>
@@ -17456,7 +17456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A735" s="1">
         <v>33</v>
       </c>
@@ -17485,7 +17485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A736" s="1">
         <v>34</v>
       </c>
@@ -17514,7 +17514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A737" s="1">
         <v>35</v>
       </c>
@@ -17543,7 +17543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A738" s="1">
         <v>36</v>
       </c>
@@ -17572,7 +17572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="739" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A739" s="1">
         <v>37</v>
       </c>
@@ -17601,7 +17601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A740" s="1">
         <v>38</v>
       </c>
@@ -17630,7 +17630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="741" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A741" s="1">
         <v>39</v>
       </c>
@@ -17659,7 +17659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A742" s="1">
         <v>40</v>
       </c>
@@ -17688,7 +17688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="743" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A743" s="1">
         <v>41</v>
       </c>
@@ -17717,7 +17717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="744" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A744" s="1">
         <v>42</v>
       </c>
@@ -17746,7 +17746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A745" s="1">
         <v>43</v>
       </c>
@@ -17775,7 +17775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A746" s="1">
         <v>44</v>
       </c>
@@ -17804,7 +17804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="747" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A747" s="1">
         <v>45</v>
       </c>
@@ -17833,7 +17833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="748" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A748" s="1">
         <v>46</v>
       </c>
@@ -17862,7 +17862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A749" s="1">
         <v>47</v>
       </c>
@@ -17891,7 +17891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A750" s="1">
         <v>48</v>
       </c>
@@ -17920,12 +17920,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A753" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A754" s="1">
         <v>129</v>
       </c>
@@ -17936,7 +17936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A755" s="1">
         <v>130</v>
       </c>
@@ -17947,7 +17947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A756" s="1">
         <v>131</v>
       </c>
@@ -17958,7 +17958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A757" s="1">
         <v>132</v>
       </c>
@@ -17969,7 +17969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A758" s="1">
         <v>133</v>
       </c>
@@ -17980,7 +17980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A759" s="1">
         <v>134</v>
       </c>
@@ -17991,7 +17991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A760" s="1">
         <v>135</v>
       </c>
@@ -18002,7 +18002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A761" s="1">
         <v>136</v>
       </c>
@@ -18013,7 +18013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A762" s="1">
         <v>137</v>
       </c>
@@ -18024,7 +18024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A763" s="1">
         <v>138</v>
       </c>
@@ -18035,7 +18035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A764" s="1">
         <v>139</v>
       </c>
@@ -18046,7 +18046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A765" s="1">
         <v>140</v>
       </c>

--- a/06_납품현황/2017/04_부산용홈만w몰/02_SerialNumber/CCM2_USM_LGM_SerialNumber.xlsx
+++ b/06_납품현황/2017/04_부산용홈만w몰/02_SerialNumber/CCM2_USM_LGM_SerialNumber.xlsx
@@ -402,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I765"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A605" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B471" sqref="B471"/>
+    <sheetView tabSelected="1" topLeftCell="A455" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F476" sqref="F476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -8891,7 +8891,7 @@
         <v>11</v>
       </c>
       <c r="B366" s="2">
-        <v>6310</v>
+        <v>9416</v>
       </c>
       <c r="C366">
         <v>0</v>
@@ -11514,7 +11514,7 @@
         <v>137</v>
       </c>
       <c r="B476" s="2">
-        <v>2176</v>
+        <v>2167</v>
       </c>
       <c r="C476">
         <v>0</v>
@@ -14648,7 +14648,7 @@
         <v>54</v>
       </c>
       <c r="B609" s="2">
-        <v>6163</v>
+        <v>9413</v>
       </c>
       <c r="C609">
         <v>0</v>
@@ -16040,7 +16040,7 @@
         <v>40</v>
       </c>
       <c r="B671" s="2">
-        <v>7063</v>
+        <v>9415</v>
       </c>
       <c r="C671">
         <v>0</v>
@@ -16185,7 +16185,7 @@
         <v>45</v>
       </c>
       <c r="B676" s="2">
-        <v>7068</v>
+        <v>9418</v>
       </c>
       <c r="C676">
         <v>0</v>
